--- a/ASHRAE901_ApartmentHighRise_STD2019_DubaiTable.html+a.xlsx
+++ b/ASHRAE901_ApartmentHighRise_STD2019_DubaiTable.html+a.xlsx
@@ -877,42 +877,42 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2554.34</t>
+          <t>4196.68</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1943.46</t>
+          <t>3648.84</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>325.54</t>
+          <t>443.88</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1782.24</t>
+          <t>3385.11</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1409.40</t>
+          <t>2648.62</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1407.91</t>
+          <t>2650.45</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1955.70</t>
+          <t>2835.09</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1958.67</t>
+          <t>2856.17</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -922,42 +922,42 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2723.48</t>
+          <t>4425.76</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2143.09</t>
+          <t>3855.69</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2615.61</t>
+          <t>3933.53</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>1835.90</t>
+          <t>3489.88</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1404.39</t>
+          <t>2633.69</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1402.06</t>
+          <t>2629.66</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1951.40</t>
+          <t>2933.75</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>1952.94</t>
+          <t>2935.90</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -967,42 +967,42 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>2670.12</t>
+          <t>4359.19</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>1808.97</t>
+          <t>3816.72</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>2305.43</t>
+          <t>3841.10</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>1801.68</t>
+          <t>3454.13</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>1368.70</t>
+          <t>2586.01</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>1366.29</t>
+          <t>2583.66</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>1911.28</t>
+          <t>2885.14</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>1911.57</t>
+          <t>2889.23</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -1012,42 +1012,42 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>2675.13</t>
+          <t>4371.14</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>1339.60</t>
+          <t>3842.47</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>2315.28</t>
+          <t>3852.18</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>1801.94</t>
+          <t>3481.18</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>1364.70</t>
+          <t>2597.23</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>1362.18</t>
+          <t>2595.03</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>1916.79</t>
+          <t>2889.22</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>1916.64</t>
+          <t>2892.54</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1057,42 +1057,42 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>2684.57</t>
+          <t>4387.28</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>897.01</t>
+          <t>3871.72</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>2577.74</t>
+          <t>3876.51</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>1676.24</t>
+          <t>3506.64</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>1363.86</t>
+          <t>2602.51</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>1361.25</t>
+          <t>2609.96</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>1926.52</t>
+          <t>2904.25</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>1944.08</t>
+          <t>2907.36</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
@@ -1102,42 +1102,42 @@
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>2667.58</t>
+          <t>4398.09</t>
         </is>
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>508.72</t>
+          <t>3887.82</t>
         </is>
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>2477.74</t>
+          <t>3893.80</t>
         </is>
       </c>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>1266.93</t>
+          <t>3524.82</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>1363.76</t>
+          <t>2608.79</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr">
         <is>
-          <t>1361.05</t>
+          <t>2607.84</t>
         </is>
       </c>
       <c r="AZ3" t="inlineStr">
         <is>
-          <t>1934.40</t>
+          <t>2921.72</t>
         </is>
       </c>
       <c r="BA3" t="inlineStr">
         <is>
-          <t>1952.16</t>
+          <t>2926.94</t>
         </is>
       </c>
       <c r="BB3" t="inlineStr">
@@ -1147,42 +1147,42 @@
       </c>
       <c r="BC3" t="inlineStr">
         <is>
-          <t>2580.07</t>
+          <t>4235.75</t>
         </is>
       </c>
       <c r="BD3" t="inlineStr">
         <is>
-          <t>327.59</t>
+          <t>3911.11</t>
         </is>
       </c>
       <c r="BE3" t="inlineStr">
         <is>
-          <t>2330.82</t>
+          <t>3950.51</t>
         </is>
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>907.54</t>
+          <t>3550.27</t>
         </is>
       </c>
       <c r="BG3" t="inlineStr">
         <is>
-          <t>1212.91</t>
+          <t>2612.05</t>
         </is>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>1230.95</t>
+          <t>2608.98</t>
         </is>
       </c>
       <c r="BI3" t="inlineStr">
         <is>
-          <t>1940.74</t>
+          <t>2942.04</t>
         </is>
       </c>
       <c r="BJ3" t="inlineStr">
         <is>
-          <t>1957.42</t>
+          <t>2944.56</t>
         </is>
       </c>
       <c r="BK3" t="inlineStr">
@@ -1192,42 +1192,42 @@
       </c>
       <c r="BL3" t="inlineStr">
         <is>
-          <t>2584.88</t>
+          <t>4263.72</t>
         </is>
       </c>
       <c r="BM3" t="inlineStr">
         <is>
-          <t>327.56</t>
+          <t>3942.47</t>
         </is>
       </c>
       <c r="BN3" t="inlineStr">
         <is>
-          <t>2331.86</t>
+          <t>3973.13</t>
         </is>
       </c>
       <c r="BO3" t="inlineStr">
         <is>
-          <t>639.18</t>
+          <t>3582.12</t>
         </is>
       </c>
       <c r="BP3" t="inlineStr">
         <is>
-          <t>972.64</t>
+          <t>2636.17</t>
         </is>
       </c>
       <c r="BQ3" t="inlineStr">
         <is>
-          <t>982.81</t>
+          <t>2631.37</t>
         </is>
       </c>
       <c r="BR3" t="inlineStr">
         <is>
-          <t>1952.14</t>
+          <t>2964.15</t>
         </is>
       </c>
       <c r="BS3" t="inlineStr">
         <is>
-          <t>1968.27</t>
+          <t>2966.51</t>
         </is>
       </c>
       <c r="BT3" t="inlineStr">
@@ -1237,42 +1237,42 @@
       </c>
       <c r="BU3" t="inlineStr">
         <is>
-          <t>2667.94</t>
+          <t>4386.47</t>
         </is>
       </c>
       <c r="BV3" t="inlineStr">
         <is>
-          <t>388.76</t>
+          <t>4076.63</t>
         </is>
       </c>
       <c r="BW3" t="inlineStr">
         <is>
-          <t>2407.15</t>
+          <t>4093.89</t>
         </is>
       </c>
       <c r="BX3" t="inlineStr">
         <is>
-          <t>969.47</t>
+          <t>3700.23</t>
         </is>
       </c>
       <c r="BY3" t="inlineStr">
         <is>
-          <t>1353.08</t>
+          <t>2771.01</t>
         </is>
       </c>
       <c r="BZ3" t="inlineStr">
         <is>
-          <t>1347.08</t>
+          <t>2773.84</t>
         </is>
       </c>
       <c r="CA3" t="inlineStr">
         <is>
-          <t>2047.54</t>
+          <t>3040.28</t>
         </is>
       </c>
       <c r="CB3" t="inlineStr">
         <is>
-          <t>2042.34</t>
+          <t>3042.66</t>
         </is>
       </c>
       <c r="CC3" t="inlineStr">
@@ -1282,42 +1282,42 @@
       </c>
       <c r="CD3" t="inlineStr">
         <is>
-          <t>3581.54</t>
+          <t>5189.77</t>
         </is>
       </c>
       <c r="CE3" t="inlineStr">
         <is>
-          <t>1195.97</t>
+          <t>4740.29</t>
         </is>
       </c>
       <c r="CF3" t="inlineStr">
         <is>
-          <t>3202.22</t>
+          <t>4844.29</t>
         </is>
       </c>
       <c r="CG3" t="inlineStr">
         <is>
-          <t>751.72</t>
+          <t>4304.06</t>
         </is>
       </c>
       <c r="CH3" t="inlineStr">
         <is>
-          <t>1745.14</t>
+          <t>3355.17</t>
         </is>
       </c>
       <c r="CI3" t="inlineStr">
         <is>
-          <t>1741.86</t>
+          <t>3348.71</t>
         </is>
       </c>
       <c r="CJ3" t="inlineStr">
         <is>
-          <t>3503.30</t>
+          <t>3831.82</t>
         </is>
       </c>
       <c r="CK3" t="inlineStr">
         <is>
-          <t>3503.97</t>
+          <t>3843.89</t>
         </is>
       </c>
       <c r="CL3" t="inlineStr">
@@ -1329,42 +1329,42 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>344.23</t>
+          <t>4075.23</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>343.83</t>
+          <t>3731.37</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>182.78</t>
+          <t>649.67</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>103.09</t>
+          <t>3410.17</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>111.65</t>
+          <t>2713.82</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>112.01</t>
+          <t>2710.16</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1010.44</t>
+          <t>2863.29</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1141.57</t>
+          <t>2872.37</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1374,42 +1374,42 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>391.65</t>
+          <t>4314.81</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>345.85</t>
+          <t>3963.13</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>1778.79</t>
+          <t>3969.84</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>102.83</t>
+          <t>3577.19</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>112.62</t>
+          <t>2651.85</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>112.97</t>
+          <t>2646.34</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1356.51</t>
+          <t>2920.09</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>1413.65</t>
+          <t>2927.51</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1419,42 +1419,42 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>344.80</t>
+          <t>4264.15</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>345.80</t>
+          <t>3927.72</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>674.21</t>
+          <t>3883.81</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>102.60</t>
+          <t>3538.99</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>112.65</t>
+          <t>2594.99</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>112.95</t>
+          <t>2598.30</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>1247.44</t>
+          <t>2877.04</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>1247.40</t>
+          <t>2884.75</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1464,42 +1464,42 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>345.47</t>
+          <t>4290.93</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>342.94</t>
+          <t>3971.60</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>254.43</t>
+          <t>3903.41</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>102.13</t>
+          <t>3566.39</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>112.00</t>
+          <t>2605.28</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>112.25</t>
+          <t>2600.94</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>1033.92</t>
+          <t>2875.34</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1029.51</t>
+          <t>2888.42</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1509,42 +1509,42 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>345.84</t>
+          <t>4330.81</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>343.67</t>
+          <t>4011.80</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>102.69</t>
+          <t>3929.27</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>101.64</t>
+          <t>3596.19</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>111.18</t>
+          <t>2634.76</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>111.37</t>
+          <t>2629.36</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>817.60</t>
+          <t>2880.65</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>804.06</t>
+          <t>2883.69</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
@@ -1554,42 +1554,42 @@
       </c>
       <c r="AT4" t="inlineStr">
         <is>
-          <t>342.87</t>
+          <t>4316.93</t>
         </is>
       </c>
       <c r="AU4" t="inlineStr">
         <is>
-          <t>343.54</t>
+          <t>4046.81</t>
         </is>
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>101.91</t>
+          <t>3935.11</t>
         </is>
       </c>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>101.21</t>
+          <t>3599.47</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>110.34</t>
+          <t>2674.59</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr">
         <is>
-          <t>110.50</t>
+          <t>2668.98</t>
         </is>
       </c>
       <c r="AZ4" t="inlineStr">
         <is>
-          <t>590.71</t>
+          <t>2927.07</t>
         </is>
       </c>
       <c r="BA4" t="inlineStr">
         <is>
-          <t>554.33</t>
+          <t>2929.85</t>
         </is>
       </c>
       <c r="BB4" t="inlineStr">
@@ -1599,42 +1599,42 @@
       </c>
       <c r="BC4" t="inlineStr">
         <is>
-          <t>343.60</t>
+          <t>4339.18</t>
         </is>
       </c>
       <c r="BD4" t="inlineStr">
         <is>
-          <t>344.02</t>
+          <t>4080.75</t>
         </is>
       </c>
       <c r="BE4" t="inlineStr">
         <is>
-          <t>342.87</t>
+          <t>4005.75</t>
         </is>
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>100.78</t>
+          <t>3624.58</t>
         </is>
       </c>
       <c r="BG4" t="inlineStr">
         <is>
-          <t>109.46</t>
+          <t>2690.42</t>
         </is>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>109.58</t>
+          <t>2684.76</t>
         </is>
       </c>
       <c r="BI4" t="inlineStr">
         <is>
-          <t>368.27</t>
+          <t>2944.14</t>
         </is>
       </c>
       <c r="BJ4" t="inlineStr">
         <is>
-          <t>299.45</t>
+          <t>2946.67</t>
         </is>
       </c>
       <c r="BK4" t="inlineStr">
@@ -1644,42 +1644,42 @@
       </c>
       <c r="BL4" t="inlineStr">
         <is>
-          <t>344.03</t>
+          <t>4356.77</t>
         </is>
       </c>
       <c r="BM4" t="inlineStr">
         <is>
-          <t>344.28</t>
+          <t>4120.41</t>
         </is>
       </c>
       <c r="BN4" t="inlineStr">
         <is>
-          <t>344.06</t>
+          <t>4033.54</t>
         </is>
       </c>
       <c r="BO4" t="inlineStr">
         <is>
-          <t>100.25</t>
+          <t>3655.04</t>
         </is>
       </c>
       <c r="BP4" t="inlineStr">
         <is>
-          <t>108.36</t>
+          <t>2713.88</t>
         </is>
       </c>
       <c r="BQ4" t="inlineStr">
         <is>
-          <t>108.44</t>
+          <t>2708.16</t>
         </is>
       </c>
       <c r="BR4" t="inlineStr">
         <is>
-          <t>218.45</t>
+          <t>2955.71</t>
         </is>
       </c>
       <c r="BS4" t="inlineStr">
         <is>
-          <t>223.18</t>
+          <t>2963.23</t>
         </is>
       </c>
       <c r="BT4" t="inlineStr">
@@ -1689,42 +1689,42 @@
       </c>
       <c r="BU4" t="inlineStr">
         <is>
-          <t>343.52</t>
+          <t>4484.78</t>
         </is>
       </c>
       <c r="BV4" t="inlineStr">
         <is>
-          <t>343.33</t>
+          <t>4283.13</t>
         </is>
       </c>
       <c r="BW4" t="inlineStr">
         <is>
-          <t>343.56</t>
+          <t>4150.87</t>
         </is>
       </c>
       <c r="BX4" t="inlineStr">
         <is>
-          <t>99.22</t>
+          <t>3772.12</t>
         </is>
       </c>
       <c r="BY4" t="inlineStr">
         <is>
-          <t>106.55</t>
+          <t>2828.35</t>
         </is>
       </c>
       <c r="BZ4" t="inlineStr">
         <is>
-          <t>106.61</t>
+          <t>2822.42</t>
         </is>
       </c>
       <c r="CA4" t="inlineStr">
         <is>
-          <t>373.08</t>
+          <t>3061.32</t>
         </is>
       </c>
       <c r="CB4" t="inlineStr">
         <is>
-          <t>380.18</t>
+          <t>3060.82</t>
         </is>
       </c>
       <c r="CC4" t="inlineStr">
@@ -1734,42 +1734,42 @@
       </c>
       <c r="CD4" t="inlineStr">
         <is>
-          <t>633.26</t>
+          <t>5401.53</t>
         </is>
       </c>
       <c r="CE4" t="inlineStr">
         <is>
-          <t>340.12</t>
+          <t>5096.06</t>
         </is>
       </c>
       <c r="CF4" t="inlineStr">
         <is>
-          <t>404.26</t>
+          <t>4923.68</t>
         </is>
       </c>
       <c r="CG4" t="inlineStr">
         <is>
-          <t>340.12</t>
+          <t>4461.08</t>
         </is>
       </c>
       <c r="CH4" t="inlineStr">
         <is>
-          <t>103.18</t>
+          <t>3409.42</t>
         </is>
       </c>
       <c r="CI4" t="inlineStr">
         <is>
-          <t>103.20</t>
+          <t>3404.89</t>
         </is>
       </c>
       <c r="CJ4" t="inlineStr">
         <is>
-          <t>1758.74</t>
+          <t>3858.80</t>
         </is>
       </c>
       <c r="CK4" t="inlineStr">
         <is>
-          <t>1758.79</t>
+          <t>3861.52</t>
         </is>
       </c>
       <c r="CL4" t="inlineStr">
@@ -1781,42 +1781,42 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2711.79</t>
+          <t>4061.64</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2435.29</t>
+          <t>3836.40</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>204.33</t>
+          <t>616.69</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2197.52</t>
+          <t>3485.76</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1676.19</t>
+          <t>2707.69</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1674.63</t>
+          <t>2704.86</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1862.82</t>
+          <t>2865.11</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1874.85</t>
+          <t>2880.61</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1826,42 +1826,42 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>3011.25</t>
+          <t>4315.56</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2702.07</t>
+          <t>4060.16</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2778.07</t>
+          <t>4031.58</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2365.34</t>
+          <t>3623.03</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1687.31</t>
+          <t>2709.63</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1686.05</t>
+          <t>2703.49</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>1897.47</t>
+          <t>2951.00</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>1897.92</t>
+          <t>2960.43</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1871,42 +1871,42 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>2969.45</t>
+          <t>4260.23</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>2687.11</t>
+          <t>4005.82</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>2705.07</t>
+          <t>3937.65</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>2353.72</t>
+          <t>3567.30</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>1663.56</t>
+          <t>2664.92</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>1661.92</t>
+          <t>2659.15</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>1861.35</t>
+          <t>2888.38</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>1858.92</t>
+          <t>2899.45</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1916,42 +1916,42 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>2976.63</t>
+          <t>4281.17</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2694.87</t>
+          <t>4029.26</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>2714.30</t>
+          <t>3947.77</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>2371.38</t>
+          <t>3589.80</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>1671.20</t>
+          <t>2671.99</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>1669.85</t>
+          <t>2666.21</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>1862.82</t>
+          <t>2908.84</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1860.52</t>
+          <t>2910.75</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1961,42 +1961,42 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>2985.58</t>
+          <t>4307.84</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>2702.44</t>
+          <t>4054.29</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>2725.10</t>
+          <t>3974.08</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>2384.25</t>
+          <t>3615.38</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>1676.90</t>
+          <t>2685.70</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>1676.79</t>
+          <t>2679.92</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>1872.42</t>
+          <t>2946.35</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>1893.28</t>
+          <t>2948.06</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
@@ -2006,132 +2006,132 @@
       </c>
       <c r="AT5" t="inlineStr">
         <is>
-          <t>2984.37</t>
+          <t>4332.21</t>
         </is>
       </c>
       <c r="AU5" t="inlineStr">
         <is>
-          <t>2709.38</t>
+          <t>4078.25</t>
         </is>
       </c>
       <c r="AV5" t="inlineStr">
         <is>
+          <t>3996.44</t>
+        </is>
+      </c>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>3661.64</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>2705.23</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr">
+        <is>
+          <t>2699.41</t>
+        </is>
+      </c>
+      <c r="AZ5" t="inlineStr">
+        <is>
+          <t>2963.95</t>
+        </is>
+      </c>
+      <c r="BA5" t="inlineStr">
+        <is>
+          <t>2966.15</t>
+        </is>
+      </c>
+      <c r="BB5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BC5" t="inlineStr">
+        <is>
+          <t>4356.30</t>
+        </is>
+      </c>
+      <c r="BD5" t="inlineStr">
+        <is>
+          <t>4102.25</t>
+        </is>
+      </c>
+      <c r="BE5" t="inlineStr">
+        <is>
+          <t>4071.58</t>
+        </is>
+      </c>
+      <c r="BF5" t="inlineStr">
+        <is>
+          <t>3665.16</t>
+        </is>
+      </c>
+      <c r="BG5" t="inlineStr">
+        <is>
+          <t>2703.08</t>
+        </is>
+      </c>
+      <c r="BH5" t="inlineStr">
+        <is>
+          <t>2698.54</t>
+        </is>
+      </c>
+      <c r="BI5" t="inlineStr">
+        <is>
+          <t>2980.40</t>
+        </is>
+      </c>
+      <c r="BJ5" t="inlineStr">
+        <is>
+          <t>2979.36</t>
+        </is>
+      </c>
+      <c r="BK5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BL5" t="inlineStr">
+        <is>
+          <t>4383.88</t>
+        </is>
+      </c>
+      <c r="BM5" t="inlineStr">
+        <is>
+          <t>4132.04</t>
+        </is>
+      </c>
+      <c r="BN5" t="inlineStr">
+        <is>
+          <t>4104.21</t>
+        </is>
+      </c>
+      <c r="BO5" t="inlineStr">
+        <is>
+          <t>3693.21</t>
+        </is>
+      </c>
+      <c r="BP5" t="inlineStr">
+        <is>
           <t>2725.54</t>
         </is>
       </c>
-      <c r="AW5" t="inlineStr">
-        <is>
-          <t>2392.57</t>
-        </is>
-      </c>
-      <c r="AX5" t="inlineStr">
-        <is>
-          <t>1682.07</t>
-        </is>
-      </c>
-      <c r="AY5" t="inlineStr">
-        <is>
-          <t>1679.49</t>
-        </is>
-      </c>
-      <c r="AZ5" t="inlineStr">
-        <is>
-          <t>1874.83</t>
-        </is>
-      </c>
-      <c r="BA5" t="inlineStr">
-        <is>
-          <t>1896.74</t>
-        </is>
-      </c>
-      <c r="BB5" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="BC5" t="inlineStr">
-        <is>
-          <t>2992.20</t>
-        </is>
-      </c>
-      <c r="BD5" t="inlineStr">
-        <is>
-          <t>2715.51</t>
-        </is>
-      </c>
-      <c r="BE5" t="inlineStr">
-        <is>
-          <t>2706.74</t>
-        </is>
-      </c>
-      <c r="BF5" t="inlineStr">
-        <is>
-          <t>2404.16</t>
-        </is>
-      </c>
-      <c r="BG5" t="inlineStr">
-        <is>
-          <t>1689.74</t>
-        </is>
-      </c>
-      <c r="BH5" t="inlineStr">
-        <is>
-          <t>1686.76</t>
-        </is>
-      </c>
-      <c r="BI5" t="inlineStr">
-        <is>
-          <t>1873.93</t>
-        </is>
-      </c>
-      <c r="BJ5" t="inlineStr">
-        <is>
-          <t>1895.70</t>
-        </is>
-      </c>
-      <c r="BK5" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="BL5" t="inlineStr">
-        <is>
-          <t>3012.22</t>
-        </is>
-      </c>
-      <c r="BM5" t="inlineStr">
-        <is>
-          <t>2738.25</t>
-        </is>
-      </c>
-      <c r="BN5" t="inlineStr">
-        <is>
-          <t>2726.24</t>
-        </is>
-      </c>
-      <c r="BO5" t="inlineStr">
-        <is>
-          <t>2427.90</t>
-        </is>
-      </c>
-      <c r="BP5" t="inlineStr">
-        <is>
-          <t>1705.52</t>
-        </is>
-      </c>
       <c r="BQ5" t="inlineStr">
         <is>
-          <t>1705.34</t>
+          <t>2720.25</t>
         </is>
       </c>
       <c r="BR5" t="inlineStr">
         <is>
-          <t>1892.60</t>
+          <t>2998.82</t>
         </is>
       </c>
       <c r="BS5" t="inlineStr">
         <is>
-          <t>1914.56</t>
+          <t>3001.73</t>
         </is>
       </c>
       <c r="BT5" t="inlineStr">
@@ -2141,42 +2141,42 @@
       </c>
       <c r="BU5" t="inlineStr">
         <is>
-          <t>3141.83</t>
+          <t>4516.27</t>
         </is>
       </c>
       <c r="BV5" t="inlineStr">
         <is>
-          <t>2874.57</t>
+          <t>4258.12</t>
         </is>
       </c>
       <c r="BW5" t="inlineStr">
         <is>
-          <t>2841.03</t>
+          <t>4254.43</t>
         </is>
       </c>
       <c r="BX5" t="inlineStr">
         <is>
-          <t>2560.25</t>
+          <t>3805.18</t>
         </is>
       </c>
       <c r="BY5" t="inlineStr">
         <is>
-          <t>1828.55</t>
+          <t>2846.40</t>
         </is>
       </c>
       <c r="BZ5" t="inlineStr">
         <is>
-          <t>1826.22</t>
+          <t>2837.54</t>
         </is>
       </c>
       <c r="CA5" t="inlineStr">
         <is>
-          <t>2016.60</t>
+          <t>3105.81</t>
         </is>
       </c>
       <c r="CB5" t="inlineStr">
         <is>
-          <t>2014.32</t>
+          <t>3107.51</t>
         </is>
       </c>
       <c r="CC5" t="inlineStr">
@@ -2186,42 +2186,42 @@
       </c>
       <c r="CD5" t="inlineStr">
         <is>
-          <t>3954.36</t>
+          <t>5347.37</t>
         </is>
       </c>
       <c r="CE5" t="inlineStr">
         <is>
-          <t>3698.72</t>
+          <t>5121.44</t>
         </is>
       </c>
       <c r="CF5" t="inlineStr">
         <is>
-          <t>3594.69</t>
+          <t>5084.21</t>
         </is>
       </c>
       <c r="CG5" t="inlineStr">
         <is>
-          <t>3243.39</t>
+          <t>4529.32</t>
         </is>
       </c>
       <c r="CH5" t="inlineStr">
         <is>
-          <t>2452.06</t>
+          <t>3516.34</t>
         </is>
       </c>
       <c r="CI5" t="inlineStr">
         <is>
-          <t>2447.93</t>
+          <t>3510.37</t>
         </is>
       </c>
       <c r="CJ5" t="inlineStr">
         <is>
-          <t>2730.90</t>
+          <t>3870.51</t>
         </is>
       </c>
       <c r="CK5" t="inlineStr">
         <is>
-          <t>2734.34</t>
+          <t>3867.49</t>
         </is>
       </c>
       <c r="CL5" t="inlineStr">
@@ -2233,42 +2233,42 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2722.10</t>
+          <t>3902.88</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2630.02</t>
+          <t>3736.14</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>290.99</t>
+          <t>803.42</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2510.69</t>
+          <t>3497.86</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1954.59</t>
+          <t>2696.04</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1952.58</t>
+          <t>2691.96</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2034.71</t>
+          <t>2833.29</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2069.62</t>
+          <t>2839.89</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -2278,42 +2278,42 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>3018.90</t>
+          <t>4119.99</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2882.44</t>
+          <t>3946.48</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2986.35</t>
+          <t>3977.56</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2677.44</t>
+          <t>3608.26</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2002.23</t>
+          <t>2663.61</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1999.05</t>
+          <t>2658.20</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>2082.33</t>
+          <t>2879.67</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2087.45</t>
+          <t>2892.22</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -2323,42 +2323,42 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>2976.69</t>
+          <t>4092.61</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>2848.06</t>
+          <t>3906.96</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>2831.89</t>
+          <t>3904.09</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>2648.67</t>
+          <t>3548.81</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>1968.49</t>
+          <t>2605.91</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>1965.49</t>
+          <t>2600.57</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2043.29</t>
+          <t>2811.50</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2042.15</t>
+          <t>2818.45</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -2368,42 +2368,42 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>2986.06</t>
+          <t>4132.29</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2859.67</t>
+          <t>3937.80</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>2831.31</t>
+          <t>3895.01</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>2663.17</t>
+          <t>3571.13</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>1975.01</t>
+          <t>2612.15</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>1972.09</t>
+          <t>2606.49</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>2047.63</t>
+          <t>2823.11</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>2044.85</t>
+          <t>2826.37</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -2413,42 +2413,42 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>2921.58</t>
+          <t>4178.97</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>2799.82</t>
+          <t>3979.15</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>2761.16</t>
+          <t>3905.59</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>2602.29</t>
+          <t>3638.24</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>1925.20</t>
+          <t>2636.96</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>1922.38</t>
+          <t>2630.80</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>1993.37</t>
+          <t>2824.91</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>2012.57</t>
+          <t>2827.94</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
@@ -2458,42 +2458,42 @@
       </c>
       <c r="AT6" t="inlineStr">
         <is>
-          <t>2947.49</t>
+          <t>4213.43</t>
         </is>
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>2810.20</t>
+          <t>4015.92</t>
         </is>
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>2770.20</t>
+          <t>3947.52</t>
         </is>
       </c>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>2614.03</t>
+          <t>3622.28</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>1931.37</t>
+          <t>2666.75</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr">
         <is>
-          <t>1928.42</t>
+          <t>2660.52</t>
         </is>
       </c>
       <c r="AZ6" t="inlineStr">
         <is>
-          <t>1998.33</t>
+          <t>2837.72</t>
         </is>
       </c>
       <c r="BA6" t="inlineStr">
         <is>
-          <t>2017.85</t>
+          <t>2840.63</t>
         </is>
       </c>
       <c r="BB6" t="inlineStr">
@@ -2503,42 +2503,42 @@
       </c>
       <c r="BC6" t="inlineStr">
         <is>
-          <t>2952.74</t>
+          <t>4249.58</t>
         </is>
       </c>
       <c r="BD6" t="inlineStr">
         <is>
-          <t>2820.47</t>
+          <t>4049.70</t>
         </is>
       </c>
       <c r="BE6" t="inlineStr">
         <is>
-          <t>2720.90</t>
+          <t>3969.68</t>
         </is>
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2625.54</t>
+          <t>3650.46</t>
         </is>
       </c>
       <c r="BG6" t="inlineStr">
         <is>
-          <t>1937.83</t>
+          <t>2694.78</t>
         </is>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>1934.91</t>
+          <t>2688.44</t>
         </is>
       </c>
       <c r="BI6" t="inlineStr">
         <is>
-          <t>2004.04</t>
+          <t>2842.66</t>
         </is>
       </c>
       <c r="BJ6" t="inlineStr">
         <is>
-          <t>2024.15</t>
+          <t>2855.21</t>
         </is>
       </c>
       <c r="BK6" t="inlineStr">
@@ -2548,42 +2548,42 @@
       </c>
       <c r="BL6" t="inlineStr">
         <is>
-          <t>2969.92</t>
+          <t>4284.56</t>
         </is>
       </c>
       <c r="BM6" t="inlineStr">
         <is>
-          <t>2838.97</t>
+          <t>4124.98</t>
         </is>
       </c>
       <c r="BN6" t="inlineStr">
         <is>
-          <t>2734.62</t>
+          <t>3987.72</t>
         </is>
       </c>
       <c r="BO6" t="inlineStr">
         <is>
-          <t>2644.86</t>
+          <t>3691.69</t>
         </is>
       </c>
       <c r="BP6" t="inlineStr">
         <is>
-          <t>1952.82</t>
+          <t>2730.86</t>
         </is>
       </c>
       <c r="BQ6" t="inlineStr">
         <is>
-          <t>1949.64</t>
+          <t>2724.54</t>
         </is>
       </c>
       <c r="BR6" t="inlineStr">
         <is>
-          <t>2018.20</t>
+          <t>2889.16</t>
         </is>
       </c>
       <c r="BS6" t="inlineStr">
         <is>
-          <t>2038.80</t>
+          <t>2891.51</t>
         </is>
       </c>
       <c r="BT6" t="inlineStr">
@@ -2593,42 +2593,42 @@
       </c>
       <c r="BU6" t="inlineStr">
         <is>
-          <t>3086.83</t>
+          <t>4411.90</t>
         </is>
       </c>
       <c r="BV6" t="inlineStr">
         <is>
-          <t>2948.20</t>
+          <t>4257.20</t>
         </is>
       </c>
       <c r="BW6" t="inlineStr">
         <is>
-          <t>2841.27</t>
+          <t>4091.01</t>
         </is>
       </c>
       <c r="BX6" t="inlineStr">
         <is>
-          <t>2747.02</t>
+          <t>3830.40</t>
         </is>
       </c>
       <c r="BY6" t="inlineStr">
         <is>
-          <t>2048.01</t>
+          <t>2843.69</t>
         </is>
       </c>
       <c r="BZ6" t="inlineStr">
         <is>
-          <t>2044.65</t>
+          <t>2837.34</t>
         </is>
       </c>
       <c r="CA6" t="inlineStr">
         <is>
-          <t>2113.94</t>
+          <t>2995.32</t>
         </is>
       </c>
       <c r="CB6" t="inlineStr">
         <is>
-          <t>2109.87</t>
+          <t>2997.75</t>
         </is>
       </c>
       <c r="CC6" t="inlineStr">
@@ -2638,42 +2638,42 @@
       </c>
       <c r="CD6" t="inlineStr">
         <is>
-          <t>3864.21</t>
+          <t>5209.10</t>
         </is>
       </c>
       <c r="CE6" t="inlineStr">
         <is>
-          <t>3590.98</t>
+          <t>4930.59</t>
         </is>
       </c>
       <c r="CF6" t="inlineStr">
         <is>
-          <t>3490.97</t>
+          <t>4890.54</t>
         </is>
       </c>
       <c r="CG6" t="inlineStr">
         <is>
-          <t>3178.48</t>
+          <t>4556.18</t>
         </is>
       </c>
       <c r="CH6" t="inlineStr">
         <is>
-          <t>2474.88</t>
+          <t>3470.75</t>
         </is>
       </c>
       <c r="CI6" t="inlineStr">
         <is>
-          <t>2472.04</t>
+          <t>3472.79</t>
         </is>
       </c>
       <c r="CJ6" t="inlineStr">
         <is>
-          <t>2644.99</t>
+          <t>3754.07</t>
         </is>
       </c>
       <c r="CK6" t="inlineStr">
         <is>
-          <t>2645.22</t>
+          <t>3761.58</t>
         </is>
       </c>
       <c r="CL6" t="inlineStr">
@@ -2685,42 +2685,42 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3178.57</t>
+          <t>3896.38</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3125.29</t>
+          <t>3794.14</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>262.79</t>
+          <t>954.95</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2808.27</t>
+          <t>3542.58</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2195.66</t>
+          <t>2703.64</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2191.11</t>
+          <t>2700.66</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2222.14</t>
+          <t>2781.49</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2245.02</t>
+          <t>2797.27</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -2730,42 +2730,42 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>3426.40</t>
+          <t>4106.42</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>3344.45</t>
+          <t>3948.29</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>3155.35</t>
+          <t>3915.52</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2928.66</t>
+          <t>3665.49</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2184.34</t>
+          <t>2694.62</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2178.47</t>
+          <t>2684.13</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>2219.94</t>
+          <t>2851.28</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2220.67</t>
+          <t>2852.65</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -2775,42 +2775,42 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>3370.51</t>
+          <t>4073.72</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>3292.50</t>
+          <t>3921.41</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>3037.95</t>
+          <t>3809.13</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>2885.80</t>
+          <t>3616.39</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>2141.89</t>
+          <t>2655.54</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>2127.94</t>
+          <t>2649.81</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2167.53</t>
+          <t>2822.06</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2163.25</t>
+          <t>2825.49</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -2820,42 +2820,42 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>3381.60</t>
+          <t>4104.33</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>3304.55</t>
+          <t>3957.81</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>3042.67</t>
+          <t>3828.66</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>2901.33</t>
+          <t>3640.61</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>2145.98</t>
+          <t>2663.49</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>2140.13</t>
+          <t>2657.83</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>2170.73</t>
+          <t>2817.36</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>2165.23</t>
+          <t>2819.66</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -2865,42 +2865,42 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>3399.35</t>
+          <t>4136.27</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>3321.12</t>
+          <t>3991.62</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>3058.76</t>
+          <t>3840.54</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>2920.41</t>
+          <t>3668.24</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>2154.63</t>
+          <t>2680.03</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>2148.77</t>
+          <t>2674.41</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>2179.28</t>
+          <t>2832.14</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>2198.29</t>
+          <t>2834.32</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
@@ -2910,42 +2910,42 @@
       </c>
       <c r="AT7" t="inlineStr">
         <is>
-          <t>3381.39</t>
+          <t>4165.15</t>
         </is>
       </c>
       <c r="AU7" t="inlineStr">
         <is>
-          <t>3299.80</t>
+          <t>4021.97</t>
         </is>
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>3043.06</t>
+          <t>3879.68</t>
         </is>
       </c>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>2903.55</t>
+          <t>3695.98</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>2136.37</t>
+          <t>2695.08</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr">
         <is>
-          <t>2123.30</t>
+          <t>2689.50</t>
         </is>
       </c>
       <c r="AZ7" t="inlineStr">
         <is>
-          <t>2165.43</t>
+          <t>2838.53</t>
         </is>
       </c>
       <c r="BA7" t="inlineStr">
         <is>
-          <t>2184.41</t>
+          <t>2840.49</t>
         </is>
       </c>
       <c r="BB7" t="inlineStr">
@@ -2955,42 +2955,42 @@
       </c>
       <c r="BC7" t="inlineStr">
         <is>
-          <t>3395.68</t>
+          <t>4191.95</t>
         </is>
       </c>
       <c r="BD7" t="inlineStr">
         <is>
-          <t>3314.14</t>
+          <t>4050.03</t>
         </is>
       </c>
       <c r="BE7" t="inlineStr">
         <is>
-          <t>3046.72</t>
+          <t>3927.47</t>
         </is>
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2920.14</t>
+          <t>3722.09</t>
         </is>
       </c>
       <c r="BG7" t="inlineStr">
         <is>
-          <t>2145.64</t>
+          <t>2710.87</t>
         </is>
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2132.44</t>
+          <t>2705.32</t>
         </is>
       </c>
       <c r="BI7" t="inlineStr">
         <is>
-          <t>2174.49</t>
+          <t>2855.38</t>
         </is>
       </c>
       <c r="BJ7" t="inlineStr">
         <is>
-          <t>2194.25</t>
+          <t>2857.28</t>
         </is>
       </c>
       <c r="BK7" t="inlineStr">
@@ -3000,42 +3000,42 @@
       </c>
       <c r="BL7" t="inlineStr">
         <is>
-          <t>3417.07</t>
+          <t>4225.08</t>
         </is>
       </c>
       <c r="BM7" t="inlineStr">
         <is>
-          <t>3335.65</t>
+          <t>4084.52</t>
         </is>
       </c>
       <c r="BN7" t="inlineStr">
         <is>
-          <t>3069.19</t>
+          <t>3961.07</t>
         </is>
       </c>
       <c r="BO7" t="inlineStr">
         <is>
-          <t>2943.33</t>
+          <t>3755.09</t>
         </is>
       </c>
       <c r="BP7" t="inlineStr">
         <is>
-          <t>2162.69</t>
+          <t>2735.08</t>
         </is>
       </c>
       <c r="BQ7" t="inlineStr">
         <is>
-          <t>2149.36</t>
+          <t>2729.55</t>
         </is>
       </c>
       <c r="BR7" t="inlineStr">
         <is>
-          <t>2191.19</t>
+          <t>2879.57</t>
         </is>
       </c>
       <c r="BS7" t="inlineStr">
         <is>
-          <t>2211.29</t>
+          <t>2881.50</t>
         </is>
       </c>
       <c r="BT7" t="inlineStr">
@@ -3045,42 +3045,42 @@
       </c>
       <c r="BU7" t="inlineStr">
         <is>
-          <t>3535.07</t>
+          <t>4355.38</t>
         </is>
       </c>
       <c r="BV7" t="inlineStr">
         <is>
-          <t>3454.12</t>
+          <t>4217.25</t>
         </is>
       </c>
       <c r="BW7" t="inlineStr">
         <is>
-          <t>3177.71</t>
+          <t>4078.92</t>
         </is>
       </c>
       <c r="BX7" t="inlineStr">
         <is>
-          <t>3052.83</t>
+          <t>3876.98</t>
         </is>
       </c>
       <c r="BY7" t="inlineStr">
         <is>
-          <t>2264.43</t>
+          <t>2849.97</t>
         </is>
       </c>
       <c r="BZ7" t="inlineStr">
         <is>
-          <t>2258.52</t>
+          <t>2844.40</t>
         </is>
       </c>
       <c r="CA7" t="inlineStr">
         <is>
-          <t>2294.32</t>
+          <t>2993.85</t>
         </is>
       </c>
       <c r="CB7" t="inlineStr">
         <is>
-          <t>2288.21</t>
+          <t>2996.08</t>
         </is>
       </c>
       <c r="CC7" t="inlineStr">
@@ -3090,42 +3090,42 @@
       </c>
       <c r="CD7" t="inlineStr">
         <is>
-          <t>4192.51</t>
+          <t>5033.75</t>
         </is>
       </c>
       <c r="CE7" t="inlineStr">
         <is>
-          <t>4094.24</t>
+          <t>4811.85</t>
         </is>
       </c>
       <c r="CF7" t="inlineStr">
         <is>
-          <t>3761.84</t>
+          <t>4788.58</t>
         </is>
       </c>
       <c r="CG7" t="inlineStr">
         <is>
-          <t>3632.54</t>
+          <t>4476.15</t>
         </is>
       </c>
       <c r="CH7" t="inlineStr">
         <is>
-          <t>2755.74</t>
+          <t>3421.55</t>
         </is>
       </c>
       <c r="CI7" t="inlineStr">
         <is>
-          <t>2750.09</t>
+          <t>3420.95</t>
         </is>
       </c>
       <c r="CJ7" t="inlineStr">
         <is>
-          <t>2914.78</t>
+          <t>3652.14</t>
         </is>
       </c>
       <c r="CK7" t="inlineStr">
         <is>
-          <t>2912.55</t>
+          <t>3653.49</t>
         </is>
       </c>
       <c r="CL7" t="inlineStr">
@@ -3137,42 +3137,42 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2539.14</t>
+          <t>3756.29</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2501.13</t>
+          <t>3625.44</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>554.73</t>
+          <t>1085.63</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2444.40</t>
+          <t>3421.54</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1928.12</t>
+          <t>2661.43</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1923.82</t>
+          <t>2656.82</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1952.20</t>
+          <t>2732.95</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2003.86</t>
+          <t>2729.18</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -3182,42 +3182,42 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2703.89</t>
+          <t>3963.39</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2646.76</t>
+          <t>3814.46</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2805.87</t>
+          <t>3764.83</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2525.53</t>
+          <t>3512.42</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>1919.41</t>
+          <t>2637.58</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1914.35</t>
+          <t>2630.88</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>1945.84</t>
+          <t>2807.38</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>1954.71</t>
+          <t>2812.68</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -3227,42 +3227,42 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>2558.86</t>
+          <t>3910.74</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>2561.87</t>
+          <t>3772.37</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>2555.28</t>
+          <t>3697.61</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>2424.42</t>
+          <t>3473.87</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>1810.00</t>
+          <t>2597.68</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>1807.10</t>
+          <t>2591.01</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>1836.88</t>
+          <t>2766.37</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>1836.25</t>
+          <t>2769.18</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -3272,42 +3272,42 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>2416.74</t>
+          <t>3935.60</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2554.98</t>
+          <t>3800.28</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>2383.84</t>
+          <t>3713.03</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>2277.18</t>
+          <t>3502.67</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>1750.56</t>
+          <t>2619.72</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>1747.31</t>
+          <t>2613.82</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>1785.05</t>
+          <t>2788.36</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>1795.18</t>
+          <t>2790.52</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -3317,42 +3317,42 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>2389.27</t>
+          <t>3965.36</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>2551.25</t>
+          <t>3832.13</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>2363.77</t>
+          <t>3742.77</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>2258.60</t>
+          <t>3535.27</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>1758.90</t>
+          <t>2638.63</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>1755.60</t>
+          <t>2632.76</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>1792.08</t>
+          <t>2805.79</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>1809.68</t>
+          <t>2807.85</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
@@ -3362,42 +3362,42 @@
       </c>
       <c r="AT8" t="inlineStr">
         <is>
-          <t>2386.83</t>
+          <t>3998.36</t>
         </is>
       </c>
       <c r="AU8" t="inlineStr">
         <is>
-          <t>2548.47</t>
+          <t>3860.91</t>
         </is>
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>2373.62</t>
+          <t>3768.57</t>
         </is>
       </c>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>2271.81</t>
+          <t>3564.63</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>1771.12</t>
+          <t>2656.32</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr">
         <is>
-          <t>1766.89</t>
+          <t>2650.47</t>
         </is>
       </c>
       <c r="AZ8" t="inlineStr">
         <is>
-          <t>1798.61</t>
+          <t>2822.37</t>
         </is>
       </c>
       <c r="BA8" t="inlineStr">
         <is>
-          <t>1816.41</t>
+          <t>2824.36</t>
         </is>
       </c>
       <c r="BB8" t="inlineStr">
@@ -3407,42 +3407,42 @@
       </c>
       <c r="BC8" t="inlineStr">
         <is>
-          <t>2385.75</t>
+          <t>4023.90</t>
         </is>
       </c>
       <c r="BD8" t="inlineStr">
         <is>
-          <t>2546.30</t>
+          <t>3887.64</t>
         </is>
       </c>
       <c r="BE8" t="inlineStr">
         <is>
-          <t>2201.79</t>
+          <t>3752.47</t>
         </is>
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2284.20</t>
+          <t>3591.83</t>
         </is>
       </c>
       <c r="BG8" t="inlineStr">
         <is>
-          <t>1783.40</t>
+          <t>2673.37</t>
         </is>
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>1778.94</t>
+          <t>2667.54</t>
         </is>
       </c>
       <c r="BI8" t="inlineStr">
         <is>
-          <t>1804.80</t>
+          <t>2838.58</t>
         </is>
       </c>
       <c r="BJ8" t="inlineStr">
         <is>
-          <t>1822.99</t>
+          <t>2840.52</t>
         </is>
       </c>
       <c r="BK8" t="inlineStr">
@@ -3452,42 +3452,42 @@
       </c>
       <c r="BL8" t="inlineStr">
         <is>
-          <t>2392.48</t>
+          <t>4055.88</t>
         </is>
       </c>
       <c r="BM8" t="inlineStr">
         <is>
-          <t>2548.38</t>
+          <t>3920.77</t>
         </is>
       </c>
       <c r="BN8" t="inlineStr">
         <is>
-          <t>2216.51</t>
+          <t>3784.60</t>
         </is>
       </c>
       <c r="BO8" t="inlineStr">
         <is>
-          <t>2301.75</t>
+          <t>3625.05</t>
         </is>
       </c>
       <c r="BP8" t="inlineStr">
         <is>
-          <t>1796.16</t>
+          <t>2698.24</t>
         </is>
       </c>
       <c r="BQ8" t="inlineStr">
         <is>
-          <t>1791.76</t>
+          <t>2692.46</t>
         </is>
       </c>
       <c r="BR8" t="inlineStr">
         <is>
-          <t>1815.76</t>
+          <t>2862.13</t>
         </is>
       </c>
       <c r="BS8" t="inlineStr">
         <is>
-          <t>1834.51</t>
+          <t>2863.99</t>
         </is>
       </c>
       <c r="BT8" t="inlineStr">
@@ -3497,42 +3497,42 @@
       </c>
       <c r="BU8" t="inlineStr">
         <is>
-          <t>2463.90</t>
+          <t>4177.50</t>
         </is>
       </c>
       <c r="BV8" t="inlineStr">
         <is>
-          <t>2616.41</t>
+          <t>4044.91</t>
         </is>
       </c>
       <c r="BW8" t="inlineStr">
         <is>
-          <t>2282.69</t>
+          <t>3899.34</t>
         </is>
       </c>
       <c r="BX8" t="inlineStr">
         <is>
-          <t>2375.73</t>
+          <t>3741.44</t>
         </is>
       </c>
       <c r="BY8" t="inlineStr">
         <is>
-          <t>1855.11</t>
+          <t>2811.38</t>
         </is>
       </c>
       <c r="BZ8" t="inlineStr">
         <is>
-          <t>1851.53</t>
+          <t>2805.54</t>
         </is>
       </c>
       <c r="CA8" t="inlineStr">
         <is>
-          <t>1886.10</t>
+          <t>2961.69</t>
         </is>
       </c>
       <c r="CB8" t="inlineStr">
         <is>
-          <t>1881.96</t>
+          <t>2963.53</t>
         </is>
       </c>
       <c r="CC8" t="inlineStr">
@@ -3542,42 +3542,42 @@
       </c>
       <c r="CD8" t="inlineStr">
         <is>
-          <t>2849.97</t>
+          <t>4759.69</t>
         </is>
       </c>
       <c r="CE8" t="inlineStr">
         <is>
-          <t>3083.08</t>
+          <t>4615.22</t>
         </is>
       </c>
       <c r="CF8" t="inlineStr">
         <is>
-          <t>2611.61</t>
+          <t>4454.07</t>
         </is>
       </c>
       <c r="CG8" t="inlineStr">
         <is>
-          <t>2579.11</t>
+          <t>4215.21</t>
         </is>
       </c>
       <c r="CH8" t="inlineStr">
         <is>
-          <t>2071.62</t>
+          <t>3316.98</t>
         </is>
       </c>
       <c r="CI8" t="inlineStr">
         <is>
-          <t>2055.10</t>
+          <t>3313.80</t>
         </is>
       </c>
       <c r="CJ8" t="inlineStr">
         <is>
-          <t>2129.46</t>
+          <t>3553.36</t>
         </is>
       </c>
       <c r="CK8" t="inlineStr">
         <is>
-          <t>2130.37</t>
+          <t>3554.80</t>
         </is>
       </c>
       <c r="CL8" t="inlineStr">
@@ -3589,42 +3589,42 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2281.55</t>
+          <t>3602.02</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2334.05</t>
+          <t>3480.22</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>568.76</t>
+          <t>1368.38</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2280.74</t>
+          <t>3336.65</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1794.83</t>
+          <t>2624.16</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1791.10</t>
+          <t>2620.22</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1803.44</t>
+          <t>2693.33</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1852.38</t>
+          <t>2695.10</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -3634,42 +3634,42 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2423.07</t>
+          <t>3801.65</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2571.64</t>
+          <t>3656.14</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2589.64</t>
+          <t>3697.11</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2309.00</t>
+          <t>3427.75</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>1755.38</t>
+          <t>2582.01</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1750.54</t>
+          <t>2576.32</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>1757.59</t>
+          <t>2750.27</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>1765.60</t>
+          <t>2753.62</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -3679,42 +3679,42 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>2369.71</t>
+          <t>3743.83</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>2516.04</t>
+          <t>3603.36</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>2249.96</t>
+          <t>3596.06</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>2108.93</t>
+          <t>3369.02</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>1614.61</t>
+          <t>2511.40</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>1609.32</t>
+          <t>2505.83</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>1620.45</t>
+          <t>2683.79</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>1630.65</t>
+          <t>2686.26</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -3724,42 +3724,42 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>2360.92</t>
+          <t>3768.60</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2506.42</t>
+          <t>3629.86</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>2219.94</t>
+          <t>3610.24</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>2106.25</t>
+          <t>3395.25</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>1612.53</t>
+          <t>2523.07</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>1612.85</t>
+          <t>2517.54</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>1613.73</t>
+          <t>2694.79</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>1610.64</t>
+          <t>2697.02</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -3769,42 +3769,42 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>2358.71</t>
+          <t>3797.89</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>2503.51</t>
+          <t>3660.15</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>2217.98</t>
+          <t>3638.68</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>2110.38</t>
+          <t>3425.42</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>1640.84</t>
+          <t>2540.76</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>1641.14</t>
+          <t>2535.26</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>1613.48</t>
+          <t>2712.19</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>1629.16</t>
+          <t>2714.33</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
@@ -3814,42 +3814,42 @@
       </c>
       <c r="AT9" t="inlineStr">
         <is>
-          <t>2357.71</t>
+          <t>3824.48</t>
         </is>
       </c>
       <c r="AU9" t="inlineStr">
         <is>
-          <t>2501.92</t>
+          <t>3687.48</t>
         </is>
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>2220.85</t>
+          <t>3663.44</t>
         </is>
       </c>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>2115.08</t>
+          <t>3452.70</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>1672.74</t>
+          <t>2557.32</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr">
         <is>
-          <t>1669.10</t>
+          <t>2551.85</t>
         </is>
       </c>
       <c r="AZ9" t="inlineStr">
         <is>
-          <t>1678.90</t>
+          <t>2728.65</t>
         </is>
       </c>
       <c r="BA9" t="inlineStr">
         <is>
-          <t>1679.19</t>
+          <t>2730.72</t>
         </is>
       </c>
       <c r="BB9" t="inlineStr">
@@ -3859,42 +3859,42 @@
       </c>
       <c r="BC9" t="inlineStr">
         <is>
-          <t>2357.76</t>
+          <t>3849.24</t>
         </is>
       </c>
       <c r="BD9" t="inlineStr">
         <is>
-          <t>2501.41</t>
+          <t>3712.84</t>
         </is>
       </c>
       <c r="BE9" t="inlineStr">
         <is>
-          <t>2125.32</t>
+          <t>3607.22</t>
         </is>
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2120.21</t>
+          <t>3478.11</t>
         </is>
       </c>
       <c r="BG9" t="inlineStr">
         <is>
-          <t>1679.55</t>
+          <t>2573.30</t>
         </is>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>1675.92</t>
+          <t>2567.85</t>
         </is>
       </c>
       <c r="BI9" t="inlineStr">
         <is>
-          <t>1694.91</t>
+          <t>2744.64</t>
         </is>
       </c>
       <c r="BJ9" t="inlineStr">
         <is>
-          <t>1701.39</t>
+          <t>2746.65</t>
         </is>
       </c>
       <c r="BK9" t="inlineStr">
@@ -3904,42 +3904,42 @@
       </c>
       <c r="BL9" t="inlineStr">
         <is>
-          <t>2363.65</t>
+          <t>3880.14</t>
         </is>
       </c>
       <c r="BM9" t="inlineStr">
         <is>
-          <t>2506.78</t>
+          <t>3744.34</t>
         </is>
       </c>
       <c r="BN9" t="inlineStr">
         <is>
-          <t>2136.76</t>
+          <t>3638.36</t>
         </is>
       </c>
       <c r="BO9" t="inlineStr">
         <is>
-          <t>2131.12</t>
+          <t>3509.58</t>
         </is>
       </c>
       <c r="BP9" t="inlineStr">
         <is>
-          <t>1693.16</t>
+          <t>2599.73</t>
         </is>
       </c>
       <c r="BQ9" t="inlineStr">
         <is>
-          <t>1689.55</t>
+          <t>2594.31</t>
         </is>
       </c>
       <c r="BR9" t="inlineStr">
         <is>
-          <t>1707.88</t>
+          <t>2767.77</t>
         </is>
       </c>
       <c r="BS9" t="inlineStr">
         <is>
-          <t>1725.39</t>
+          <t>2769.73</t>
         </is>
       </c>
       <c r="BT9" t="inlineStr">
@@ -3949,42 +3949,42 @@
       </c>
       <c r="BU9" t="inlineStr">
         <is>
-          <t>2437.21</t>
+          <t>3996.09</t>
         </is>
       </c>
       <c r="BV9" t="inlineStr">
         <is>
-          <t>2581.91</t>
+          <t>3862.00</t>
         </is>
       </c>
       <c r="BW9" t="inlineStr">
         <is>
-          <t>2206.85</t>
+          <t>3748.24</t>
         </is>
       </c>
       <c r="BX9" t="inlineStr">
         <is>
-          <t>2204.88</t>
+          <t>3621.17</t>
         </is>
       </c>
       <c r="BY9" t="inlineStr">
         <is>
-          <t>1776.70</t>
+          <t>2708.21</t>
         </is>
       </c>
       <c r="BZ9" t="inlineStr">
         <is>
-          <t>1773.07</t>
+          <t>2702.74</t>
         </is>
       </c>
       <c r="CA9" t="inlineStr">
         <is>
-          <t>1785.88</t>
+          <t>2864.11</t>
         </is>
       </c>
       <c r="CB9" t="inlineStr">
         <is>
-          <t>1786.10</t>
+          <t>2866.05</t>
         </is>
       </c>
       <c r="CC9" t="inlineStr">
@@ -3994,42 +3994,42 @@
       </c>
       <c r="CD9" t="inlineStr">
         <is>
-          <t>2882.46</t>
+          <t>4575.94</t>
         </is>
       </c>
       <c r="CE9" t="inlineStr">
         <is>
-          <t>3019.42</t>
+          <t>4421.00</t>
         </is>
       </c>
       <c r="CF9" t="inlineStr">
         <is>
-          <t>2588.45</t>
+          <t>4301.20</t>
         </is>
       </c>
       <c r="CG9" t="inlineStr">
         <is>
-          <t>2468.58</t>
+          <t>4063.46</t>
         </is>
       </c>
       <c r="CH9" t="inlineStr">
         <is>
-          <t>2036.73</t>
+          <t>3210.12</t>
         </is>
       </c>
       <c r="CI9" t="inlineStr">
         <is>
-          <t>2022.58</t>
+          <t>3207.46</t>
         </is>
       </c>
       <c r="CJ9" t="inlineStr">
         <is>
-          <t>2125.26</t>
+          <t>3447.45</t>
         </is>
       </c>
       <c r="CK9" t="inlineStr">
         <is>
-          <t>2126.52</t>
+          <t>3449.29</t>
         </is>
       </c>
       <c r="CL9" t="inlineStr">
@@ -4041,42 +4041,42 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2412.54</t>
+          <t>3171.31</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2374.49</t>
+          <t>3104.70</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>789.85</t>
+          <t>1578.17</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2325.81</t>
+          <t>2826.97</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1849.27</t>
+          <t>2146.74</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1845.44</t>
+          <t>2140.80</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1883.37</t>
+          <t>2260.40</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>1935.12</t>
+          <t>2403.23</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -4086,42 +4086,42 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2499.94</t>
+          <t>3393.35</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2434.66</t>
+          <t>3246.38</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2647.50</t>
+          <t>3455.72</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2323.06</t>
+          <t>2897.98</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>1800.19</t>
+          <t>2134.30</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1795.40</t>
+          <t>2125.55</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>1836.77</t>
+          <t>2222.90</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>1849.13</t>
+          <t>2246.94</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -4131,42 +4131,42 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>2355.51</t>
+          <t>3344.89</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>2273.92</t>
+          <t>3201.58</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>2308.93</t>
+          <t>3031.78</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>2175.33</t>
+          <t>2910.08</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>1617.71</t>
+          <t>2122.21</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>1614.02</t>
+          <t>2112.58</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>1649.31</t>
+          <t>2169.45</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>1647.65</t>
+          <t>2168.76</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -4176,42 +4176,42 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>2346.25</t>
+          <t>3365.61</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>2275.45</t>
+          <t>3235.12</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>2296.85</t>
+          <t>3063.04</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>2187.08</t>
+          <t>2972.31</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>1621.51</t>
+          <t>2157.67</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>1617.86</t>
+          <t>2147.40</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>1651.46</t>
+          <t>2184.90</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>1648.11</t>
+          <t>2176.34</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -4221,42 +4221,42 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>2344.97</t>
+          <t>3392.14</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>2284.28</t>
+          <t>3268.68</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>2277.68</t>
+          <t>3124.52</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>2172.79</t>
+          <t>3031.17</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>1625.39</t>
+          <t>2194.23</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>1621.66</t>
+          <t>2183.43</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>1646.76</t>
+          <t>2219.19</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>1662.58</t>
+          <t>2209.66</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
@@ -4266,42 +4266,42 @@
       </c>
       <c r="AT10" t="inlineStr">
         <is>
-          <t>2348.47</t>
+          <t>3416.59</t>
         </is>
       </c>
       <c r="AU10" t="inlineStr">
         <is>
-          <t>2292.92</t>
+          <t>3300.04</t>
         </is>
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>2285.33</t>
+          <t>3181.98</t>
         </is>
       </c>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>2182.48</t>
+          <t>3082.77</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>1634.78</t>
+          <t>2226.85</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr">
         <is>
-          <t>1631.11</t>
+          <t>2215.59</t>
         </is>
       </c>
       <c r="AZ10" t="inlineStr">
         <is>
-          <t>1654.13</t>
+          <t>2250.05</t>
         </is>
       </c>
       <c r="BA10" t="inlineStr">
         <is>
-          <t>1671.19</t>
+          <t>2240.12</t>
         </is>
       </c>
       <c r="BB10" t="inlineStr">
@@ -4311,42 +4311,42 @@
       </c>
       <c r="BC10" t="inlineStr">
         <is>
-          <t>2356.36</t>
+          <t>3439.63</t>
         </is>
       </c>
       <c r="BD10" t="inlineStr">
         <is>
-          <t>2301.62</t>
+          <t>3328.67</t>
         </is>
       </c>
       <c r="BE10" t="inlineStr">
         <is>
-          <t>2170.97</t>
+          <t>3132.20</t>
         </is>
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2192.06</t>
+          <t>3129.35</t>
         </is>
       </c>
       <c r="BG10" t="inlineStr">
         <is>
-          <t>1644.17</t>
+          <t>2256.85</t>
         </is>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>1640.51</t>
+          <t>2245.19</t>
         </is>
       </c>
       <c r="BI10" t="inlineStr">
         <is>
-          <t>1662.37</t>
+          <t>2278.58</t>
         </is>
       </c>
       <c r="BJ10" t="inlineStr">
         <is>
-          <t>1680.44</t>
+          <t>2270.22</t>
         </is>
       </c>
       <c r="BK10" t="inlineStr">
@@ -4356,42 +4356,42 @@
       </c>
       <c r="BL10" t="inlineStr">
         <is>
-          <t>2371.78</t>
+          <t>3469.17</t>
         </is>
       </c>
       <c r="BM10" t="inlineStr">
         <is>
-          <t>2317.71</t>
+          <t>3360.70</t>
         </is>
       </c>
       <c r="BN10" t="inlineStr">
         <is>
-          <t>2187.41</t>
+          <t>3163.93</t>
         </is>
       </c>
       <c r="BO10" t="inlineStr">
         <is>
-          <t>2208.84</t>
+          <t>3178.20</t>
         </is>
       </c>
       <c r="BP10" t="inlineStr">
         <is>
-          <t>1640.06</t>
+          <t>2290.24</t>
         </is>
       </c>
       <c r="BQ10" t="inlineStr">
         <is>
-          <t>1636.15</t>
+          <t>2278.29</t>
         </is>
       </c>
       <c r="BR10" t="inlineStr">
         <is>
-          <t>1659.37</t>
+          <t>2310.76</t>
         </is>
       </c>
       <c r="BS10" t="inlineStr">
         <is>
-          <t>1678.18</t>
+          <t>2302.66</t>
         </is>
       </c>
       <c r="BT10" t="inlineStr">
@@ -4401,42 +4401,42 @@
       </c>
       <c r="BU10" t="inlineStr">
         <is>
-          <t>2455.77</t>
+          <t>3583.91</t>
         </is>
       </c>
       <c r="BV10" t="inlineStr">
         <is>
-          <t>2402.96</t>
+          <t>3470.96</t>
         </is>
       </c>
       <c r="BW10" t="inlineStr">
         <is>
-          <t>2265.19</t>
+          <t>3275.93</t>
         </is>
       </c>
       <c r="BX10" t="inlineStr">
         <is>
-          <t>2291.09</t>
+          <t>3303.79</t>
         </is>
       </c>
       <c r="BY10" t="inlineStr">
         <is>
-          <t>1725.25</t>
+          <t>2387.70</t>
         </is>
       </c>
       <c r="BZ10" t="inlineStr">
         <is>
-          <t>1721.43</t>
+          <t>2375.94</t>
         </is>
       </c>
       <c r="CA10" t="inlineStr">
         <is>
-          <t>1743.30</t>
+          <t>2408.91</t>
         </is>
       </c>
       <c r="CB10" t="inlineStr">
         <is>
-          <t>1739.68</t>
+          <t>2400.85</t>
         </is>
       </c>
       <c r="CC10" t="inlineStr">
@@ -4446,42 +4446,42 @@
       </c>
       <c r="CD10" t="inlineStr">
         <is>
-          <t>2824.28</t>
+          <t>4227.89</t>
         </is>
       </c>
       <c r="CE10" t="inlineStr">
         <is>
-          <t>2758.67</t>
+          <t>4080.73</t>
         </is>
       </c>
       <c r="CF10" t="inlineStr">
         <is>
-          <t>2609.66</t>
+          <t>3772.68</t>
         </is>
       </c>
       <c r="CG10" t="inlineStr">
         <is>
-          <t>2494.85</t>
+          <t>3592.05</t>
         </is>
       </c>
       <c r="CH10" t="inlineStr">
         <is>
-          <t>2047.37</t>
+          <t>2753.64</t>
         </is>
       </c>
       <c r="CI10" t="inlineStr">
         <is>
-          <t>2044.79</t>
+          <t>2734.09</t>
         </is>
       </c>
       <c r="CJ10" t="inlineStr">
         <is>
-          <t>2164.03</t>
+          <t>2912.36</t>
         </is>
       </c>
       <c r="CK10" t="inlineStr">
         <is>
-          <t>2163.96</t>
+          <t>2916.38</t>
         </is>
       </c>
       <c r="CL10" t="inlineStr">
@@ -4493,42 +4493,42 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2824.92</t>
+          <t>3862.86</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2754.57</t>
+          <t>3704.04</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>888.96</t>
+          <t>1403.95</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2615.06</t>
+          <t>3455.79</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2048.39</t>
+          <t>2714.08</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2044.97</t>
+          <t>2709.92</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2110.41</t>
+          <t>2793.97</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2151.26</t>
+          <t>2792.15</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -4538,42 +4538,42 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2910.15</t>
+          <t>4064.85</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2781.78</t>
+          <t>3886.06</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2928.95</t>
+          <t>3828.97</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2568.14</t>
+          <t>3542.71</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>1955.84</t>
+          <t>2666.10</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1951.49</t>
+          <t>2660.13</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>2037.69</t>
+          <t>2845.26</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2043.86</t>
+          <t>2848.57</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -4583,42 +4583,42 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>2737.04</t>
+          <t>4005.99</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>2652.36</t>
+          <t>3846.30</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>2685.82</t>
+          <t>3735.32</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>2511.06</t>
+          <t>3512.53</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>1898.67</t>
+          <t>2620.17</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>1894.43</t>
+          <t>2614.25</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>1953.22</t>
+          <t>2797.28</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>1951.22</t>
+          <t>2799.64</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -4628,42 +4628,42 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>2748.26</t>
+          <t>4034.87</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>2665.40</t>
+          <t>3878.48</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>2676.15</t>
+          <t>3763.12</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>2526.90</t>
+          <t>3548.42</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>1904.27</t>
+          <t>2636.81</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>1900.06</t>
+          <t>2630.92</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>1956.91</t>
+          <t>2812.09</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>1952.97</t>
+          <t>2814.28</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -4673,42 +4673,42 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>2767.38</t>
+          <t>4069.94</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>2684.39</t>
+          <t>3912.92</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>2693.39</t>
+          <t>3798.29</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>2469.45</t>
+          <t>3582.11</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>1917.18</t>
+          <t>2658.80</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>1912.97</t>
+          <t>2652.94</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>1968.56</t>
+          <t>2832.89</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>1987.47</t>
+          <t>2834.99</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
@@ -4718,42 +4718,42 @@
       </c>
       <c r="AT11" t="inlineStr">
         <is>
-          <t>2784.20</t>
+          <t>4101.79</t>
         </is>
       </c>
       <c r="AU11" t="inlineStr">
         <is>
-          <t>2701.94</t>
+          <t>3946.14</t>
         </is>
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>2712.01</t>
+          <t>3829.91</t>
         </is>
       </c>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>2489.16</t>
+          <t>3617.06</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>1929.80</t>
+          <t>2679.07</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr">
         <is>
-          <t>1925.60</t>
+          <t>2673.23</t>
         </is>
       </c>
       <c r="AZ11" t="inlineStr">
         <is>
-          <t>1980.17</t>
+          <t>2852.31</t>
         </is>
       </c>
       <c r="BA11" t="inlineStr">
         <is>
-          <t>1999.96</t>
+          <t>2854.34</t>
         </is>
       </c>
       <c r="BB11" t="inlineStr">
@@ -4763,42 +4763,42 @@
       </c>
       <c r="BC11" t="inlineStr">
         <is>
-          <t>2800.17</t>
+          <t>4131.55</t>
         </is>
       </c>
       <c r="BD11" t="inlineStr">
         <is>
-          <t>2718.47</t>
+          <t>3976.98</t>
         </is>
       </c>
       <c r="BE11" t="inlineStr">
         <is>
-          <t>2588.49</t>
+          <t>3839.13</t>
         </is>
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2507.68</t>
+          <t>3649.55</t>
         </is>
       </c>
       <c r="BG11" t="inlineStr">
         <is>
-          <t>1877.87</t>
+          <t>2698.36</t>
         </is>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>1873.67</t>
+          <t>2692.53</t>
         </is>
       </c>
       <c r="BI11" t="inlineStr">
         <is>
-          <t>1991.94</t>
+          <t>2870.96</t>
         </is>
       </c>
       <c r="BJ11" t="inlineStr">
         <is>
-          <t>2012.56</t>
+          <t>2872.94</t>
         </is>
       </c>
       <c r="BK11" t="inlineStr">
@@ -4808,42 +4808,42 @@
       </c>
       <c r="BL11" t="inlineStr">
         <is>
-          <t>2822.61</t>
+          <t>4169.34</t>
         </is>
       </c>
       <c r="BM11" t="inlineStr">
         <is>
-          <t>2741.42</t>
+          <t>4015.59</t>
         </is>
       </c>
       <c r="BN11" t="inlineStr">
         <is>
-          <t>2611.61</t>
+          <t>3873.59</t>
         </is>
       </c>
       <c r="BO11" t="inlineStr">
         <is>
-          <t>2524.39</t>
+          <t>3687.89</t>
         </is>
       </c>
       <c r="BP11" t="inlineStr">
         <is>
-          <t>1896.76</t>
+          <t>2725.29</t>
         </is>
       </c>
       <c r="BQ11" t="inlineStr">
         <is>
-          <t>1958.59</t>
+          <t>2719.49</t>
         </is>
       </c>
       <c r="BR11" t="inlineStr">
         <is>
-          <t>2011.64</t>
+          <t>2896.77</t>
         </is>
       </c>
       <c r="BS11" t="inlineStr">
         <is>
-          <t>2032.69</t>
+          <t>2898.69</t>
         </is>
       </c>
       <c r="BT11" t="inlineStr">
@@ -4853,42 +4853,42 @@
       </c>
       <c r="BU11" t="inlineStr">
         <is>
-          <t>2913.11</t>
+          <t>4306.24</t>
         </is>
       </c>
       <c r="BV11" t="inlineStr">
         <is>
-          <t>2833.24</t>
+          <t>4155.91</t>
         </is>
       </c>
       <c r="BW11" t="inlineStr">
         <is>
-          <t>2695.47</t>
+          <t>3991.77</t>
         </is>
       </c>
       <c r="BX11" t="inlineStr">
         <is>
-          <t>2622.19</t>
+          <t>3809.81</t>
         </is>
       </c>
       <c r="BY11" t="inlineStr">
         <is>
-          <t>2054.77</t>
+          <t>2840.16</t>
         </is>
       </c>
       <c r="BZ11" t="inlineStr">
         <is>
-          <t>2050.57</t>
+          <t>2834.30</t>
         </is>
       </c>
       <c r="CA11" t="inlineStr">
         <is>
-          <t>2104.62</t>
+          <t>2998.15</t>
         </is>
       </c>
       <c r="CB11" t="inlineStr">
         <is>
-          <t>2100.28</t>
+          <t>3000.04</t>
         </is>
       </c>
       <c r="CC11" t="inlineStr">
@@ -4898,42 +4898,42 @@
       </c>
       <c r="CD11" t="inlineStr">
         <is>
-          <t>3194.49</t>
+          <t>4941.63</t>
         </is>
       </c>
       <c r="CE11" t="inlineStr">
         <is>
-          <t>3108.63</t>
+          <t>4758.06</t>
         </is>
       </c>
       <c r="CF11" t="inlineStr">
         <is>
-          <t>3112.12</t>
+          <t>4613.76</t>
         </is>
       </c>
       <c r="CG11" t="inlineStr">
         <is>
-          <t>2828.46</t>
+          <t>4329.96</t>
         </is>
       </c>
       <c r="CH11" t="inlineStr">
         <is>
-          <t>2245.67</t>
+          <t>3338.43</t>
         </is>
       </c>
       <c r="CI11" t="inlineStr">
         <is>
-          <t>2243.80</t>
+          <t>3335.54</t>
         </is>
       </c>
       <c r="CJ11" t="inlineStr">
         <is>
-          <t>2387.27</t>
+          <t>3587.68</t>
         </is>
       </c>
       <c r="CK11" t="inlineStr">
         <is>
-          <t>2388.41</t>
+          <t>3590.10</t>
         </is>
       </c>
       <c r="CL11" t="inlineStr">
@@ -4945,42 +4945,42 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3760.63</t>
+          <t>4028.48</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3459.18</t>
+          <t>3874.58</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1071.92</t>
+          <t>1504.38</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3094.71</t>
+          <t>3554.34</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2399.05</t>
+          <t>2739.87</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2396.90</t>
+          <t>2735.95</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2609.10</t>
+          <t>2908.46</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2591.76</t>
+          <t>2908.17</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -4990,42 +4990,42 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>3973.39</t>
+          <t>4252.51</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>3685.49</t>
+          <t>4038.24</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>3667.17</t>
+          <t>4035.25</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>3182.87</t>
+          <t>3635.35</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2419.40</t>
+          <t>2681.67</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2415.30</t>
+          <t>2675.60</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>2589.03</t>
+          <t>2980.81</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2590.30</t>
+          <t>2984.16</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -5035,42 +5035,42 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>3891.43</t>
+          <t>4205.50</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>3625.81</t>
+          <t>3979.65</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>3547.50</t>
+          <t>3938.25</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>3165.99</t>
+          <t>3604.19</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>2379.65</t>
+          <t>2640.02</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>2376.12</t>
+          <t>2624.27</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2528.08</t>
+          <t>2913.14</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2527.16</t>
+          <t>2919.30</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -5080,42 +5080,42 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>3901.42</t>
+          <t>4237.21</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>3644.97</t>
+          <t>3998.36</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>3548.42</t>
+          <t>3966.07</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>3196.55</t>
+          <t>3640.67</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>2389.32</t>
+          <t>2667.68</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>2387.27</t>
+          <t>2661.21</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>2541.18</t>
+          <t>2924.17</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>2536.12</t>
+          <t>2929.49</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -5125,42 +5125,42 @@
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>3920.83</t>
+          <t>4271.91</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>3660.57</t>
+          <t>4018.77</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>3568.68</t>
+          <t>4003.22</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>3236.76</t>
+          <t>3679.96</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>2400.61</t>
+          <t>2681.09</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>2404.96</t>
+          <t>2675.39</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>2552.28</t>
+          <t>2938.53</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>2573.34</t>
+          <t>2948.83</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
@@ -5170,42 +5170,42 @@
       </c>
       <c r="AT12" t="inlineStr">
         <is>
-          <t>3939.09</t>
+          <t>4302.35</t>
         </is>
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>3667.61</t>
+          <t>4040.87</t>
         </is>
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>3592.77</t>
+          <t>4034.72</t>
         </is>
       </c>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>3267.38</t>
+          <t>3714.93</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>2408.88</t>
+          <t>2696.93</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr">
         <is>
-          <t>2414.90</t>
+          <t>2691.31</t>
         </is>
       </c>
       <c r="AZ12" t="inlineStr">
         <is>
-          <t>2565.46</t>
+          <t>2957.23</t>
         </is>
       </c>
       <c r="BA12" t="inlineStr">
         <is>
-          <t>2588.38</t>
+          <t>2967.31</t>
         </is>
       </c>
       <c r="BB12" t="inlineStr">
@@ -5215,42 +5215,42 @@
       </c>
       <c r="BC12" t="inlineStr">
         <is>
-          <t>3952.55</t>
+          <t>4331.94</t>
         </is>
       </c>
       <c r="BD12" t="inlineStr">
         <is>
-          <t>3687.59</t>
+          <t>4058.10</t>
         </is>
       </c>
       <c r="BE12" t="inlineStr">
         <is>
-          <t>3674.25</t>
+          <t>4061.94</t>
         </is>
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3294.86</t>
+          <t>3747.10</t>
         </is>
       </c>
       <c r="BG12" t="inlineStr">
         <is>
-          <t>2421.94</t>
+          <t>2712.43</t>
         </is>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2420.78</t>
+          <t>2706.82</t>
         </is>
       </c>
       <c r="BI12" t="inlineStr">
         <is>
-          <t>2580.51</t>
+          <t>2975.55</t>
         </is>
       </c>
       <c r="BJ12" t="inlineStr">
         <is>
-          <t>2602.91</t>
+          <t>2980.17</t>
         </is>
       </c>
       <c r="BK12" t="inlineStr">
@@ -5260,42 +5260,42 @@
       </c>
       <c r="BL12" t="inlineStr">
         <is>
-          <t>3975.97</t>
+          <t>4366.64</t>
         </is>
       </c>
       <c r="BM12" t="inlineStr">
         <is>
-          <t>3691.64</t>
+          <t>4068.45</t>
         </is>
       </c>
       <c r="BN12" t="inlineStr">
         <is>
-          <t>3705.33</t>
+          <t>4096.72</t>
         </is>
       </c>
       <c r="BO12" t="inlineStr">
         <is>
-          <t>3338.79</t>
+          <t>3784.84</t>
         </is>
       </c>
       <c r="BP12" t="inlineStr">
         <is>
-          <t>2429.49</t>
+          <t>2735.92</t>
         </is>
       </c>
       <c r="BQ12" t="inlineStr">
         <is>
-          <t>2442.93</t>
+          <t>2740.07</t>
         </is>
       </c>
       <c r="BR12" t="inlineStr">
         <is>
-          <t>2603.73</t>
+          <t>3003.57</t>
         </is>
       </c>
       <c r="BS12" t="inlineStr">
         <is>
-          <t>2625.67</t>
+          <t>3006.68</t>
         </is>
       </c>
       <c r="BT12" t="inlineStr">
@@ -5305,42 +5305,42 @@
       </c>
       <c r="BU12" t="inlineStr">
         <is>
-          <t>4110.75</t>
+          <t>4490.98</t>
         </is>
       </c>
       <c r="BV12" t="inlineStr">
         <is>
-          <t>3803.26</t>
+          <t>4206.62</t>
         </is>
       </c>
       <c r="BW12" t="inlineStr">
         <is>
-          <t>3824.70</t>
+          <t>4217.90</t>
         </is>
       </c>
       <c r="BX12" t="inlineStr">
         <is>
-          <t>3555.08</t>
+          <t>3900.71</t>
         </is>
       </c>
       <c r="BY12" t="inlineStr">
         <is>
-          <t>2532.93</t>
+          <t>2866.65</t>
         </is>
       </c>
       <c r="BZ12" t="inlineStr">
         <is>
-          <t>2535.20</t>
+          <t>2860.28</t>
         </is>
       </c>
       <c r="CA12" t="inlineStr">
         <is>
-          <t>2719.63</t>
+          <t>3111.49</t>
         </is>
       </c>
       <c r="CB12" t="inlineStr">
         <is>
-          <t>2715.78</t>
+          <t>3118.77</t>
         </is>
       </c>
       <c r="CC12" t="inlineStr">
@@ -5350,42 +5350,42 @@
       </c>
       <c r="CD12" t="inlineStr">
         <is>
-          <t>4988.98</t>
+          <t>5294.75</t>
         </is>
       </c>
       <c r="CE12" t="inlineStr">
         <is>
-          <t>4556.11</t>
+          <t>4917.41</t>
         </is>
       </c>
       <c r="CF12" t="inlineStr">
         <is>
-          <t>4594.88</t>
+          <t>4987.24</t>
         </is>
       </c>
       <c r="CG12" t="inlineStr">
         <is>
-          <t>4297.17</t>
+          <t>4497.86</t>
         </is>
       </c>
       <c r="CH12" t="inlineStr">
         <is>
-          <t>3127.30</t>
+          <t>3460.74</t>
         </is>
       </c>
       <c r="CI12" t="inlineStr">
         <is>
-          <t>3135.26</t>
+          <t>3461.00</t>
         </is>
       </c>
       <c r="CJ12" t="inlineStr">
         <is>
-          <t>3508.77</t>
+          <t>3895.37</t>
         </is>
       </c>
       <c r="CK12" t="inlineStr">
         <is>
-          <t>3511.52</t>
+          <t>3900.48</t>
         </is>
       </c>
       <c r="CL12" t="inlineStr">
@@ -5397,42 +5397,42 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4080.82</t>
+          <t>4183.87</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3201.70</t>
+          <t>3985.91</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1005.60</t>
+          <t>1122.33</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2946.93</t>
+          <t>3523.02</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2239.55</t>
+          <t>2764.11</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2235.52</t>
+          <t>2760.58</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2792.77</t>
+          <t>2967.80</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2776.84</t>
+          <t>2982.63</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -5442,42 +5442,42 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>4323.47</t>
+          <t>4459.92</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>3285.27</t>
+          <t>4172.77</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>3835.11</t>
+          <t>4108.97</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2882.02</t>
+          <t>3618.95</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>2161.85</t>
+          <t>2708.62</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2158.27</t>
+          <t>2704.07</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>2768.85</t>
+          <t>3029.00</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2764.68</t>
+          <t>3040.78</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -5487,42 +5487,42 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>4243.61</t>
+          <t>4408.21</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>3524.63</t>
+          <t>4123.67</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>3766.62</t>
+          <t>4004.25</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>2748.48</t>
+          <t>3567.63</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>2103.86</t>
+          <t>2681.41</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>2100.68</t>
+          <t>2676.41</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2713.99</t>
+          <t>2963.67</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2712.21</t>
+          <t>2972.41</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -5532,42 +5532,42 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>4259.58</t>
+          <t>4437.44</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>3545.21</t>
+          <t>4147.29</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>3781.50</t>
+          <t>4027.34</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>2799.27</t>
+          <t>3586.81</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>2099.72</t>
+          <t>2653.39</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>2096.26</t>
+          <t>2649.86</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>2755.85</t>
+          <t>2972.00</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>2751.16</t>
+          <t>2980.86</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
@@ -5577,42 +5577,42 @@
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>4279.07</t>
+          <t>4472.46</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>3570.87</t>
+          <t>4174.48</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>3807.80</t>
+          <t>4062.65</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>3146.80</t>
+          <t>3605.77</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>2358.62</t>
+          <t>2680.12</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>2105.68</t>
+          <t>2673.88</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>2771.43</t>
+          <t>2993.73</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>2806.47</t>
+          <t>2996.59</t>
         </is>
       </c>
       <c r="AS13" t="inlineStr">
@@ -5622,42 +5622,42 @@
       </c>
       <c r="AT13" t="inlineStr">
         <is>
-          <t>4300.76</t>
+          <t>4503.94</t>
         </is>
       </c>
       <c r="AU13" t="inlineStr">
         <is>
-          <t>3596.12</t>
+          <t>4199.79</t>
         </is>
       </c>
       <c r="AV13" t="inlineStr">
         <is>
-          <t>3836.35</t>
+          <t>4087.70</t>
         </is>
       </c>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>3170.45</t>
+          <t>3637.80</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>2374.20</t>
+          <t>2693.48</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr">
         <is>
-          <t>2371.30</t>
+          <t>2687.98</t>
         </is>
       </c>
       <c r="AZ13" t="inlineStr">
         <is>
-          <t>2760.13</t>
+          <t>3014.14</t>
         </is>
       </c>
       <c r="BA13" t="inlineStr">
         <is>
-          <t>2782.68</t>
+          <t>3016.87</t>
         </is>
       </c>
       <c r="BB13" t="inlineStr">
@@ -5667,42 +5667,42 @@
       </c>
       <c r="BC13" t="inlineStr">
         <is>
-          <t>4327.46</t>
+          <t>4533.45</t>
         </is>
       </c>
       <c r="BD13" t="inlineStr">
         <is>
-          <t>3618.91</t>
+          <t>4224.05</t>
         </is>
       </c>
       <c r="BE13" t="inlineStr">
         <is>
-          <t>3945.99</t>
+          <t>4136.48</t>
         </is>
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3196.51</t>
+          <t>3669.64</t>
         </is>
       </c>
       <c r="BG13" t="inlineStr">
         <is>
-          <t>2391.77</t>
+          <t>2711.40</t>
         </is>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2387.37</t>
+          <t>2706.31</t>
         </is>
       </c>
       <c r="BI13" t="inlineStr">
         <is>
-          <t>2774.69</t>
+          <t>3029.98</t>
         </is>
       </c>
       <c r="BJ13" t="inlineStr">
         <is>
-          <t>2797.82</t>
+          <t>3037.14</t>
         </is>
       </c>
       <c r="BK13" t="inlineStr">
@@ -5712,42 +5712,42 @@
       </c>
       <c r="BL13" t="inlineStr">
         <is>
-          <t>4348.47</t>
+          <t>4569.20</t>
         </is>
       </c>
       <c r="BM13" t="inlineStr">
         <is>
-          <t>3647.82</t>
+          <t>4098.86</t>
         </is>
       </c>
       <c r="BN13" t="inlineStr">
         <is>
-          <t>3934.13</t>
+          <t>4173.96</t>
         </is>
       </c>
       <c r="BO13" t="inlineStr">
         <is>
-          <t>3228.26</t>
+          <t>3702.20</t>
         </is>
       </c>
       <c r="BP13" t="inlineStr">
         <is>
-          <t>2417.21</t>
+          <t>2737.03</t>
         </is>
       </c>
       <c r="BQ13" t="inlineStr">
         <is>
-          <t>2412.81</t>
+          <t>2731.78</t>
         </is>
       </c>
       <c r="BR13" t="inlineStr">
         <is>
-          <t>2789.95</t>
+          <t>3056.77</t>
         </is>
       </c>
       <c r="BS13" t="inlineStr">
         <is>
-          <t>2818.98</t>
+          <t>3059.24</t>
         </is>
       </c>
       <c r="BT13" t="inlineStr">
@@ -5757,42 +5757,42 @@
       </c>
       <c r="BU13" t="inlineStr">
         <is>
-          <t>4491.53</t>
+          <t>4705.57</t>
         </is>
       </c>
       <c r="BV13" t="inlineStr">
         <is>
-          <t>3782.48</t>
+          <t>4237.92</t>
         </is>
       </c>
       <c r="BW13" t="inlineStr">
         <is>
-          <t>4049.05</t>
+          <t>4317.68</t>
         </is>
       </c>
       <c r="BX13" t="inlineStr">
         <is>
-          <t>3355.42</t>
+          <t>3827.39</t>
         </is>
       </c>
       <c r="BY13" t="inlineStr">
         <is>
-          <t>2539.96</t>
+          <t>2853.30</t>
         </is>
       </c>
       <c r="BZ13" t="inlineStr">
         <is>
-          <t>2535.67</t>
+          <t>2848.05</t>
         </is>
       </c>
       <c r="CA13" t="inlineStr">
         <is>
-          <t>2924.85</t>
+          <t>3155.34</t>
         </is>
       </c>
       <c r="CB13" t="inlineStr">
         <is>
-          <t>2918.26</t>
+          <t>3160.10</t>
         </is>
       </c>
       <c r="CC13" t="inlineStr">
@@ -5802,42 +5802,42 @@
       </c>
       <c r="CD13" t="inlineStr">
         <is>
-          <t>5264.04</t>
+          <t>5607.51</t>
         </is>
       </c>
       <c r="CE13" t="inlineStr">
         <is>
-          <t>3969.11</t>
+          <t>5097.07</t>
         </is>
       </c>
       <c r="CF13" t="inlineStr">
         <is>
-          <t>4897.52</t>
+          <t>5195.25</t>
         </is>
       </c>
       <c r="CG13" t="inlineStr">
         <is>
-          <t>3553.96</t>
+          <t>4516.50</t>
         </is>
       </c>
       <c r="CH13" t="inlineStr">
         <is>
-          <t>2685.38</t>
+          <t>3450.16</t>
         </is>
       </c>
       <c r="CI13" t="inlineStr">
         <is>
-          <t>2686.80</t>
+          <t>3448.39</t>
         </is>
       </c>
       <c r="CJ13" t="inlineStr">
         <is>
-          <t>3707.73</t>
+          <t>4006.42</t>
         </is>
       </c>
       <c r="CK13" t="inlineStr">
         <is>
-          <t>3714.51</t>
+          <t>4005.66</t>
         </is>
       </c>
       <c r="CL13" t="inlineStr">
@@ -5849,42 +5849,42 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3373.48</t>
+          <t>4078.64</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3027.16</t>
+          <t>3777.42</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>323.44</t>
+          <t>501.41</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2832.58</t>
+          <t>3427.26</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2250.99</t>
+          <t>2694.16</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2247.31</t>
+          <t>2690.35</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2575.49</t>
+          <t>2932.64</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2581.85</t>
+          <t>2940.05</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -5894,42 +5894,42 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>3408.88</t>
+          <t>4307.05</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>3196.86</t>
+          <t>3963.73</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>3179.99</t>
+          <t>4054.97</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2186.30</t>
+          <t>3535.83</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>2209.99</t>
+          <t>2650.73</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2204.98</t>
+          <t>2644.96</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>2547.96</t>
+          <t>3006.01</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2553.54</t>
+          <t>3015.42</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -5939,42 +5939,42 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>3360.81</t>
+          <t>4250.58</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>2851.03</t>
+          <t>3901.56</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>3286.41</t>
+          <t>3996.13</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>2759.91</t>
+          <t>3500.26</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>2079.80</t>
+          <t>2597.98</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>2077.22</t>
+          <t>2592.34</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2485.93</t>
+          <t>2948.20</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2484.35</t>
+          <t>2957.80</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -5984,42 +5984,42 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>3374.79</t>
+          <t>4272.87</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>2473.50</t>
+          <t>3925.39</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>3072.71</t>
+          <t>4008.59</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>2770.97</t>
+          <t>3536.64</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>2087.03</t>
+          <t>2606.60</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>2084.10</t>
+          <t>2601.05</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>2488.68</t>
+          <t>2957.90</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>2485.42</t>
+          <t>2962.10</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
@@ -6029,42 +6029,42 @@
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>3370.71</t>
+          <t>4301.17</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>2477.82</t>
+          <t>3951.84</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>3041.41</t>
+          <t>4035.36</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>2792.79</t>
+          <t>3580.21</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>2098.55</t>
+          <t>2640.73</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>2095.54</t>
+          <t>2635.02</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>2488.10</t>
+          <t>2983.80</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>2517.81</t>
+          <t>2986.96</t>
         </is>
       </c>
       <c r="AS14" t="inlineStr">
@@ -6074,42 +6074,42 @@
       </c>
       <c r="AT14" t="inlineStr">
         <is>
-          <t>3366.63</t>
+          <t>4326.78</t>
         </is>
       </c>
       <c r="AU14" t="inlineStr">
         <is>
-          <t>2484.54</t>
+          <t>3977.06</t>
         </is>
       </c>
       <c r="AV14" t="inlineStr">
         <is>
-          <t>3058.21</t>
+          <t>4054.55</t>
         </is>
       </c>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>2813.59</t>
+          <t>3616.51</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>2109.52</t>
+          <t>2665.57</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr">
         <is>
-          <t>2106.48</t>
+          <t>2659.87</t>
         </is>
       </c>
       <c r="AZ14" t="inlineStr">
         <is>
-          <t>2291.54</t>
+          <t>2996.65</t>
         </is>
       </c>
       <c r="BA14" t="inlineStr">
         <is>
-          <t>2308.37</t>
+          <t>2999.46</t>
         </is>
       </c>
       <c r="BB14" t="inlineStr">
@@ -6119,42 +6119,42 @@
       </c>
       <c r="BC14" t="inlineStr">
         <is>
-          <t>3381.15</t>
+          <t>4350.23</t>
         </is>
       </c>
       <c r="BD14" t="inlineStr">
         <is>
-          <t>2484.84</t>
+          <t>4001.57</t>
         </is>
       </c>
       <c r="BE14" t="inlineStr">
         <is>
-          <t>3140.30</t>
+          <t>4067.34</t>
         </is>
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2598.97</t>
+          <t>3648.28</t>
         </is>
       </c>
       <c r="BG14" t="inlineStr">
         <is>
-          <t>2120.79</t>
+          <t>2681.52</t>
         </is>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2117.67</t>
+          <t>2675.92</t>
         </is>
       </c>
       <c r="BI14" t="inlineStr">
         <is>
-          <t>2300.91</t>
+          <t>3011.31</t>
         </is>
       </c>
       <c r="BJ14" t="inlineStr">
         <is>
-          <t>2318.08</t>
+          <t>3013.92</t>
         </is>
       </c>
       <c r="BK14" t="inlineStr">
@@ -6164,42 +6164,42 @@
       </c>
       <c r="BL14" t="inlineStr">
         <is>
-          <t>3405.35</t>
+          <t>4376.74</t>
         </is>
       </c>
       <c r="BM14" t="inlineStr">
         <is>
-          <t>2498.75</t>
+          <t>4031.80</t>
         </is>
       </c>
       <c r="BN14" t="inlineStr">
         <is>
-          <t>3161.71</t>
+          <t>4092.74</t>
         </is>
       </c>
       <c r="BO14" t="inlineStr">
         <is>
-          <t>2427.14</t>
+          <t>3683.01</t>
         </is>
       </c>
       <c r="BP14" t="inlineStr">
         <is>
-          <t>2141.19</t>
+          <t>2704.72</t>
         </is>
       </c>
       <c r="BQ14" t="inlineStr">
         <is>
-          <t>2137.95</t>
+          <t>2699.15</t>
         </is>
       </c>
       <c r="BR14" t="inlineStr">
         <is>
-          <t>2318.06</t>
+          <t>3035.74</t>
         </is>
       </c>
       <c r="BS14" t="inlineStr">
         <is>
-          <t>2335.56</t>
+          <t>3038.45</t>
         </is>
       </c>
       <c r="BT14" t="inlineStr">
@@ -6209,42 +6209,42 @@
       </c>
       <c r="BU14" t="inlineStr">
         <is>
-          <t>3522.08</t>
+          <t>4481.81</t>
         </is>
       </c>
       <c r="BV14" t="inlineStr">
         <is>
-          <t>2599.90</t>
+          <t>4144.30</t>
         </is>
       </c>
       <c r="BW14" t="inlineStr">
         <is>
-          <t>3271.47</t>
+          <t>4202.11</t>
         </is>
       </c>
       <c r="BX14" t="inlineStr">
         <is>
-          <t>2974.83</t>
+          <t>3794.11</t>
         </is>
       </c>
       <c r="BY14" t="inlineStr">
         <is>
-          <t>2255.54</t>
+          <t>2817.28</t>
         </is>
       </c>
       <c r="BZ14" t="inlineStr">
         <is>
-          <t>2252.41</t>
+          <t>2811.47</t>
         </is>
       </c>
       <c r="CA14" t="inlineStr">
         <is>
-          <t>2414.84</t>
+          <t>3139.85</t>
         </is>
       </c>
       <c r="CB14" t="inlineStr">
         <is>
-          <t>2408.58</t>
+          <t>3143.52</t>
         </is>
       </c>
       <c r="CC14" t="inlineStr">
@@ -6254,42 +6254,42 @@
       </c>
       <c r="CD14" t="inlineStr">
         <is>
-          <t>4400.96</t>
+          <t>5331.36</t>
         </is>
       </c>
       <c r="CE14" t="inlineStr">
         <is>
-          <t>3281.98</t>
+          <t>4796.08</t>
         </is>
       </c>
       <c r="CF14" t="inlineStr">
         <is>
-          <t>3964.14</t>
+          <t>4990.32</t>
         </is>
       </c>
       <c r="CG14" t="inlineStr">
         <is>
-          <t>3012.91</t>
+          <t>4424.01</t>
         </is>
       </c>
       <c r="CH14" t="inlineStr">
         <is>
-          <t>2143.20</t>
+          <t>3421.30</t>
         </is>
       </c>
       <c r="CI14" t="inlineStr">
         <is>
-          <t>2132.74</t>
+          <t>3422.36</t>
         </is>
       </c>
       <c r="CJ14" t="inlineStr">
         <is>
-          <t>3069.91</t>
+          <t>3927.11</t>
         </is>
       </c>
       <c r="CK14" t="inlineStr">
         <is>
-          <t>3067.97</t>
+          <t>3931.94</t>
         </is>
       </c>
       <c r="CL14" t="inlineStr">
@@ -7205,42 +7205,42 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>344.23</t>
+          <t>3171.31</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>343.83</t>
+          <t>3104.70</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>182.78</t>
+          <t>443.88</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>103.09</t>
+          <t>2826.97</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>111.65</t>
+          <t>2146.74</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>112.01</t>
+          <t>2140.80</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1010.44</t>
+          <t>2260.40</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>1141.57</t>
+          <t>2403.23</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -7250,42 +7250,42 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>391.65</t>
+          <t>3393.35</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>345.85</t>
+          <t>3246.38</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>1778.79</t>
+          <t>3455.72</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>102.83</t>
+          <t>2897.98</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>112.62</t>
+          <t>2134.30</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>112.97</t>
+          <t>2125.55</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>1356.51</t>
+          <t>2222.90</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>1413.65</t>
+          <t>2246.94</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -7295,42 +7295,42 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>344.80</t>
+          <t>3344.89</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>345.80</t>
+          <t>3201.58</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>674.21</t>
+          <t>3031.78</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>102.60</t>
+          <t>2910.08</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>112.65</t>
+          <t>2122.21</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>112.95</t>
+          <t>2112.58</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>1247.44</t>
+          <t>2169.45</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>1247.40</t>
+          <t>2168.76</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -7340,42 +7340,42 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>345.47</t>
+          <t>3365.61</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>342.94</t>
+          <t>3235.12</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>254.43</t>
+          <t>3063.04</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>102.13</t>
+          <t>2972.31</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>112.00</t>
+          <t>2157.67</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>112.25</t>
+          <t>2147.40</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>1033.92</t>
+          <t>2184.90</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>1029.51</t>
+          <t>2176.34</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
@@ -7385,42 +7385,42 @@
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>345.84</t>
+          <t>3392.14</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>343.67</t>
+          <t>3268.68</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>102.69</t>
+          <t>3124.52</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>101.64</t>
+          <t>3031.17</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>111.18</t>
+          <t>2194.23</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>111.37</t>
+          <t>2183.43</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>817.60</t>
+          <t>2219.19</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>804.06</t>
+          <t>2209.66</t>
         </is>
       </c>
       <c r="AS17" t="inlineStr">
@@ -7430,42 +7430,42 @@
       </c>
       <c r="AT17" t="inlineStr">
         <is>
-          <t>342.87</t>
+          <t>3416.59</t>
         </is>
       </c>
       <c r="AU17" t="inlineStr">
         <is>
-          <t>343.54</t>
+          <t>3300.04</t>
         </is>
       </c>
       <c r="AV17" t="inlineStr">
         <is>
-          <t>101.91</t>
+          <t>3181.98</t>
         </is>
       </c>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>101.21</t>
+          <t>3082.77</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>110.34</t>
+          <t>2226.85</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr">
         <is>
-          <t>110.50</t>
+          <t>2215.59</t>
         </is>
       </c>
       <c r="AZ17" t="inlineStr">
         <is>
-          <t>590.71</t>
+          <t>2250.05</t>
         </is>
       </c>
       <c r="BA17" t="inlineStr">
         <is>
-          <t>554.33</t>
+          <t>2240.12</t>
         </is>
       </c>
       <c r="BB17" t="inlineStr">
@@ -7475,42 +7475,42 @@
       </c>
       <c r="BC17" t="inlineStr">
         <is>
-          <t>343.60</t>
+          <t>3439.63</t>
         </is>
       </c>
       <c r="BD17" t="inlineStr">
         <is>
-          <t>327.59</t>
+          <t>3328.67</t>
         </is>
       </c>
       <c r="BE17" t="inlineStr">
         <is>
-          <t>342.87</t>
+          <t>3132.20</t>
         </is>
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>100.78</t>
+          <t>3129.35</t>
         </is>
       </c>
       <c r="BG17" t="inlineStr">
         <is>
-          <t>109.46</t>
+          <t>2256.85</t>
         </is>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>109.58</t>
+          <t>2245.19</t>
         </is>
       </c>
       <c r="BI17" t="inlineStr">
         <is>
-          <t>368.27</t>
+          <t>2278.58</t>
         </is>
       </c>
       <c r="BJ17" t="inlineStr">
         <is>
-          <t>299.45</t>
+          <t>2270.22</t>
         </is>
       </c>
       <c r="BK17" t="inlineStr">
@@ -7520,42 +7520,42 @@
       </c>
       <c r="BL17" t="inlineStr">
         <is>
-          <t>344.03</t>
+          <t>3469.17</t>
         </is>
       </c>
       <c r="BM17" t="inlineStr">
         <is>
-          <t>327.56</t>
+          <t>3360.70</t>
         </is>
       </c>
       <c r="BN17" t="inlineStr">
         <is>
-          <t>344.06</t>
+          <t>3163.93</t>
         </is>
       </c>
       <c r="BO17" t="inlineStr">
         <is>
-          <t>100.25</t>
+          <t>3178.20</t>
         </is>
       </c>
       <c r="BP17" t="inlineStr">
         <is>
-          <t>108.36</t>
+          <t>2290.24</t>
         </is>
       </c>
       <c r="BQ17" t="inlineStr">
         <is>
-          <t>108.44</t>
+          <t>2278.29</t>
         </is>
       </c>
       <c r="BR17" t="inlineStr">
         <is>
-          <t>218.45</t>
+          <t>2310.76</t>
         </is>
       </c>
       <c r="BS17" t="inlineStr">
         <is>
-          <t>223.18</t>
+          <t>2302.66</t>
         </is>
       </c>
       <c r="BT17" t="inlineStr">
@@ -7565,42 +7565,42 @@
       </c>
       <c r="BU17" t="inlineStr">
         <is>
-          <t>343.52</t>
+          <t>3583.91</t>
         </is>
       </c>
       <c r="BV17" t="inlineStr">
         <is>
-          <t>343.33</t>
+          <t>3470.96</t>
         </is>
       </c>
       <c r="BW17" t="inlineStr">
         <is>
-          <t>343.56</t>
+          <t>3275.93</t>
         </is>
       </c>
       <c r="BX17" t="inlineStr">
         <is>
-          <t>99.22</t>
+          <t>3303.79</t>
         </is>
       </c>
       <c r="BY17" t="inlineStr">
         <is>
-          <t>106.55</t>
+          <t>2387.70</t>
         </is>
       </c>
       <c r="BZ17" t="inlineStr">
         <is>
-          <t>106.61</t>
+          <t>2375.94</t>
         </is>
       </c>
       <c r="CA17" t="inlineStr">
         <is>
-          <t>373.08</t>
+          <t>2408.91</t>
         </is>
       </c>
       <c r="CB17" t="inlineStr">
         <is>
-          <t>380.18</t>
+          <t>2400.85</t>
         </is>
       </c>
       <c r="CC17" t="inlineStr">
@@ -7610,42 +7610,42 @@
       </c>
       <c r="CD17" t="inlineStr">
         <is>
-          <t>633.26</t>
+          <t>4227.89</t>
         </is>
       </c>
       <c r="CE17" t="inlineStr">
         <is>
-          <t>340.12</t>
+          <t>4080.73</t>
         </is>
       </c>
       <c r="CF17" t="inlineStr">
         <is>
-          <t>404.26</t>
+          <t>3772.68</t>
         </is>
       </c>
       <c r="CG17" t="inlineStr">
         <is>
-          <t>340.12</t>
+          <t>3592.05</t>
         </is>
       </c>
       <c r="CH17" t="inlineStr">
         <is>
-          <t>103.18</t>
+          <t>2753.64</t>
         </is>
       </c>
       <c r="CI17" t="inlineStr">
         <is>
-          <t>103.20</t>
+          <t>2734.09</t>
         </is>
       </c>
       <c r="CJ17" t="inlineStr">
         <is>
-          <t>1758.74</t>
+          <t>2912.36</t>
         </is>
       </c>
       <c r="CK17" t="inlineStr">
         <is>
-          <t>1758.79</t>
+          <t>2916.38</t>
         </is>
       </c>
       <c r="CL17" t="inlineStr">
@@ -7657,42 +7657,42 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4080.82</t>
+          <t>4196.68</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3459.18</t>
+          <t>3985.91</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1071.92</t>
+          <t>1578.17</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>3094.71</t>
+          <t>3554.34</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2399.05</t>
+          <t>2764.11</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2396.90</t>
+          <t>2760.58</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2792.77</t>
+          <t>2967.80</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2776.84</t>
+          <t>2982.63</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -7702,42 +7702,42 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>4323.47</t>
+          <t>4459.92</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>3685.49</t>
+          <t>4172.77</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>3835.11</t>
+          <t>4108.97</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>3182.87</t>
+          <t>3665.49</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>2419.40</t>
+          <t>2709.63</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2415.30</t>
+          <t>2704.07</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>2768.85</t>
+          <t>3029.00</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2764.68</t>
+          <t>3040.78</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -7747,42 +7747,42 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>4243.61</t>
+          <t>4408.21</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>3625.81</t>
+          <t>4123.67</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>3766.62</t>
+          <t>4004.25</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>3165.99</t>
+          <t>3616.39</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>2379.65</t>
+          <t>2681.41</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>2376.12</t>
+          <t>2676.41</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2713.99</t>
+          <t>2963.67</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2712.21</t>
+          <t>2972.41</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -7792,42 +7792,42 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>4259.58</t>
+          <t>4437.44</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>3644.97</t>
+          <t>4147.29</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>3781.50</t>
+          <t>4027.34</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>3196.55</t>
+          <t>3640.67</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>2389.32</t>
+          <t>2671.99</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>2387.27</t>
+          <t>2666.21</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>2755.85</t>
+          <t>2972.00</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>2751.16</t>
+          <t>2980.86</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
@@ -7837,42 +7837,42 @@
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>4279.07</t>
+          <t>4472.46</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>3660.57</t>
+          <t>4174.48</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>3807.80</t>
+          <t>4062.65</t>
         </is>
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>3236.76</t>
+          <t>3679.96</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>2400.61</t>
+          <t>2685.70</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
-          <t>2404.96</t>
+          <t>2679.92</t>
         </is>
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>2771.43</t>
+          <t>2993.73</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>2806.47</t>
+          <t>2996.59</t>
         </is>
       </c>
       <c r="AS18" t="inlineStr">
@@ -7882,42 +7882,42 @@
       </c>
       <c r="AT18" t="inlineStr">
         <is>
-          <t>4300.76</t>
+          <t>4503.94</t>
         </is>
       </c>
       <c r="AU18" t="inlineStr">
         <is>
-          <t>3667.61</t>
+          <t>4199.79</t>
         </is>
       </c>
       <c r="AV18" t="inlineStr">
         <is>
-          <t>3836.35</t>
+          <t>4087.70</t>
         </is>
       </c>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>3267.38</t>
+          <t>3714.93</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>2408.88</t>
+          <t>2705.23</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr">
         <is>
-          <t>2414.90</t>
+          <t>2699.41</t>
         </is>
       </c>
       <c r="AZ18" t="inlineStr">
         <is>
-          <t>2760.13</t>
+          <t>3014.14</t>
         </is>
       </c>
       <c r="BA18" t="inlineStr">
         <is>
-          <t>2782.68</t>
+          <t>3016.87</t>
         </is>
       </c>
       <c r="BB18" t="inlineStr">
@@ -7927,42 +7927,42 @@
       </c>
       <c r="BC18" t="inlineStr">
         <is>
-          <t>4327.46</t>
+          <t>4533.45</t>
         </is>
       </c>
       <c r="BD18" t="inlineStr">
         <is>
-          <t>3687.59</t>
+          <t>4224.05</t>
         </is>
       </c>
       <c r="BE18" t="inlineStr">
         <is>
-          <t>3945.99</t>
+          <t>4136.48</t>
         </is>
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3294.86</t>
+          <t>3747.10</t>
         </is>
       </c>
       <c r="BG18" t="inlineStr">
         <is>
-          <t>2421.94</t>
+          <t>2712.43</t>
         </is>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2420.78</t>
+          <t>2706.82</t>
         </is>
       </c>
       <c r="BI18" t="inlineStr">
         <is>
-          <t>2774.69</t>
+          <t>3029.98</t>
         </is>
       </c>
       <c r="BJ18" t="inlineStr">
         <is>
-          <t>2797.82</t>
+          <t>3037.14</t>
         </is>
       </c>
       <c r="BK18" t="inlineStr">
@@ -7972,42 +7972,42 @@
       </c>
       <c r="BL18" t="inlineStr">
         <is>
-          <t>4348.47</t>
+          <t>4569.20</t>
         </is>
       </c>
       <c r="BM18" t="inlineStr">
         <is>
-          <t>3691.64</t>
+          <t>4132.04</t>
         </is>
       </c>
       <c r="BN18" t="inlineStr">
         <is>
-          <t>3934.13</t>
+          <t>4173.96</t>
         </is>
       </c>
       <c r="BO18" t="inlineStr">
         <is>
-          <t>3338.79</t>
+          <t>3784.84</t>
         </is>
       </c>
       <c r="BP18" t="inlineStr">
         <is>
-          <t>2429.49</t>
+          <t>2737.03</t>
         </is>
       </c>
       <c r="BQ18" t="inlineStr">
         <is>
-          <t>2442.93</t>
+          <t>2740.07</t>
         </is>
       </c>
       <c r="BR18" t="inlineStr">
         <is>
-          <t>2789.95</t>
+          <t>3056.77</t>
         </is>
       </c>
       <c r="BS18" t="inlineStr">
         <is>
-          <t>2818.98</t>
+          <t>3059.24</t>
         </is>
       </c>
       <c r="BT18" t="inlineStr">
@@ -8017,42 +8017,42 @@
       </c>
       <c r="BU18" t="inlineStr">
         <is>
-          <t>4491.53</t>
+          <t>4705.57</t>
         </is>
       </c>
       <c r="BV18" t="inlineStr">
         <is>
-          <t>3803.26</t>
+          <t>4283.13</t>
         </is>
       </c>
       <c r="BW18" t="inlineStr">
         <is>
-          <t>4049.05</t>
+          <t>4317.68</t>
         </is>
       </c>
       <c r="BX18" t="inlineStr">
         <is>
-          <t>3555.08</t>
+          <t>3900.71</t>
         </is>
       </c>
       <c r="BY18" t="inlineStr">
         <is>
-          <t>2539.96</t>
+          <t>2866.65</t>
         </is>
       </c>
       <c r="BZ18" t="inlineStr">
         <is>
-          <t>2535.67</t>
+          <t>2860.28</t>
         </is>
       </c>
       <c r="CA18" t="inlineStr">
         <is>
-          <t>2924.85</t>
+          <t>3155.34</t>
         </is>
       </c>
       <c r="CB18" t="inlineStr">
         <is>
-          <t>2918.26</t>
+          <t>3160.10</t>
         </is>
       </c>
       <c r="CC18" t="inlineStr">
@@ -8062,42 +8062,42 @@
       </c>
       <c r="CD18" t="inlineStr">
         <is>
-          <t>5264.04</t>
+          <t>5607.51</t>
         </is>
       </c>
       <c r="CE18" t="inlineStr">
         <is>
-          <t>4556.11</t>
+          <t>5121.44</t>
         </is>
       </c>
       <c r="CF18" t="inlineStr">
         <is>
-          <t>4897.52</t>
+          <t>5195.25</t>
         </is>
       </c>
       <c r="CG18" t="inlineStr">
         <is>
-          <t>4297.17</t>
+          <t>4556.18</t>
         </is>
       </c>
       <c r="CH18" t="inlineStr">
         <is>
-          <t>3127.30</t>
+          <t>3516.34</t>
         </is>
       </c>
       <c r="CI18" t="inlineStr">
         <is>
-          <t>3135.26</t>
+          <t>3510.37</t>
         </is>
       </c>
       <c r="CJ18" t="inlineStr">
         <is>
-          <t>3707.73</t>
+          <t>4006.42</t>
         </is>
       </c>
       <c r="CK18" t="inlineStr">
         <is>
-          <t>3714.51</t>
+          <t>4005.66</t>
         </is>
       </c>
       <c r="CL18" t="inlineStr">

--- a/ASHRAE901_ApartmentHighRise_STD2019_DubaiTable.html+a.xlsx
+++ b/ASHRAE901_ApartmentHighRise_STD2019_DubaiTable.html+a.xlsx
@@ -877,42 +877,42 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4196.68</t>
+          <t>4235.88</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3648.84</t>
+          <t>3286.21</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>443.88</t>
+          <t>1029.45</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3385.11</t>
+          <t>2923.76</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2648.62</t>
+          <t>2226.92</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2650.45</t>
+          <t>2224.72</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2835.09</t>
+          <t>2980.46</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2856.17</t>
+          <t>2989.47</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -922,42 +922,42 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>4425.76</t>
+          <t>4470.97</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>3855.69</t>
+          <t>3475.09</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>3933.53</t>
+          <t>4076.12</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>3489.88</t>
+          <t>3016.26</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2633.69</t>
+          <t>2212.51</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2629.66</t>
+          <t>2208.97</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>2933.75</t>
+          <t>3038.94</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2935.90</t>
+          <t>3051.23</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -967,42 +967,42 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>4359.19</t>
+          <t>4371.87</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>3816.72</t>
+          <t>3406.58</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>3841.10</t>
+          <t>3979.18</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>3454.13</t>
+          <t>2965.98</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>2586.01</t>
+          <t>2163.46</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>2583.66</t>
+          <t>2159.88</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2885.14</t>
+          <t>2955.60</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2889.23</t>
+          <t>2966.89</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -1012,42 +1012,42 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>4371.14</t>
+          <t>4335.73</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>3842.47</t>
+          <t>3418.70</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>3852.18</t>
+          <t>4016.99</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>3481.18</t>
+          <t>2984.40</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>2597.23</t>
+          <t>2278.94</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>2595.03</t>
+          <t>2272.60</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>2889.22</t>
+          <t>2955.35</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>2892.54</t>
+          <t>2958.39</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1057,42 +1057,42 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>4387.28</t>
+          <t>4355.37</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>3871.72</t>
+          <t>3436.26</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>3876.51</t>
+          <t>4025.81</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>3506.64</t>
+          <t>3005.69</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>2602.51</t>
+          <t>2285.24</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>2609.96</t>
+          <t>2275.06</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>2904.25</t>
+          <t>2957.85</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>2907.36</t>
+          <t>2963.09</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
@@ -1102,42 +1102,42 @@
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>4398.09</t>
+          <t>4357.36</t>
         </is>
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>3887.82</t>
+          <t>3451.67</t>
         </is>
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>3893.80</t>
+          <t>3916.52</t>
         </is>
       </c>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>3524.82</t>
+          <t>3024.71</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>2608.79</t>
+          <t>2296.47</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr">
         <is>
-          <t>2607.84</t>
+          <t>2286.51</t>
         </is>
       </c>
       <c r="AZ3" t="inlineStr">
         <is>
-          <t>2921.72</t>
+          <t>2884.71</t>
         </is>
       </c>
       <c r="BA3" t="inlineStr">
         <is>
-          <t>2926.94</t>
+          <t>2902.39</t>
         </is>
       </c>
       <c r="BB3" t="inlineStr">
@@ -1147,42 +1147,42 @@
       </c>
       <c r="BC3" t="inlineStr">
         <is>
-          <t>4235.75</t>
+          <t>4372.76</t>
         </is>
       </c>
       <c r="BD3" t="inlineStr">
         <is>
-          <t>3911.11</t>
+          <t>3455.86</t>
         </is>
       </c>
       <c r="BE3" t="inlineStr">
         <is>
-          <t>3950.51</t>
+          <t>3995.06</t>
         </is>
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3550.27</t>
+          <t>3035.33</t>
         </is>
       </c>
       <c r="BG3" t="inlineStr">
         <is>
-          <t>2612.05</t>
+          <t>2308.26</t>
         </is>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2608.98</t>
+          <t>2298.49</t>
         </is>
       </c>
       <c r="BI3" t="inlineStr">
         <is>
-          <t>2942.04</t>
+          <t>2895.64</t>
         </is>
       </c>
       <c r="BJ3" t="inlineStr">
         <is>
-          <t>2944.56</t>
+          <t>2898.55</t>
         </is>
       </c>
       <c r="BK3" t="inlineStr">
@@ -1192,42 +1192,42 @@
       </c>
       <c r="BL3" t="inlineStr">
         <is>
-          <t>4263.72</t>
+          <t>4382.66</t>
         </is>
       </c>
       <c r="BM3" t="inlineStr">
         <is>
-          <t>3942.47</t>
+          <t>3477.07</t>
         </is>
       </c>
       <c r="BN3" t="inlineStr">
         <is>
-          <t>3973.13</t>
+          <t>4021.67</t>
         </is>
       </c>
       <c r="BO3" t="inlineStr">
         <is>
-          <t>3582.12</t>
+          <t>3059.07</t>
         </is>
       </c>
       <c r="BP3" t="inlineStr">
         <is>
-          <t>2636.17</t>
+          <t>2327.49</t>
         </is>
       </c>
       <c r="BQ3" t="inlineStr">
         <is>
-          <t>2631.37</t>
+          <t>2318.00</t>
         </is>
       </c>
       <c r="BR3" t="inlineStr">
         <is>
-          <t>2964.15</t>
+          <t>2916.04</t>
         </is>
       </c>
       <c r="BS3" t="inlineStr">
         <is>
-          <t>2966.51</t>
+          <t>2918.69</t>
         </is>
       </c>
       <c r="BT3" t="inlineStr">
@@ -1237,42 +1237,42 @@
       </c>
       <c r="BU3" t="inlineStr">
         <is>
-          <t>4386.47</t>
+          <t>4484.33</t>
         </is>
       </c>
       <c r="BV3" t="inlineStr">
         <is>
-          <t>4076.63</t>
+          <t>3588.21</t>
         </is>
       </c>
       <c r="BW3" t="inlineStr">
         <is>
-          <t>4093.89</t>
+          <t>4091.22</t>
         </is>
       </c>
       <c r="BX3" t="inlineStr">
         <is>
-          <t>3700.23</t>
+          <t>3165.54</t>
         </is>
       </c>
       <c r="BY3" t="inlineStr">
         <is>
-          <t>2771.01</t>
+          <t>2429.13</t>
         </is>
       </c>
       <c r="BZ3" t="inlineStr">
         <is>
-          <t>2773.84</t>
+          <t>2319.69</t>
         </is>
       </c>
       <c r="CA3" t="inlineStr">
         <is>
-          <t>3040.28</t>
+          <t>3009.16</t>
         </is>
       </c>
       <c r="CB3" t="inlineStr">
         <is>
-          <t>3042.66</t>
+          <t>3011.64</t>
         </is>
       </c>
       <c r="CC3" t="inlineStr">
@@ -1282,42 +1282,42 @@
       </c>
       <c r="CD3" t="inlineStr">
         <is>
-          <t>5189.77</t>
+          <t>5242.81</t>
         </is>
       </c>
       <c r="CE3" t="inlineStr">
         <is>
-          <t>4740.29</t>
+          <t>4389.54</t>
         </is>
       </c>
       <c r="CF3" t="inlineStr">
         <is>
-          <t>4844.29</t>
+          <t>4853.05</t>
         </is>
       </c>
       <c r="CG3" t="inlineStr">
         <is>
-          <t>4304.06</t>
+          <t>3811.37</t>
         </is>
       </c>
       <c r="CH3" t="inlineStr">
         <is>
-          <t>3355.17</t>
+          <t>2886.26</t>
         </is>
       </c>
       <c r="CI3" t="inlineStr">
         <is>
-          <t>3348.71</t>
+          <t>2882.14</t>
         </is>
       </c>
       <c r="CJ3" t="inlineStr">
         <is>
-          <t>3831.82</t>
+          <t>3853.07</t>
         </is>
       </c>
       <c r="CK3" t="inlineStr">
         <is>
-          <t>3843.89</t>
+          <t>3858.67</t>
         </is>
       </c>
       <c r="CL3" t="inlineStr">
@@ -1329,42 +1329,42 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4075.23</t>
+          <t>4101.40</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3731.37</t>
+          <t>3072.76</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>649.67</t>
+          <t>810.71</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3410.17</t>
+          <t>2874.85</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2713.82</t>
+          <t>2533.71</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2710.16</t>
+          <t>2529.06</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2863.29</t>
+          <t>2914.77</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2872.37</t>
+          <t>2913.18</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1374,42 +1374,42 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>4314.81</t>
+          <t>4406.10</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>3963.13</t>
+          <t>3224.86</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>3969.84</t>
+          <t>3924.47</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>3577.19</t>
+          <t>2950.76</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2651.85</t>
+          <t>2158.73</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2646.34</t>
+          <t>2157.81</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>2920.09</t>
+          <t>2981.79</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2927.51</t>
+          <t>2986.78</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1419,42 +1419,42 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>4264.15</t>
+          <t>4358.81</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>3927.72</t>
+          <t>3143.94</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>3883.81</t>
+          <t>3849.24</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>3538.99</t>
+          <t>2752.91</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>2594.99</t>
+          <t>2397.30</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>2598.30</t>
+          <t>2391.59</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2877.04</t>
+          <t>2928.32</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2884.75</t>
+          <t>2931.51</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1464,42 +1464,42 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>4290.93</t>
+          <t>4392.80</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>3971.60</t>
+          <t>3187.28</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>3903.41</t>
+          <t>3899.85</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>3566.39</t>
+          <t>2751.85</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>2605.28</t>
+          <t>2403.95</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>2600.94</t>
+          <t>2398.07</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>2875.34</t>
+          <t>2933.55</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>2888.42</t>
+          <t>2936.27</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1509,42 +1509,42 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>4330.81</t>
+          <t>4442.78</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>4011.80</t>
+          <t>3221.36</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>3929.27</t>
+          <t>3950.38</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>3596.19</t>
+          <t>2758.74</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>2634.76</t>
+          <t>2418.96</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>2629.36</t>
+          <t>2409.67</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>2880.65</t>
+          <t>2927.79</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>2883.69</t>
+          <t>2931.60</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
@@ -1554,42 +1554,42 @@
       </c>
       <c r="AT4" t="inlineStr">
         <is>
-          <t>4316.93</t>
+          <t>4471.85</t>
         </is>
       </c>
       <c r="AU4" t="inlineStr">
         <is>
-          <t>4046.81</t>
+          <t>3093.55</t>
         </is>
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>3935.11</t>
+          <t>4000.64</t>
         </is>
       </c>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>3599.47</t>
+          <t>2765.92</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>2674.59</t>
+          <t>2430.68</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr">
         <is>
-          <t>2668.98</t>
+          <t>2424.61</t>
         </is>
       </c>
       <c r="AZ4" t="inlineStr">
         <is>
-          <t>2927.07</t>
+          <t>2945.01</t>
         </is>
       </c>
       <c r="BA4" t="inlineStr">
         <is>
-          <t>2929.85</t>
+          <t>2949.30</t>
         </is>
       </c>
       <c r="BB4" t="inlineStr">
@@ -1599,42 +1599,42 @@
       </c>
       <c r="BC4" t="inlineStr">
         <is>
-          <t>4339.18</t>
+          <t>4495.17</t>
         </is>
       </c>
       <c r="BD4" t="inlineStr">
         <is>
-          <t>4080.75</t>
+          <t>3064.71</t>
         </is>
       </c>
       <c r="BE4" t="inlineStr">
         <is>
-          <t>4005.75</t>
+          <t>4105.00</t>
         </is>
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3624.58</t>
+          <t>2757.80</t>
         </is>
       </c>
       <c r="BG4" t="inlineStr">
         <is>
-          <t>2690.42</t>
+          <t>2445.47</t>
         </is>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2684.76</t>
+          <t>2439.60</t>
         </is>
       </c>
       <c r="BI4" t="inlineStr">
         <is>
-          <t>2944.14</t>
+          <t>2961.52</t>
         </is>
       </c>
       <c r="BJ4" t="inlineStr">
         <is>
-          <t>2946.67</t>
+          <t>2964.45</t>
         </is>
       </c>
       <c r="BK4" t="inlineStr">
@@ -1644,42 +1644,42 @@
       </c>
       <c r="BL4" t="inlineStr">
         <is>
-          <t>4356.77</t>
+          <t>4523.89</t>
         </is>
       </c>
       <c r="BM4" t="inlineStr">
         <is>
-          <t>4120.41</t>
+          <t>3086.23</t>
         </is>
       </c>
       <c r="BN4" t="inlineStr">
         <is>
-          <t>4033.54</t>
+          <t>4111.02</t>
         </is>
       </c>
       <c r="BO4" t="inlineStr">
         <is>
-          <t>3655.04</t>
+          <t>2781.00</t>
         </is>
       </c>
       <c r="BP4" t="inlineStr">
         <is>
-          <t>2713.88</t>
+          <t>2468.46</t>
         </is>
       </c>
       <c r="BQ4" t="inlineStr">
         <is>
-          <t>2708.16</t>
+          <t>2462.58</t>
         </is>
       </c>
       <c r="BR4" t="inlineStr">
         <is>
-          <t>2955.71</t>
+          <t>2987.27</t>
         </is>
       </c>
       <c r="BS4" t="inlineStr">
         <is>
-          <t>2963.23</t>
+          <t>2988.48</t>
         </is>
       </c>
       <c r="BT4" t="inlineStr">
@@ -1689,42 +1689,42 @@
       </c>
       <c r="BU4" t="inlineStr">
         <is>
-          <t>4484.78</t>
+          <t>4663.72</t>
         </is>
       </c>
       <c r="BV4" t="inlineStr">
         <is>
-          <t>4283.13</t>
+          <t>3200.52</t>
         </is>
       </c>
       <c r="BW4" t="inlineStr">
         <is>
-          <t>4150.87</t>
+          <t>4237.19</t>
         </is>
       </c>
       <c r="BX4" t="inlineStr">
         <is>
-          <t>3772.12</t>
+          <t>2902.12</t>
         </is>
       </c>
       <c r="BY4" t="inlineStr">
         <is>
-          <t>2828.35</t>
+          <t>2503.23</t>
         </is>
       </c>
       <c r="BZ4" t="inlineStr">
         <is>
-          <t>2822.42</t>
+          <t>2479.74</t>
         </is>
       </c>
       <c r="CA4" t="inlineStr">
         <is>
-          <t>3061.32</t>
+          <t>3079.99</t>
         </is>
       </c>
       <c r="CB4" t="inlineStr">
         <is>
-          <t>3060.82</t>
+          <t>3082.92</t>
         </is>
       </c>
       <c r="CC4" t="inlineStr">
@@ -1734,42 +1734,42 @@
       </c>
       <c r="CD4" t="inlineStr">
         <is>
-          <t>5401.53</t>
+          <t>5495.82</t>
         </is>
       </c>
       <c r="CE4" t="inlineStr">
         <is>
-          <t>5096.06</t>
+          <t>3890.52</t>
         </is>
       </c>
       <c r="CF4" t="inlineStr">
         <is>
-          <t>4923.68</t>
+          <t>5034.62</t>
         </is>
       </c>
       <c r="CG4" t="inlineStr">
         <is>
-          <t>4461.08</t>
+          <t>3483.86</t>
         </is>
       </c>
       <c r="CH4" t="inlineStr">
         <is>
-          <t>3409.42</t>
+          <t>2603.56</t>
         </is>
       </c>
       <c r="CI4" t="inlineStr">
         <is>
-          <t>3404.89</t>
+          <t>2608.85</t>
         </is>
       </c>
       <c r="CJ4" t="inlineStr">
         <is>
-          <t>3858.80</t>
+          <t>3868.02</t>
         </is>
       </c>
       <c r="CK4" t="inlineStr">
         <is>
-          <t>3861.52</t>
+          <t>3869.07</t>
         </is>
       </c>
       <c r="CL4" t="inlineStr">
@@ -1781,42 +1781,42 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4061.64</t>
+          <t>4126.22</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3836.40</t>
+          <t>3752.83</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>616.69</t>
+          <t>545.94</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3485.76</t>
+          <t>3497.83</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2707.69</t>
+          <t>2827.30</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2704.86</t>
+          <t>2821.72</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2865.11</t>
+          <t>2798.96</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2880.61</t>
+          <t>2802.21</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1826,42 +1826,42 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4315.56</t>
+          <t>4431.55</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>4060.16</t>
+          <t>4054.84</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>4031.58</t>
+          <t>3979.63</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>3623.03</t>
+          <t>3386.14</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2709.63</t>
+          <t>2503.34</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2703.49</t>
+          <t>2487.89</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>2951.00</t>
+          <t>2883.49</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2960.43</t>
+          <t>2891.38</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1871,42 +1871,42 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>4260.23</t>
+          <t>4373.84</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>4005.82</t>
+          <t>4047.57</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>3937.65</t>
+          <t>3892.62</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>3567.30</t>
+          <t>3569.38</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>2664.92</t>
+          <t>2744.61</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>2659.15</t>
+          <t>2737.83</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2888.38</t>
+          <t>2838.75</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2899.45</t>
+          <t>2841.52</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1916,42 +1916,42 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>4281.17</t>
+          <t>4398.54</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>4029.26</t>
+          <t>4096.49</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>3947.77</t>
+          <t>3924.18</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>3589.80</t>
+          <t>3596.15</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>2671.99</t>
+          <t>2752.86</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>2666.21</t>
+          <t>2746.11</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>2908.84</t>
+          <t>2941.62</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>2910.75</t>
+          <t>2943.90</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1961,42 +1961,42 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>4307.84</t>
+          <t>4435.28</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>4054.29</t>
+          <t>4120.02</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>3974.08</t>
+          <t>3968.16</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>3615.38</t>
+          <t>3626.46</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>2685.70</t>
+          <t>2768.10</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>2679.92</t>
+          <t>2761.64</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>2946.35</t>
+          <t>2953.38</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>2948.06</t>
+          <t>2955.85</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
@@ -2006,42 +2006,42 @@
       </c>
       <c r="AT5" t="inlineStr">
         <is>
-          <t>4332.21</t>
+          <t>4463.26</t>
         </is>
       </c>
       <c r="AU5" t="inlineStr">
         <is>
-          <t>4078.25</t>
+          <t>4143.59</t>
         </is>
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>3996.44</t>
+          <t>4002.31</t>
         </is>
       </c>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>3661.64</t>
+          <t>3653.74</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>2705.23</t>
+          <t>2783.17</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr">
         <is>
-          <t>2699.41</t>
+          <t>2776.75</t>
         </is>
       </c>
       <c r="AZ5" t="inlineStr">
         <is>
-          <t>2963.95</t>
+          <t>2966.97</t>
         </is>
       </c>
       <c r="BA5" t="inlineStr">
         <is>
-          <t>2966.15</t>
+          <t>2969.29</t>
         </is>
       </c>
       <c r="BB5" t="inlineStr">
@@ -2051,42 +2051,42 @@
       </c>
       <c r="BC5" t="inlineStr">
         <is>
-          <t>4356.30</t>
+          <t>4489.27</t>
         </is>
       </c>
       <c r="BD5" t="inlineStr">
         <is>
-          <t>4102.25</t>
+          <t>4169.21</t>
         </is>
       </c>
       <c r="BE5" t="inlineStr">
         <is>
-          <t>4071.58</t>
+          <t>4096.26</t>
         </is>
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3665.16</t>
+          <t>3679.45</t>
         </is>
       </c>
       <c r="BG5" t="inlineStr">
         <is>
-          <t>2703.08</t>
+          <t>2797.97</t>
         </is>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2698.54</t>
+          <t>2791.32</t>
         </is>
       </c>
       <c r="BI5" t="inlineStr">
         <is>
-          <t>2980.40</t>
+          <t>2980.98</t>
         </is>
       </c>
       <c r="BJ5" t="inlineStr">
         <is>
-          <t>2979.36</t>
+          <t>2983.19</t>
         </is>
       </c>
       <c r="BK5" t="inlineStr">
@@ -2096,42 +2096,42 @@
       </c>
       <c r="BL5" t="inlineStr">
         <is>
-          <t>4383.88</t>
+          <t>4520.89</t>
         </is>
       </c>
       <c r="BM5" t="inlineStr">
         <is>
-          <t>4132.04</t>
+          <t>4199.43</t>
         </is>
       </c>
       <c r="BN5" t="inlineStr">
         <is>
-          <t>4104.21</t>
+          <t>4128.44</t>
         </is>
       </c>
       <c r="BO5" t="inlineStr">
         <is>
-          <t>3693.21</t>
+          <t>3711.80</t>
         </is>
       </c>
       <c r="BP5" t="inlineStr">
         <is>
-          <t>2725.54</t>
+          <t>2821.41</t>
         </is>
       </c>
       <c r="BQ5" t="inlineStr">
         <is>
-          <t>2720.25</t>
+          <t>2815.02</t>
         </is>
       </c>
       <c r="BR5" t="inlineStr">
         <is>
-          <t>2998.82</t>
+          <t>3003.32</t>
         </is>
       </c>
       <c r="BS5" t="inlineStr">
         <is>
-          <t>3001.73</t>
+          <t>3005.20</t>
         </is>
       </c>
       <c r="BT5" t="inlineStr">
@@ -2141,42 +2141,42 @@
       </c>
       <c r="BU5" t="inlineStr">
         <is>
-          <t>4516.27</t>
+          <t>4665.17</t>
         </is>
       </c>
       <c r="BV5" t="inlineStr">
         <is>
-          <t>4258.12</t>
+          <t>4323.33</t>
         </is>
       </c>
       <c r="BW5" t="inlineStr">
         <is>
-          <t>4254.43</t>
+          <t>4260.93</t>
         </is>
       </c>
       <c r="BX5" t="inlineStr">
         <is>
-          <t>3805.18</t>
+          <t>3829.21</t>
         </is>
       </c>
       <c r="BY5" t="inlineStr">
         <is>
-          <t>2846.40</t>
+          <t>2934.37</t>
         </is>
       </c>
       <c r="BZ5" t="inlineStr">
         <is>
-          <t>2837.54</t>
+          <t>2927.95</t>
         </is>
       </c>
       <c r="CA5" t="inlineStr">
         <is>
-          <t>3105.81</t>
+          <t>3103.13</t>
         </is>
       </c>
       <c r="CB5" t="inlineStr">
         <is>
-          <t>3107.51</t>
+          <t>3105.02</t>
         </is>
       </c>
       <c r="CC5" t="inlineStr">
@@ -2186,42 +2186,42 @@
       </c>
       <c r="CD5" t="inlineStr">
         <is>
-          <t>5347.37</t>
+          <t>5526.86</t>
         </is>
       </c>
       <c r="CE5" t="inlineStr">
         <is>
-          <t>5121.44</t>
+          <t>5039.85</t>
         </is>
       </c>
       <c r="CF5" t="inlineStr">
         <is>
-          <t>5084.21</t>
+          <t>5021.57</t>
         </is>
       </c>
       <c r="CG5" t="inlineStr">
         <is>
-          <t>4529.32</t>
+          <t>4457.00</t>
         </is>
       </c>
       <c r="CH5" t="inlineStr">
         <is>
-          <t>3516.34</t>
+          <t>3420.34</t>
         </is>
       </c>
       <c r="CI5" t="inlineStr">
         <is>
-          <t>3510.37</t>
+          <t>3417.48</t>
         </is>
       </c>
       <c r="CJ5" t="inlineStr">
         <is>
-          <t>3870.51</t>
+          <t>3852.99</t>
         </is>
       </c>
       <c r="CK5" t="inlineStr">
         <is>
-          <t>3867.49</t>
+          <t>3850.65</t>
         </is>
       </c>
       <c r="CL5" t="inlineStr">
@@ -2233,42 +2233,42 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3902.88</t>
+          <t>3965.47</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3736.14</t>
+          <t>3796.30</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>803.42</t>
+          <t>351.66</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3497.86</t>
+          <t>3148.10</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2696.04</t>
+          <t>2457.90</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2691.96</t>
+          <t>2452.46</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2833.29</t>
+          <t>2572.88</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2839.89</t>
+          <t>2574.07</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -2278,42 +2278,42 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>4119.99</t>
+          <t>4298.22</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>3946.48</t>
+          <t>4077.70</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>3977.56</t>
+          <t>3689.20</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>3608.26</t>
+          <t>3303.40</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2663.61</t>
+          <t>2658.83</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2658.20</t>
+          <t>2651.88</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>2879.67</t>
+          <t>2646.41</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2892.22</t>
+          <t>2652.29</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -2323,42 +2323,42 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>4092.61</t>
+          <t>4257.74</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>3906.96</t>
+          <t>4051.49</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>3904.09</t>
+          <t>3637.65</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>3548.81</t>
+          <t>3229.02</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>2605.91</t>
+          <t>2611.11</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>2600.57</t>
+          <t>2604.29</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2811.50</t>
+          <t>2789.81</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2818.45</t>
+          <t>2792.71</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -2368,42 +2368,42 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>4132.29</t>
+          <t>4291.50</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>3937.80</t>
+          <t>3790.00</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>3895.01</t>
+          <t>3596.84</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>3571.13</t>
+          <t>3263.43</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>2612.15</t>
+          <t>2419.76</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>2606.49</t>
+          <t>2395.33</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>2823.11</t>
+          <t>2798.04</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>2826.37</t>
+          <t>2799.33</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -2413,42 +2413,42 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>4178.97</t>
+          <t>4322.92</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>3979.15</t>
+          <t>3816.25</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>3905.59</t>
+          <t>3630.35</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>3638.24</t>
+          <t>3297.80</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>2636.96</t>
+          <t>2452.34</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>2630.80</t>
+          <t>2444.49</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>2824.91</t>
+          <t>2813.51</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>2827.94</t>
+          <t>2814.58</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
@@ -2458,42 +2458,42 @@
       </c>
       <c r="AT6" t="inlineStr">
         <is>
-          <t>4213.43</t>
+          <t>4294.00</t>
         </is>
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>4015.92</t>
+          <t>3840.89</t>
         </is>
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>3947.52</t>
+          <t>3663.68</t>
         </is>
       </c>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>3622.28</t>
+          <t>3326.21</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>2666.75</t>
+          <t>2477.32</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr">
         <is>
-          <t>2660.52</t>
+          <t>2472.64</t>
         </is>
       </c>
       <c r="AZ6" t="inlineStr">
         <is>
-          <t>2837.72</t>
+          <t>2828.09</t>
         </is>
       </c>
       <c r="BA6" t="inlineStr">
         <is>
-          <t>2840.63</t>
+          <t>2767.16</t>
         </is>
       </c>
       <c r="BB6" t="inlineStr">
@@ -2503,42 +2503,42 @@
       </c>
       <c r="BC6" t="inlineStr">
         <is>
-          <t>4249.58</t>
+          <t>4112.27</t>
         </is>
       </c>
       <c r="BD6" t="inlineStr">
         <is>
-          <t>4049.70</t>
+          <t>3865.90</t>
         </is>
       </c>
       <c r="BE6" t="inlineStr">
         <is>
-          <t>3969.68</t>
+          <t>3733.03</t>
         </is>
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3650.46</t>
+          <t>3354.30</t>
         </is>
       </c>
       <c r="BG6" t="inlineStr">
         <is>
-          <t>2694.78</t>
+          <t>2497.77</t>
         </is>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2688.44</t>
+          <t>2493.72</t>
         </is>
       </c>
       <c r="BI6" t="inlineStr">
         <is>
-          <t>2842.66</t>
+          <t>2674.65</t>
         </is>
       </c>
       <c r="BJ6" t="inlineStr">
         <is>
-          <t>2855.21</t>
+          <t>2676.11</t>
         </is>
       </c>
       <c r="BK6" t="inlineStr">
@@ -2548,42 +2548,42 @@
       </c>
       <c r="BL6" t="inlineStr">
         <is>
-          <t>4284.56</t>
+          <t>4142.68</t>
         </is>
       </c>
       <c r="BM6" t="inlineStr">
         <is>
-          <t>4124.98</t>
+          <t>3897.07</t>
         </is>
       </c>
       <c r="BN6" t="inlineStr">
         <is>
-          <t>3987.72</t>
+          <t>3768.66</t>
         </is>
       </c>
       <c r="BO6" t="inlineStr">
         <is>
-          <t>3691.69</t>
+          <t>3390.46</t>
         </is>
       </c>
       <c r="BP6" t="inlineStr">
         <is>
-          <t>2730.86</t>
+          <t>2498.02</t>
         </is>
       </c>
       <c r="BQ6" t="inlineStr">
         <is>
-          <t>2724.54</t>
+          <t>2491.61</t>
         </is>
       </c>
       <c r="BR6" t="inlineStr">
         <is>
-          <t>2889.16</t>
+          <t>2700.39</t>
         </is>
       </c>
       <c r="BS6" t="inlineStr">
         <is>
-          <t>2891.51</t>
+          <t>2701.87</t>
         </is>
       </c>
       <c r="BT6" t="inlineStr">
@@ -2593,42 +2593,42 @@
       </c>
       <c r="BU6" t="inlineStr">
         <is>
-          <t>4411.90</t>
+          <t>4284.63</t>
         </is>
       </c>
       <c r="BV6" t="inlineStr">
         <is>
-          <t>4257.20</t>
+          <t>4031.95</t>
         </is>
       </c>
       <c r="BW6" t="inlineStr">
         <is>
-          <t>4091.01</t>
+          <t>3894.09</t>
         </is>
       </c>
       <c r="BX6" t="inlineStr">
         <is>
-          <t>3830.40</t>
+          <t>3515.80</t>
         </is>
       </c>
       <c r="BY6" t="inlineStr">
         <is>
-          <t>2843.69</t>
+          <t>2615.19</t>
         </is>
       </c>
       <c r="BZ6" t="inlineStr">
         <is>
-          <t>2837.34</t>
+          <t>2609.06</t>
         </is>
       </c>
       <c r="CA6" t="inlineStr">
         <is>
-          <t>2995.32</t>
+          <t>2808.30</t>
         </is>
       </c>
       <c r="CB6" t="inlineStr">
         <is>
-          <t>2997.75</t>
+          <t>2810.50</t>
         </is>
       </c>
       <c r="CC6" t="inlineStr">
@@ -2638,42 +2638,42 @@
       </c>
       <c r="CD6" t="inlineStr">
         <is>
-          <t>5209.10</t>
+          <t>5095.43</t>
         </is>
       </c>
       <c r="CE6" t="inlineStr">
         <is>
-          <t>4930.59</t>
+          <t>4793.48</t>
         </is>
       </c>
       <c r="CF6" t="inlineStr">
         <is>
-          <t>4890.54</t>
+          <t>4614.55</t>
         </is>
       </c>
       <c r="CG6" t="inlineStr">
         <is>
-          <t>4556.18</t>
+          <t>4227.70</t>
         </is>
       </c>
       <c r="CH6" t="inlineStr">
         <is>
-          <t>3470.75</t>
+          <t>3192.82</t>
         </is>
       </c>
       <c r="CI6" t="inlineStr">
         <is>
-          <t>3472.79</t>
+          <t>3196.05</t>
         </is>
       </c>
       <c r="CJ6" t="inlineStr">
         <is>
-          <t>3754.07</t>
+          <t>3528.47</t>
         </is>
       </c>
       <c r="CK6" t="inlineStr">
         <is>
-          <t>3761.58</t>
+          <t>3532.60</t>
         </is>
       </c>
       <c r="CL6" t="inlineStr">
@@ -2685,42 +2685,42 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3896.38</t>
+          <t>3501.09</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3794.14</t>
+          <t>3375.62</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>954.95</t>
+          <t>392.22</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3542.58</t>
+          <t>3026.34</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2703.64</t>
+          <t>2347.76</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2700.66</t>
+          <t>2344.09</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2781.49</t>
+          <t>2424.26</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2797.27</t>
+          <t>2439.20</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -2730,42 +2730,42 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>4106.42</t>
+          <t>3763.15</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>3948.29</t>
+          <t>3604.91</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>3915.52</t>
+          <t>3502.41</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>3665.49</t>
+          <t>3160.02</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2694.62</t>
+          <t>2340.69</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2684.13</t>
+          <t>2335.52</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>2851.28</t>
+          <t>2488.14</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2852.65</t>
+          <t>2498.23</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -2775,42 +2775,42 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>4073.72</t>
+          <t>3715.50</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>3921.41</t>
+          <t>3564.93</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>3809.13</t>
+          <t>3388.86</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>3616.39</t>
+          <t>3131.88</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>2655.54</t>
+          <t>2299.82</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>2649.81</t>
+          <t>2294.63</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2822.06</t>
+          <t>2446.09</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2825.49</t>
+          <t>2450.57</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -2820,42 +2820,42 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>4104.33</t>
+          <t>3740.57</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>3957.81</t>
+          <t>3592.49</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>3828.66</t>
+          <t>3408.31</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>3640.61</t>
+          <t>3164.99</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>2663.49</t>
+          <t>2316.30</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>2657.83</t>
+          <t>2311.16</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>2817.36</t>
+          <t>2461.71</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>2819.66</t>
+          <t>2464.88</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -2865,42 +2865,42 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>4136.27</t>
+          <t>3769.92</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>3991.62</t>
+          <t>3623.40</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>3840.54</t>
+          <t>3439.09</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>3668.24</t>
+          <t>3199.81</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>2680.03</t>
+          <t>2337.28</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>2674.41</t>
+          <t>2332.04</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>2832.14</t>
+          <t>2482.28</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>2834.32</t>
+          <t>2485.06</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
@@ -2910,42 +2910,42 @@
       </c>
       <c r="AT7" t="inlineStr">
         <is>
-          <t>4165.15</t>
+          <t>3798.08</t>
         </is>
       </c>
       <c r="AU7" t="inlineStr">
         <is>
-          <t>4021.97</t>
+          <t>3651.18</t>
         </is>
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>3879.68</t>
+          <t>3467.09</t>
         </is>
       </c>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>3695.98</t>
+          <t>3230.87</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>2695.08</t>
+          <t>2356.41</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr">
         <is>
-          <t>2689.50</t>
+          <t>2351.05</t>
         </is>
       </c>
       <c r="AZ7" t="inlineStr">
         <is>
-          <t>2838.53</t>
+          <t>2501.32</t>
         </is>
       </c>
       <c r="BA7" t="inlineStr">
         <is>
-          <t>2840.49</t>
+          <t>2503.90</t>
         </is>
       </c>
       <c r="BB7" t="inlineStr">
@@ -2955,42 +2955,42 @@
       </c>
       <c r="BC7" t="inlineStr">
         <is>
-          <t>4191.95</t>
+          <t>3823.00</t>
         </is>
       </c>
       <c r="BD7" t="inlineStr">
         <is>
-          <t>4050.03</t>
+          <t>3678.82</t>
         </is>
       </c>
       <c r="BE7" t="inlineStr">
         <is>
-          <t>3927.47</t>
+          <t>3526.99</t>
         </is>
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3722.09</t>
+          <t>3259.40</t>
         </is>
       </c>
       <c r="BG7" t="inlineStr">
         <is>
-          <t>2710.87</t>
+          <t>2374.72</t>
         </is>
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2705.32</t>
+          <t>2369.32</t>
         </is>
       </c>
       <c r="BI7" t="inlineStr">
         <is>
-          <t>2855.38</t>
+          <t>2519.64</t>
         </is>
       </c>
       <c r="BJ7" t="inlineStr">
         <is>
-          <t>2857.28</t>
+          <t>2522.04</t>
         </is>
       </c>
       <c r="BK7" t="inlineStr">
@@ -3000,42 +3000,42 @@
       </c>
       <c r="BL7" t="inlineStr">
         <is>
-          <t>4225.08</t>
+          <t>3854.60</t>
         </is>
       </c>
       <c r="BM7" t="inlineStr">
         <is>
-          <t>4084.52</t>
+          <t>3711.43</t>
         </is>
       </c>
       <c r="BN7" t="inlineStr">
         <is>
-          <t>3961.07</t>
+          <t>3559.54</t>
         </is>
       </c>
       <c r="BO7" t="inlineStr">
         <is>
-          <t>3755.09</t>
+          <t>3294.12</t>
         </is>
       </c>
       <c r="BP7" t="inlineStr">
         <is>
-          <t>2735.08</t>
+          <t>2400.59</t>
         </is>
       </c>
       <c r="BQ7" t="inlineStr">
         <is>
-          <t>2729.55</t>
+          <t>2395.23</t>
         </is>
       </c>
       <c r="BR7" t="inlineStr">
         <is>
-          <t>2879.57</t>
+          <t>2545.05</t>
         </is>
       </c>
       <c r="BS7" t="inlineStr">
         <is>
-          <t>2881.50</t>
+          <t>2547.44</t>
         </is>
       </c>
       <c r="BT7" t="inlineStr">
@@ -3045,42 +3045,42 @@
       </c>
       <c r="BU7" t="inlineStr">
         <is>
-          <t>4355.38</t>
+          <t>3988.86</t>
         </is>
       </c>
       <c r="BV7" t="inlineStr">
         <is>
-          <t>4217.25</t>
+          <t>3844.61</t>
         </is>
       </c>
       <c r="BW7" t="inlineStr">
         <is>
-          <t>4078.92</t>
+          <t>3683.49</t>
         </is>
       </c>
       <c r="BX7" t="inlineStr">
         <is>
-          <t>3876.98</t>
+          <t>3419.78</t>
         </is>
       </c>
       <c r="BY7" t="inlineStr">
         <is>
-          <t>2849.97</t>
+          <t>2517.71</t>
         </is>
       </c>
       <c r="BZ7" t="inlineStr">
         <is>
-          <t>2844.40</t>
+          <t>2512.37</t>
         </is>
       </c>
       <c r="CA7" t="inlineStr">
         <is>
-          <t>2993.85</t>
+          <t>2650.67</t>
         </is>
       </c>
       <c r="CB7" t="inlineStr">
         <is>
-          <t>2996.08</t>
+          <t>2653.00</t>
         </is>
       </c>
       <c r="CC7" t="inlineStr">
@@ -3090,42 +3090,42 @@
       </c>
       <c r="CD7" t="inlineStr">
         <is>
-          <t>5033.75</t>
+          <t>4656.32</t>
         </is>
       </c>
       <c r="CE7" t="inlineStr">
         <is>
-          <t>4811.85</t>
+          <t>4481.29</t>
         </is>
       </c>
       <c r="CF7" t="inlineStr">
         <is>
-          <t>4788.58</t>
+          <t>4303.65</t>
         </is>
       </c>
       <c r="CG7" t="inlineStr">
         <is>
-          <t>4476.15</t>
+          <t>4027.17</t>
         </is>
       </c>
       <c r="CH7" t="inlineStr">
         <is>
-          <t>3421.55</t>
+          <t>3049.19</t>
         </is>
       </c>
       <c r="CI7" t="inlineStr">
         <is>
-          <t>3420.95</t>
+          <t>3044.43</t>
         </is>
       </c>
       <c r="CJ7" t="inlineStr">
         <is>
-          <t>3652.14</t>
+          <t>3316.83</t>
         </is>
       </c>
       <c r="CK7" t="inlineStr">
         <is>
-          <t>3653.49</t>
+          <t>3316.74</t>
         </is>
       </c>
       <c r="CL7" t="inlineStr">
@@ -3137,42 +3137,42 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3756.29</t>
+          <t>3182.32</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3625.44</t>
+          <t>3089.74</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1085.63</t>
+          <t>559.34</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3421.54</t>
+          <t>2816.57</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2661.43</t>
+          <t>2183.21</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2656.82</t>
+          <t>2178.52</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2732.95</t>
+          <t>2234.22</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2729.18</t>
+          <t>2261.77</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -3182,42 +3182,42 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>3963.39</t>
+          <t>3384.69</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>3814.46</t>
+          <t>3264.47</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>3764.83</t>
+          <t>3301.95</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>3512.42</t>
+          <t>2908.62</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2637.58</t>
+          <t>2160.37</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2630.88</t>
+          <t>2154.48</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>2807.38</t>
+          <t>2275.92</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2812.68</t>
+          <t>2288.95</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -3227,42 +3227,42 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>3910.74</t>
+          <t>3300.19</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>3772.37</t>
+          <t>3187.13</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>3697.61</t>
+          <t>3045.99</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>3473.87</t>
+          <t>2833.87</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>2597.68</t>
+          <t>2093.41</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>2591.01</t>
+          <t>2087.66</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2766.37</t>
+          <t>2207.93</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2769.18</t>
+          <t>2210.72</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -3272,42 +3272,42 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>3935.60</t>
+          <t>3309.93</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>3800.28</t>
+          <t>3199.62</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>3713.03</t>
+          <t>3048.10</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>3502.67</t>
+          <t>2850.37</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>2619.72</t>
+          <t>2099.37</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>2613.82</t>
+          <t>2093.64</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>2788.36</t>
+          <t>2212.58</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>2790.52</t>
+          <t>2214.35</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -3317,42 +3317,42 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>3965.36</t>
+          <t>3326.52</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>3832.13</t>
+          <t>3218.01</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>3742.77</t>
+          <t>3065.26</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>3535.27</t>
+          <t>2871.70</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>2638.63</t>
+          <t>2111.55</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>2632.76</t>
+          <t>2105.83</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>2805.79</t>
+          <t>2224.00</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>2807.85</t>
+          <t>2225.57</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
@@ -3362,42 +3362,42 @@
       </c>
       <c r="AT8" t="inlineStr">
         <is>
-          <t>3998.36</t>
+          <t>3343.72</t>
         </is>
       </c>
       <c r="AU8" t="inlineStr">
         <is>
-          <t>3860.91</t>
+          <t>3235.11</t>
         </is>
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>3768.57</t>
+          <t>3082.38</t>
         </is>
       </c>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>3564.63</t>
+          <t>2891.31</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>2656.32</t>
+          <t>2123.27</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr">
         <is>
-          <t>2650.47</t>
+          <t>2117.56</t>
         </is>
       </c>
       <c r="AZ8" t="inlineStr">
         <is>
-          <t>2822.37</t>
+          <t>2235.20</t>
         </is>
       </c>
       <c r="BA8" t="inlineStr">
         <is>
-          <t>2824.36</t>
+          <t>2236.72</t>
         </is>
       </c>
       <c r="BB8" t="inlineStr">
@@ -3407,42 +3407,42 @@
       </c>
       <c r="BC8" t="inlineStr">
         <is>
-          <t>4023.90</t>
+          <t>3330.99</t>
         </is>
       </c>
       <c r="BD8" t="inlineStr">
         <is>
-          <t>3887.64</t>
+          <t>3224.24</t>
         </is>
       </c>
       <c r="BE8" t="inlineStr">
         <is>
-          <t>3752.47</t>
+          <t>3069.71</t>
         </is>
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3591.83</t>
+          <t>2882.60</t>
         </is>
       </c>
       <c r="BG8" t="inlineStr">
         <is>
-          <t>2673.37</t>
+          <t>2113.82</t>
         </is>
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2667.54</t>
+          <t>2108.18</t>
         </is>
       </c>
       <c r="BI8" t="inlineStr">
         <is>
-          <t>2838.58</t>
+          <t>2226.70</t>
         </is>
       </c>
       <c r="BJ8" t="inlineStr">
         <is>
-          <t>2840.52</t>
+          <t>2228.28</t>
         </is>
       </c>
       <c r="BK8" t="inlineStr">
@@ -3452,42 +3452,42 @@
       </c>
       <c r="BL8" t="inlineStr">
         <is>
-          <t>4055.88</t>
+          <t>3353.50</t>
         </is>
       </c>
       <c r="BM8" t="inlineStr">
         <is>
-          <t>3920.77</t>
+          <t>3247.76</t>
         </is>
       </c>
       <c r="BN8" t="inlineStr">
         <is>
-          <t>3784.60</t>
+          <t>3093.55</t>
         </is>
       </c>
       <c r="BO8" t="inlineStr">
         <is>
-          <t>3625.05</t>
+          <t>2911.98</t>
         </is>
       </c>
       <c r="BP8" t="inlineStr">
         <is>
-          <t>2698.24</t>
+          <t>2132.83</t>
         </is>
       </c>
       <c r="BQ8" t="inlineStr">
         <is>
-          <t>2692.46</t>
+          <t>2127.21</t>
         </is>
       </c>
       <c r="BR8" t="inlineStr">
         <is>
-          <t>2862.13</t>
+          <t>2245.02</t>
         </is>
       </c>
       <c r="BS8" t="inlineStr">
         <is>
-          <t>2863.99</t>
+          <t>2246.59</t>
         </is>
       </c>
       <c r="BT8" t="inlineStr">
@@ -3497,42 +3497,42 @@
       </c>
       <c r="BU8" t="inlineStr">
         <is>
-          <t>4177.50</t>
+          <t>3468.12</t>
         </is>
       </c>
       <c r="BV8" t="inlineStr">
         <is>
-          <t>4044.91</t>
+          <t>3362.70</t>
         </is>
       </c>
       <c r="BW8" t="inlineStr">
         <is>
-          <t>3899.34</t>
+          <t>3199.04</t>
         </is>
       </c>
       <c r="BX8" t="inlineStr">
         <is>
-          <t>3741.44</t>
+          <t>3020.65</t>
         </is>
       </c>
       <c r="BY8" t="inlineStr">
         <is>
-          <t>2811.38</t>
+          <t>2234.75</t>
         </is>
       </c>
       <c r="BZ8" t="inlineStr">
         <is>
-          <t>2805.54</t>
+          <t>2229.13</t>
         </is>
       </c>
       <c r="CA8" t="inlineStr">
         <is>
-          <t>2961.69</t>
+          <t>2335.75</t>
         </is>
       </c>
       <c r="CB8" t="inlineStr">
         <is>
-          <t>2963.53</t>
+          <t>2337.19</t>
         </is>
       </c>
       <c r="CC8" t="inlineStr">
@@ -3542,42 +3542,42 @@
       </c>
       <c r="CD8" t="inlineStr">
         <is>
-          <t>4759.69</t>
+          <t>4031.23</t>
         </is>
       </c>
       <c r="CE8" t="inlineStr">
         <is>
-          <t>4615.22</t>
+          <t>3901.38</t>
         </is>
       </c>
       <c r="CF8" t="inlineStr">
         <is>
-          <t>4454.07</t>
+          <t>3851.80</t>
         </is>
       </c>
       <c r="CG8" t="inlineStr">
         <is>
-          <t>4215.21</t>
+          <t>3643.44</t>
         </is>
       </c>
       <c r="CH8" t="inlineStr">
         <is>
-          <t>3316.98</t>
+          <t>2680.87</t>
         </is>
       </c>
       <c r="CI8" t="inlineStr">
         <is>
-          <t>3313.80</t>
+          <t>2676.43</t>
         </is>
       </c>
       <c r="CJ8" t="inlineStr">
         <is>
-          <t>3553.36</t>
+          <t>2896.60</t>
         </is>
       </c>
       <c r="CK8" t="inlineStr">
         <is>
-          <t>3554.80</t>
+          <t>2896.33</t>
         </is>
       </c>
       <c r="CL8" t="inlineStr">
@@ -3589,42 +3589,42 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3602.02</t>
+          <t>2850.76</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3480.22</t>
+          <t>2733.14</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1368.38</t>
+          <t>545.02</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3336.65</t>
+          <t>2630.43</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2624.16</t>
+          <t>1999.35</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2620.22</t>
+          <t>1997.52</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2693.33</t>
+          <t>2064.91</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2695.10</t>
+          <t>2104.53</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -3634,42 +3634,42 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>3801.65</t>
+          <t>2991.62</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>3656.14</t>
+          <t>2856.01</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>3697.11</t>
+          <t>3061.90</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>3427.75</t>
+          <t>2687.28</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2582.01</t>
+          <t>1977.58</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2576.32</t>
+          <t>1975.00</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>2750.27</t>
+          <t>2082.82</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2753.62</t>
+          <t>2100.26</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -3679,42 +3679,42 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>3743.83</t>
+          <t>2873.29</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>3603.36</t>
+          <t>2765.91</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>3596.06</t>
+          <t>2836.60</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>3369.02</t>
+          <t>2621.08</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>2511.40</t>
+          <t>1875.04</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>2505.83</t>
+          <t>1872.66</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2683.79</t>
+          <t>1976.39</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2686.26</t>
+          <t>1990.81</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -3724,42 +3724,42 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>3768.60</t>
+          <t>2871.11</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>3629.86</t>
+          <t>2765.41</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>3610.24</t>
+          <t>2820.35</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>3395.25</t>
+          <t>2625.19</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>2523.07</t>
+          <t>1876.60</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>2517.54</t>
+          <t>1874.23</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>2694.79</t>
+          <t>1971.71</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>2697.02</t>
+          <t>1975.60</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -3769,42 +3769,42 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>3797.89</t>
+          <t>2878.08</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>3660.15</t>
+          <t>2775.10</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>3638.68</t>
+          <t>2825.60</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>3425.42</t>
+          <t>2636.57</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>2540.76</t>
+          <t>1884.62</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>2535.26</t>
+          <t>1882.26</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>2712.19</t>
+          <t>1975.33</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>2714.33</t>
+          <t>1979.04</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
@@ -3814,42 +3814,42 @@
       </c>
       <c r="AT9" t="inlineStr">
         <is>
-          <t>3824.48</t>
+          <t>2886.81</t>
         </is>
       </c>
       <c r="AU9" t="inlineStr">
         <is>
-          <t>3687.48</t>
+          <t>2784.68</t>
         </is>
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>3663.44</t>
+          <t>2832.92</t>
         </is>
       </c>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>3452.70</t>
+          <t>2647.60</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>2557.32</t>
+          <t>1892.57</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr">
         <is>
-          <t>2551.85</t>
+          <t>1890.21</t>
         </is>
       </c>
       <c r="AZ9" t="inlineStr">
         <is>
-          <t>2728.65</t>
+          <t>1986.28</t>
         </is>
       </c>
       <c r="BA9" t="inlineStr">
         <is>
-          <t>2730.72</t>
+          <t>1991.74</t>
         </is>
       </c>
       <c r="BB9" t="inlineStr">
@@ -3859,42 +3859,42 @@
       </c>
       <c r="BC9" t="inlineStr">
         <is>
-          <t>3849.24</t>
+          <t>2886.63</t>
         </is>
       </c>
       <c r="BD9" t="inlineStr">
         <is>
-          <t>3712.84</t>
+          <t>2795.87</t>
         </is>
       </c>
       <c r="BE9" t="inlineStr">
         <is>
-          <t>3607.22</t>
+          <t>2740.95</t>
         </is>
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3478.11</t>
+          <t>2658.55</t>
         </is>
       </c>
       <c r="BG9" t="inlineStr">
         <is>
-          <t>2573.30</t>
+          <t>1900.86</t>
         </is>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2567.85</t>
+          <t>1898.50</t>
         </is>
       </c>
       <c r="BI9" t="inlineStr">
         <is>
-          <t>2744.64</t>
+          <t>2008.31</t>
         </is>
       </c>
       <c r="BJ9" t="inlineStr">
         <is>
-          <t>2746.65</t>
+          <t>2012.09</t>
         </is>
       </c>
       <c r="BK9" t="inlineStr">
@@ -3904,42 +3904,42 @@
       </c>
       <c r="BL9" t="inlineStr">
         <is>
-          <t>3880.14</t>
+          <t>2910.35</t>
         </is>
       </c>
       <c r="BM9" t="inlineStr">
         <is>
-          <t>3744.34</t>
+          <t>2812.86</t>
         </is>
       </c>
       <c r="BN9" t="inlineStr">
         <is>
-          <t>3638.36</t>
+          <t>2757.60</t>
         </is>
       </c>
       <c r="BO9" t="inlineStr">
         <is>
-          <t>3509.58</t>
+          <t>2676.61</t>
         </is>
       </c>
       <c r="BP9" t="inlineStr">
         <is>
-          <t>2599.73</t>
+          <t>1915.99</t>
         </is>
       </c>
       <c r="BQ9" t="inlineStr">
         <is>
-          <t>2594.31</t>
+          <t>1913.65</t>
         </is>
       </c>
       <c r="BR9" t="inlineStr">
         <is>
-          <t>2767.77</t>
+          <t>2022.52</t>
         </is>
       </c>
       <c r="BS9" t="inlineStr">
         <is>
-          <t>2769.73</t>
+          <t>2026.28</t>
         </is>
       </c>
       <c r="BT9" t="inlineStr">
@@ -3949,42 +3949,42 @@
       </c>
       <c r="BU9" t="inlineStr">
         <is>
-          <t>3996.09</t>
+          <t>3012.84</t>
         </is>
       </c>
       <c r="BV9" t="inlineStr">
         <is>
-          <t>3862.00</t>
+          <t>2917.84</t>
         </is>
       </c>
       <c r="BW9" t="inlineStr">
         <is>
-          <t>3748.24</t>
+          <t>2854.62</t>
         </is>
       </c>
       <c r="BX9" t="inlineStr">
         <is>
-          <t>3621.17</t>
+          <t>2777.56</t>
         </is>
       </c>
       <c r="BY9" t="inlineStr">
         <is>
-          <t>2708.21</t>
+          <t>2007.18</t>
         </is>
       </c>
       <c r="BZ9" t="inlineStr">
         <is>
-          <t>2702.74</t>
+          <t>2004.94</t>
         </is>
       </c>
       <c r="CA9" t="inlineStr">
         <is>
-          <t>2864.11</t>
+          <t>2104.88</t>
         </is>
       </c>
       <c r="CB9" t="inlineStr">
         <is>
-          <t>2866.05</t>
+          <t>2108.60</t>
         </is>
       </c>
       <c r="CC9" t="inlineStr">
@@ -3994,42 +3994,42 @@
       </c>
       <c r="CD9" t="inlineStr">
         <is>
-          <t>4575.94</t>
+          <t>3617.55</t>
         </is>
       </c>
       <c r="CE9" t="inlineStr">
         <is>
-          <t>4421.00</t>
+          <t>3486.33</t>
         </is>
       </c>
       <c r="CF9" t="inlineStr">
         <is>
-          <t>4301.20</t>
+          <t>3426.43</t>
         </is>
       </c>
       <c r="CG9" t="inlineStr">
         <is>
-          <t>4063.46</t>
+          <t>3211.72</t>
         </is>
       </c>
       <c r="CH9" t="inlineStr">
         <is>
-          <t>3210.12</t>
+          <t>2477.15</t>
         </is>
       </c>
       <c r="CI9" t="inlineStr">
         <is>
-          <t>3207.46</t>
+          <t>2476.64</t>
         </is>
       </c>
       <c r="CJ9" t="inlineStr">
         <is>
-          <t>3447.45</t>
+          <t>2687.38</t>
         </is>
       </c>
       <c r="CK9" t="inlineStr">
         <is>
-          <t>3449.29</t>
+          <t>2690.77</t>
         </is>
       </c>
       <c r="CL9" t="inlineStr">
@@ -4041,42 +4041,42 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3171.31</t>
+          <t>3159.40</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3104.70</t>
+          <t>3010.44</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1578.17</t>
+          <t>837.97</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2826.97</t>
+          <t>2800.73</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2146.74</t>
+          <t>2118.54</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2140.80</t>
+          <t>2114.58</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2260.40</t>
+          <t>2223.48</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2403.23</t>
+          <t>2260.33</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -4086,42 +4086,42 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>3393.35</t>
+          <t>3261.13</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>3246.38</t>
+          <t>3089.78</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>3455.72</t>
+          <t>3207.61</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2897.98</t>
+          <t>2806.27</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2134.30</t>
+          <t>2032.49</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2125.55</t>
+          <t>2027.80</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>2222.90</t>
+          <t>2195.71</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2246.94</t>
+          <t>2208.72</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -4131,42 +4131,42 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>3344.89</t>
+          <t>3095.23</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>3201.58</t>
+          <t>2939.02</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>3031.78</t>
+          <t>2916.50</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>2910.08</t>
+          <t>2632.67</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>2122.21</t>
+          <t>1910.98</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>2112.58</t>
+          <t>1906.49</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2169.45</t>
+          <t>2063.48</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2168.76</t>
+          <t>2067.53</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -4176,42 +4176,42 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>3365.61</t>
+          <t>3084.80</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>3235.12</t>
+          <t>2933.33</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>3063.04</t>
+          <t>2891.40</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>2972.31</t>
+          <t>2628.23</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>2157.67</t>
+          <t>1903.58</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>2147.40</t>
+          <t>1899.13</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>2184.90</t>
+          <t>2052.57</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>2176.34</t>
+          <t>2054.96</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -4221,42 +4221,42 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>3392.14</t>
+          <t>3085.64</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>3268.68</t>
+          <t>2937.45</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>3124.52</t>
+          <t>2857.12</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>3031.17</t>
+          <t>2632.51</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>2194.23</t>
+          <t>1905.20</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>2183.43</t>
+          <t>1900.75</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>2219.19</t>
+          <t>2051.76</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>2209.66</t>
+          <t>2053.82</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
@@ -4266,42 +4266,42 @@
       </c>
       <c r="AT10" t="inlineStr">
         <is>
-          <t>3416.59</t>
+          <t>3089.28</t>
         </is>
       </c>
       <c r="AU10" t="inlineStr">
         <is>
-          <t>3300.04</t>
+          <t>2942.38</t>
         </is>
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>3181.98</t>
+          <t>2858.03</t>
         </is>
       </c>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>3082.77</t>
+          <t>2637.69</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>2226.85</t>
+          <t>1907.87</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr">
         <is>
-          <t>2215.59</t>
+          <t>1903.44</t>
         </is>
       </c>
       <c r="AZ10" t="inlineStr">
         <is>
-          <t>2250.05</t>
+          <t>2052.60</t>
         </is>
       </c>
       <c r="BA10" t="inlineStr">
         <is>
-          <t>2240.12</t>
+          <t>2054.56</t>
         </is>
       </c>
       <c r="BB10" t="inlineStr">
@@ -4311,42 +4311,42 @@
       </c>
       <c r="BC10" t="inlineStr">
         <is>
-          <t>3439.63</t>
+          <t>3092.84</t>
         </is>
       </c>
       <c r="BD10" t="inlineStr">
         <is>
-          <t>3328.67</t>
+          <t>2949.54</t>
         </is>
       </c>
       <c r="BE10" t="inlineStr">
         <is>
-          <t>3132.20</t>
+          <t>2830.91</t>
         </is>
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3129.35</t>
+          <t>2643.64</t>
         </is>
       </c>
       <c r="BG10" t="inlineStr">
         <is>
-          <t>2256.85</t>
+          <t>1911.57</t>
         </is>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2245.19</t>
+          <t>1907.15</t>
         </is>
       </c>
       <c r="BI10" t="inlineStr">
         <is>
-          <t>2278.58</t>
+          <t>2054.80</t>
         </is>
       </c>
       <c r="BJ10" t="inlineStr">
         <is>
-          <t>2270.22</t>
+          <t>2056.74</t>
         </is>
       </c>
       <c r="BK10" t="inlineStr">
@@ -4356,42 +4356,42 @@
       </c>
       <c r="BL10" t="inlineStr">
         <is>
-          <t>3469.17</t>
+          <t>3104.64</t>
         </is>
       </c>
       <c r="BM10" t="inlineStr">
         <is>
-          <t>3360.70</t>
+          <t>2963.25</t>
         </is>
       </c>
       <c r="BN10" t="inlineStr">
         <is>
-          <t>3163.93</t>
+          <t>2844.01</t>
         </is>
       </c>
       <c r="BO10" t="inlineStr">
         <is>
-          <t>3178.20</t>
+          <t>2657.46</t>
         </is>
       </c>
       <c r="BP10" t="inlineStr">
         <is>
-          <t>2290.24</t>
+          <t>1923.20</t>
         </is>
       </c>
       <c r="BQ10" t="inlineStr">
         <is>
-          <t>2278.29</t>
+          <t>1918.79</t>
         </is>
       </c>
       <c r="BR10" t="inlineStr">
         <is>
-          <t>2310.76</t>
+          <t>2064.86</t>
         </is>
       </c>
       <c r="BS10" t="inlineStr">
         <is>
-          <t>2302.66</t>
+          <t>2066.74</t>
         </is>
       </c>
       <c r="BT10" t="inlineStr">
@@ -4401,42 +4401,42 @@
       </c>
       <c r="BU10" t="inlineStr">
         <is>
-          <t>3583.91</t>
+          <t>3211.03</t>
         </is>
       </c>
       <c r="BV10" t="inlineStr">
         <is>
-          <t>3470.96</t>
+          <t>3068.58</t>
         </is>
       </c>
       <c r="BW10" t="inlineStr">
         <is>
-          <t>3275.93</t>
+          <t>2942.57</t>
         </is>
       </c>
       <c r="BX10" t="inlineStr">
         <is>
-          <t>3303.79</t>
+          <t>2755.51</t>
         </is>
       </c>
       <c r="BY10" t="inlineStr">
         <is>
-          <t>2387.70</t>
+          <t>2016.19</t>
         </is>
       </c>
       <c r="BZ10" t="inlineStr">
         <is>
-          <t>2375.94</t>
+          <t>2011.96</t>
         </is>
       </c>
       <c r="CA10" t="inlineStr">
         <is>
-          <t>2408.91</t>
+          <t>2149.10</t>
         </is>
       </c>
       <c r="CB10" t="inlineStr">
         <is>
-          <t>2400.85</t>
+          <t>2150.98</t>
         </is>
       </c>
       <c r="CC10" t="inlineStr">
@@ -4446,42 +4446,42 @@
       </c>
       <c r="CD10" t="inlineStr">
         <is>
-          <t>4227.89</t>
+          <t>3861.02</t>
         </is>
       </c>
       <c r="CE10" t="inlineStr">
         <is>
-          <t>4080.73</t>
+          <t>3684.70</t>
         </is>
       </c>
       <c r="CF10" t="inlineStr">
         <is>
-          <t>3772.68</t>
+          <t>3509.21</t>
         </is>
       </c>
       <c r="CG10" t="inlineStr">
         <is>
-          <t>3592.05</t>
+          <t>3254.76</t>
         </is>
       </c>
       <c r="CH10" t="inlineStr">
         <is>
-          <t>2753.64</t>
+          <t>2491.85</t>
         </is>
       </c>
       <c r="CI10" t="inlineStr">
         <is>
-          <t>2734.09</t>
+          <t>2488.97</t>
         </is>
       </c>
       <c r="CJ10" t="inlineStr">
         <is>
-          <t>2912.36</t>
+          <t>2738.17</t>
         </is>
       </c>
       <c r="CK10" t="inlineStr">
         <is>
-          <t>2916.38</t>
+          <t>2739.08</t>
         </is>
       </c>
       <c r="CL10" t="inlineStr">
@@ -4493,42 +4493,42 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3862.86</t>
+          <t>3359.07</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3704.04</t>
+          <t>3121.60</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1403.95</t>
+          <t>929.96</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3455.79</t>
+          <t>2875.23</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2714.08</t>
+          <t>2187.87</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2709.92</t>
+          <t>2182.97</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2793.97</t>
+          <t>2381.10</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2792.15</t>
+          <t>2416.57</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -4538,42 +4538,42 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>4064.85</t>
+          <t>3517.44</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>3886.06</t>
+          <t>3239.21</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>3828.97</t>
+          <t>3405.31</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>3542.71</t>
+          <t>2887.56</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>2666.10</t>
+          <t>2116.91</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2660.13</t>
+          <t>2110.76</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>2845.26</t>
+          <t>2385.14</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2848.57</t>
+          <t>2395.37</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -4583,42 +4583,42 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>4005.99</t>
+          <t>3287.00</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>3846.30</t>
+          <t>2998.11</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>3735.32</t>
+          <t>3046.91</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>3512.53</t>
+          <t>2660.42</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>2620.17</t>
+          <t>1918.00</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>2614.25</t>
+          <t>1912.29</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2797.28</t>
+          <t>2192.26</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2799.64</t>
+          <t>2194.96</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -4628,42 +4628,42 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>4034.87</t>
+          <t>3281.53</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>3878.48</t>
+          <t>2993.75</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>3763.12</t>
+          <t>3029.89</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>3548.42</t>
+          <t>2659.10</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>2636.81</t>
+          <t>1911.51</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>2630.92</t>
+          <t>1905.83</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>2812.09</t>
+          <t>2184.79</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>2814.28</t>
+          <t>2186.19</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -4673,42 +4673,42 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>4069.94</t>
+          <t>3286.81</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>3912.92</t>
+          <t>2999.34</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>3798.29</t>
+          <t>3033.83</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>3582.11</t>
+          <t>2666.90</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>2658.80</t>
+          <t>1914.00</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>2652.94</t>
+          <t>1908.36</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>2832.89</t>
+          <t>2187.27</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>2834.99</t>
+          <t>2188.40</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
@@ -4718,42 +4718,42 @@
       </c>
       <c r="AT11" t="inlineStr">
         <is>
-          <t>4101.79</t>
+          <t>3294.39</t>
         </is>
       </c>
       <c r="AU11" t="inlineStr">
         <is>
-          <t>3946.14</t>
+          <t>3005.74</t>
         </is>
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>3829.91</t>
+          <t>3040.01</t>
         </is>
       </c>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>3617.06</t>
+          <t>2675.13</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>2679.07</t>
+          <t>1917.66</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr">
         <is>
-          <t>2673.23</t>
+          <t>1912.03</t>
         </is>
       </c>
       <c r="AZ11" t="inlineStr">
         <is>
-          <t>2852.31</t>
+          <t>2191.03</t>
         </is>
       </c>
       <c r="BA11" t="inlineStr">
         <is>
-          <t>2854.34</t>
+          <t>2192.07</t>
         </is>
       </c>
       <c r="BB11" t="inlineStr">
@@ -4763,42 +4763,42 @@
       </c>
       <c r="BC11" t="inlineStr">
         <is>
-          <t>4131.55</t>
+          <t>3301.44</t>
         </is>
       </c>
       <c r="BD11" t="inlineStr">
         <is>
-          <t>3976.98</t>
+          <t>3014.28</t>
         </is>
       </c>
       <c r="BE11" t="inlineStr">
         <is>
-          <t>3839.13</t>
+          <t>2974.47</t>
         </is>
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3649.55</t>
+          <t>2683.73</t>
         </is>
       </c>
       <c r="BG11" t="inlineStr">
         <is>
-          <t>2698.36</t>
+          <t>1922.36</t>
         </is>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2692.53</t>
+          <t>1916.73</t>
         </is>
       </c>
       <c r="BI11" t="inlineStr">
         <is>
-          <t>2870.96</t>
+          <t>2195.82</t>
         </is>
       </c>
       <c r="BJ11" t="inlineStr">
         <is>
-          <t>2872.94</t>
+          <t>2196.80</t>
         </is>
       </c>
       <c r="BK11" t="inlineStr">
@@ -4808,42 +4808,42 @@
       </c>
       <c r="BL11" t="inlineStr">
         <is>
-          <t>4169.34</t>
+          <t>3316.52</t>
         </is>
       </c>
       <c r="BM11" t="inlineStr">
         <is>
-          <t>4015.59</t>
+          <t>3029.30</t>
         </is>
       </c>
       <c r="BN11" t="inlineStr">
         <is>
-          <t>3873.59</t>
+          <t>2990.65</t>
         </is>
       </c>
       <c r="BO11" t="inlineStr">
         <is>
-          <t>3687.89</t>
+          <t>2699.79</t>
         </is>
       </c>
       <c r="BP11" t="inlineStr">
         <is>
-          <t>2725.29</t>
+          <t>1934.90</t>
         </is>
       </c>
       <c r="BQ11" t="inlineStr">
         <is>
-          <t>2719.49</t>
+          <t>1929.26</t>
         </is>
       </c>
       <c r="BR11" t="inlineStr">
         <is>
-          <t>2896.77</t>
+          <t>2208.46</t>
         </is>
       </c>
       <c r="BS11" t="inlineStr">
         <is>
-          <t>2898.69</t>
+          <t>2209.41</t>
         </is>
       </c>
       <c r="BT11" t="inlineStr">
@@ -4853,42 +4853,42 @@
       </c>
       <c r="BU11" t="inlineStr">
         <is>
-          <t>4306.24</t>
+          <t>3433.39</t>
         </is>
       </c>
       <c r="BV11" t="inlineStr">
         <is>
-          <t>4155.91</t>
+          <t>3139.30</t>
         </is>
       </c>
       <c r="BW11" t="inlineStr">
         <is>
-          <t>3991.77</t>
+          <t>3095.76</t>
         </is>
       </c>
       <c r="BX11" t="inlineStr">
         <is>
-          <t>3809.81</t>
+          <t>2802.50</t>
         </is>
       </c>
       <c r="BY11" t="inlineStr">
         <is>
-          <t>2840.16</t>
+          <t>2029.90</t>
         </is>
       </c>
       <c r="BZ11" t="inlineStr">
         <is>
-          <t>2834.30</t>
+          <t>2024.31</t>
         </is>
       </c>
       <c r="CA11" t="inlineStr">
         <is>
-          <t>2998.15</t>
+          <t>2299.99</t>
         </is>
       </c>
       <c r="CB11" t="inlineStr">
         <is>
-          <t>3000.04</t>
+          <t>2300.84</t>
         </is>
       </c>
       <c r="CC11" t="inlineStr">
@@ -4898,42 +4898,42 @@
       </c>
       <c r="CD11" t="inlineStr">
         <is>
-          <t>4941.63</t>
+          <t>4073.65</t>
         </is>
       </c>
       <c r="CE11" t="inlineStr">
         <is>
-          <t>4758.06</t>
+          <t>3747.92</t>
         </is>
       </c>
       <c r="CF11" t="inlineStr">
         <is>
-          <t>4613.76</t>
+          <t>3647.64</t>
         </is>
       </c>
       <c r="CG11" t="inlineStr">
         <is>
-          <t>4329.96</t>
+          <t>3253.78</t>
         </is>
       </c>
       <c r="CH11" t="inlineStr">
         <is>
-          <t>3338.43</t>
+          <t>2533.86</t>
         </is>
       </c>
       <c r="CI11" t="inlineStr">
         <is>
-          <t>3335.54</t>
+          <t>2528.52</t>
         </is>
       </c>
       <c r="CJ11" t="inlineStr">
         <is>
-          <t>3587.68</t>
+          <t>2917.89</t>
         </is>
       </c>
       <c r="CK11" t="inlineStr">
         <is>
-          <t>3590.10</t>
+          <t>2916.42</t>
         </is>
       </c>
       <c r="CL11" t="inlineStr">
@@ -4945,42 +4945,42 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4028.48</t>
+          <t>3756.46</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3874.58</t>
+          <t>3399.52</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1504.38</t>
+          <t>1159.65</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3554.34</t>
+          <t>3029.36</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2739.87</t>
+          <t>2310.98</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2735.95</t>
+          <t>2307.02</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2908.46</t>
+          <t>2675.77</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2908.17</t>
+          <t>2697.22</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -4990,42 +4990,42 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>4252.51</t>
+          <t>3948.18</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>4038.24</t>
+          <t>3583.11</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>4035.25</t>
+          <t>3752.75</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>3635.35</t>
+          <t>3078.49</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2681.67</t>
+          <t>2258.44</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2675.60</t>
+          <t>2251.07</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>2980.81</t>
+          <t>2713.04</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2984.16</t>
+          <t>2726.10</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -5035,42 +5035,42 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>4205.50</t>
+          <t>3875.18</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>3979.65</t>
+          <t>3529.82</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>3938.25</t>
+          <t>3543.02</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>3604.19</t>
+          <t>3039.21</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>2640.02</t>
+          <t>2216.22</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>2624.27</t>
+          <t>2211.80</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2913.14</t>
+          <t>2596.43</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2919.30</t>
+          <t>2603.26</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -5080,42 +5080,42 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>4237.21</t>
+          <t>3890.47</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>3998.36</t>
+          <t>3552.47</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>3966.07</t>
+          <t>3534.31</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>3640.67</t>
+          <t>3070.50</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>2667.68</t>
+          <t>2232.65</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>2661.21</t>
+          <t>2225.64</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>2924.17</t>
+          <t>2594.93</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>2929.49</t>
+          <t>2599.85</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -5125,42 +5125,42 @@
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>4271.91</t>
+          <t>3913.42</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>4018.77</t>
+          <t>3578.90</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>4003.22</t>
+          <t>3536.29</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>3679.96</t>
+          <t>3104.44</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>2681.09</t>
+          <t>2253.57</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>2675.39</t>
+          <t>2247.14</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>2938.53</t>
+          <t>2566.88</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>2948.83</t>
+          <t>2571.12</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
@@ -5170,42 +5170,42 @@
       </c>
       <c r="AT12" t="inlineStr">
         <is>
-          <t>4302.35</t>
+          <t>3936.71</t>
         </is>
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>4040.87</t>
+          <t>3602.09</t>
         </is>
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>4034.72</t>
+          <t>3562.74</t>
         </is>
       </c>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>3714.93</t>
+          <t>3132.23</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>2696.93</t>
+          <t>2274.62</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr">
         <is>
-          <t>2691.31</t>
+          <t>2267.53</t>
         </is>
       </c>
       <c r="AZ12" t="inlineStr">
         <is>
-          <t>2957.23</t>
+          <t>2529.06</t>
         </is>
       </c>
       <c r="BA12" t="inlineStr">
         <is>
-          <t>2967.31</t>
+          <t>2533.19</t>
         </is>
       </c>
       <c r="BB12" t="inlineStr">
@@ -5215,42 +5215,42 @@
       </c>
       <c r="BC12" t="inlineStr">
         <is>
-          <t>4331.94</t>
+          <t>3957.89</t>
         </is>
       </c>
       <c r="BD12" t="inlineStr">
         <is>
-          <t>4058.10</t>
+          <t>3625.89</t>
         </is>
       </c>
       <c r="BE12" t="inlineStr">
         <is>
-          <t>4061.94</t>
+          <t>3615.47</t>
         </is>
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3747.10</t>
+          <t>3158.10</t>
         </is>
       </c>
       <c r="BG12" t="inlineStr">
         <is>
-          <t>2712.43</t>
+          <t>2293.06</t>
         </is>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2706.82</t>
+          <t>2288.23</t>
         </is>
       </c>
       <c r="BI12" t="inlineStr">
         <is>
-          <t>2975.55</t>
+          <t>2549.17</t>
         </is>
       </c>
       <c r="BJ12" t="inlineStr">
         <is>
-          <t>2980.17</t>
+          <t>2551.23</t>
         </is>
       </c>
       <c r="BK12" t="inlineStr">
@@ -5260,42 +5260,42 @@
       </c>
       <c r="BL12" t="inlineStr">
         <is>
-          <t>4366.64</t>
+          <t>3986.05</t>
         </is>
       </c>
       <c r="BM12" t="inlineStr">
         <is>
-          <t>4068.45</t>
+          <t>3655.69</t>
         </is>
       </c>
       <c r="BN12" t="inlineStr">
         <is>
-          <t>4096.72</t>
+          <t>3646.66</t>
         </is>
       </c>
       <c r="BO12" t="inlineStr">
         <is>
-          <t>3784.84</t>
+          <t>3195.25</t>
         </is>
       </c>
       <c r="BP12" t="inlineStr">
         <is>
-          <t>2735.92</t>
+          <t>2317.47</t>
         </is>
       </c>
       <c r="BQ12" t="inlineStr">
         <is>
-          <t>2740.07</t>
+          <t>2311.49</t>
         </is>
       </c>
       <c r="BR12" t="inlineStr">
         <is>
-          <t>3003.57</t>
+          <t>2574.04</t>
         </is>
       </c>
       <c r="BS12" t="inlineStr">
         <is>
-          <t>3006.68</t>
+          <t>2577.07</t>
         </is>
       </c>
       <c r="BT12" t="inlineStr">
@@ -5305,42 +5305,42 @@
       </c>
       <c r="BU12" t="inlineStr">
         <is>
-          <t>4490.98</t>
+          <t>4122.64</t>
         </is>
       </c>
       <c r="BV12" t="inlineStr">
         <is>
-          <t>4206.62</t>
+          <t>3782.51</t>
         </is>
       </c>
       <c r="BW12" t="inlineStr">
         <is>
-          <t>4217.90</t>
+          <t>3771.03</t>
         </is>
       </c>
       <c r="BX12" t="inlineStr">
         <is>
-          <t>3900.71</t>
+          <t>3316.10</t>
         </is>
       </c>
       <c r="BY12" t="inlineStr">
         <is>
-          <t>2866.65</t>
+          <t>2424.59</t>
         </is>
       </c>
       <c r="BZ12" t="inlineStr">
         <is>
-          <t>2860.28</t>
+          <t>2420.56</t>
         </is>
       </c>
       <c r="CA12" t="inlineStr">
         <is>
-          <t>3111.49</t>
+          <t>2681.95</t>
         </is>
       </c>
       <c r="CB12" t="inlineStr">
         <is>
-          <t>3118.77</t>
+          <t>2686.32</t>
         </is>
       </c>
       <c r="CC12" t="inlineStr">
@@ -5350,42 +5350,42 @@
       </c>
       <c r="CD12" t="inlineStr">
         <is>
-          <t>5294.75</t>
+          <t>4989.74</t>
         </is>
       </c>
       <c r="CE12" t="inlineStr">
         <is>
-          <t>4917.41</t>
+          <t>4627.90</t>
         </is>
       </c>
       <c r="CF12" t="inlineStr">
         <is>
-          <t>4987.24</t>
+          <t>4576.41</t>
         </is>
       </c>
       <c r="CG12" t="inlineStr">
         <is>
-          <t>4497.86</t>
+          <t>4004.37</t>
         </is>
       </c>
       <c r="CH12" t="inlineStr">
         <is>
-          <t>3460.74</t>
+          <t>3000.09</t>
         </is>
       </c>
       <c r="CI12" t="inlineStr">
         <is>
-          <t>3461.00</t>
+          <t>2995.69</t>
         </is>
       </c>
       <c r="CJ12" t="inlineStr">
         <is>
-          <t>3895.37</t>
+          <t>3482.71</t>
         </is>
       </c>
       <c r="CK12" t="inlineStr">
         <is>
-          <t>3900.48</t>
+          <t>3486.51</t>
         </is>
       </c>
       <c r="CL12" t="inlineStr">
@@ -5397,42 +5397,42 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4183.87</t>
+          <t>4029.55</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3985.91</t>
+          <t>3489.06</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1122.33</t>
+          <t>1006.64</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3523.02</t>
+          <t>3046.63</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2764.11</t>
+          <t>2345.82</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2760.58</t>
+          <t>2343.36</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2967.80</t>
+          <t>2800.36</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2982.63</t>
+          <t>2784.03</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -5442,42 +5442,42 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>4459.92</t>
+          <t>4252.72</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>4172.77</t>
+          <t>3702.82</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>4108.97</t>
+          <t>3882.25</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>3618.95</t>
+          <t>3185.66</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>2708.62</t>
+          <t>2353.87</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2704.07</t>
+          <t>2349.47</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>3029.00</t>
+          <t>2846.15</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>3040.78</t>
+          <t>2853.09</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -5487,42 +5487,42 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>4408.21</t>
+          <t>4185.76</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>4123.67</t>
+          <t>3665.33</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>4004.25</t>
+          <t>3811.70</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>3567.63</t>
+          <t>3162.81</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>2681.41</t>
+          <t>2352.34</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>2676.41</t>
+          <t>2332.10</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2963.67</t>
+          <t>2801.87</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2972.41</t>
+          <t>2804.75</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -5532,42 +5532,42 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>4437.44</t>
+          <t>4207.23</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>4147.29</t>
+          <t>3700.23</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>4027.34</t>
+          <t>3853.71</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>3586.81</t>
+          <t>3206.31</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>2653.39</t>
+          <t>2400.98</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>2649.86</t>
+          <t>2392.76</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>2972.00</t>
+          <t>2816.81</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>2980.86</t>
+          <t>2823.94</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
@@ -5577,42 +5577,42 @@
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>4472.46</t>
+          <t>4236.00</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>4174.48</t>
+          <t>3733.14</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>4062.65</t>
+          <t>3899.94</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>3605.77</t>
+          <t>3255.76</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>2680.12</t>
+          <t>2455.33</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>2673.88</t>
+          <t>2428.31</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>2993.73</t>
+          <t>2826.82</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>2996.59</t>
+          <t>2833.45</t>
         </is>
       </c>
       <c r="AS13" t="inlineStr">
@@ -5622,42 +5622,42 @@
       </c>
       <c r="AT13" t="inlineStr">
         <is>
-          <t>4503.94</t>
+          <t>4263.86</t>
         </is>
       </c>
       <c r="AU13" t="inlineStr">
         <is>
-          <t>4199.79</t>
+          <t>3767.69</t>
         </is>
       </c>
       <c r="AV13" t="inlineStr">
         <is>
-          <t>4087.70</t>
+          <t>3931.81</t>
         </is>
       </c>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>3637.80</t>
+          <t>3337.27</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>2693.48</t>
+          <t>2480.59</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr">
         <is>
-          <t>2687.98</t>
+          <t>2476.65</t>
         </is>
       </c>
       <c r="AZ13" t="inlineStr">
         <is>
-          <t>3014.14</t>
+          <t>2837.90</t>
         </is>
       </c>
       <c r="BA13" t="inlineStr">
         <is>
-          <t>3016.87</t>
+          <t>2844.16</t>
         </is>
       </c>
       <c r="BB13" t="inlineStr">
@@ -5667,42 +5667,42 @@
       </c>
       <c r="BC13" t="inlineStr">
         <is>
-          <t>4533.45</t>
+          <t>4290.17</t>
         </is>
       </c>
       <c r="BD13" t="inlineStr">
         <is>
-          <t>4224.05</t>
+          <t>3803.26</t>
         </is>
       </c>
       <c r="BE13" t="inlineStr">
         <is>
-          <t>4136.48</t>
+          <t>4055.77</t>
         </is>
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3669.64</t>
+          <t>3372.92</t>
         </is>
       </c>
       <c r="BG13" t="inlineStr">
         <is>
-          <t>2711.40</t>
+          <t>2484.24</t>
         </is>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2706.31</t>
+          <t>2492.42</t>
         </is>
       </c>
       <c r="BI13" t="inlineStr">
         <is>
-          <t>3029.98</t>
+          <t>2840.82</t>
         </is>
       </c>
       <c r="BJ13" t="inlineStr">
         <is>
-          <t>3037.14</t>
+          <t>2846.21</t>
         </is>
       </c>
       <c r="BK13" t="inlineStr">
@@ -5712,42 +5712,42 @@
       </c>
       <c r="BL13" t="inlineStr">
         <is>
-          <t>4569.20</t>
+          <t>4321.82</t>
         </is>
       </c>
       <c r="BM13" t="inlineStr">
         <is>
-          <t>4098.86</t>
+          <t>3853.60</t>
         </is>
       </c>
       <c r="BN13" t="inlineStr">
         <is>
-          <t>4173.96</t>
+          <t>4064.99</t>
         </is>
       </c>
       <c r="BO13" t="inlineStr">
         <is>
-          <t>3702.20</t>
+          <t>3407.29</t>
         </is>
       </c>
       <c r="BP13" t="inlineStr">
         <is>
-          <t>2737.03</t>
+          <t>2491.25</t>
         </is>
       </c>
       <c r="BQ13" t="inlineStr">
         <is>
-          <t>2731.78</t>
+          <t>2506.56</t>
         </is>
       </c>
       <c r="BR13" t="inlineStr">
         <is>
-          <t>3056.77</t>
+          <t>2865.40</t>
         </is>
       </c>
       <c r="BS13" t="inlineStr">
         <is>
-          <t>3059.24</t>
+          <t>2870.52</t>
         </is>
       </c>
       <c r="BT13" t="inlineStr">
@@ -5757,42 +5757,42 @@
       </c>
       <c r="BU13" t="inlineStr">
         <is>
-          <t>4705.57</t>
+          <t>4454.58</t>
         </is>
       </c>
       <c r="BV13" t="inlineStr">
         <is>
-          <t>4237.92</t>
+          <t>3979.44</t>
         </is>
       </c>
       <c r="BW13" t="inlineStr">
         <is>
-          <t>4317.68</t>
+          <t>4147.05</t>
         </is>
       </c>
       <c r="BX13" t="inlineStr">
         <is>
-          <t>3827.39</t>
+          <t>3558.53</t>
         </is>
       </c>
       <c r="BY13" t="inlineStr">
         <is>
-          <t>2853.30</t>
+          <t>2599.76</t>
         </is>
       </c>
       <c r="BZ13" t="inlineStr">
         <is>
-          <t>2848.05</t>
+          <t>2613.59</t>
         </is>
       </c>
       <c r="CA13" t="inlineStr">
         <is>
-          <t>3155.34</t>
+          <t>2965.44</t>
         </is>
       </c>
       <c r="CB13" t="inlineStr">
         <is>
-          <t>3160.10</t>
+          <t>2969.46</t>
         </is>
       </c>
       <c r="CC13" t="inlineStr">
@@ -5802,42 +5802,42 @@
       </c>
       <c r="CD13" t="inlineStr">
         <is>
-          <t>5607.51</t>
+          <t>5371.99</t>
         </is>
       </c>
       <c r="CE13" t="inlineStr">
         <is>
-          <t>5097.07</t>
+          <t>4712.00</t>
         </is>
       </c>
       <c r="CF13" t="inlineStr">
         <is>
-          <t>5195.25</t>
+          <t>4966.41</t>
         </is>
       </c>
       <c r="CG13" t="inlineStr">
         <is>
-          <t>4516.50</t>
+          <t>4210.54</t>
         </is>
       </c>
       <c r="CH13" t="inlineStr">
         <is>
-          <t>3450.16</t>
+          <t>3172.21</t>
         </is>
       </c>
       <c r="CI13" t="inlineStr">
         <is>
-          <t>3448.39</t>
+          <t>3173.24</t>
         </is>
       </c>
       <c r="CJ13" t="inlineStr">
         <is>
-          <t>4006.42</t>
+          <t>3790.03</t>
         </is>
       </c>
       <c r="CK13" t="inlineStr">
         <is>
-          <t>4005.66</t>
+          <t>3793.65</t>
         </is>
       </c>
       <c r="CL13" t="inlineStr">
@@ -5849,42 +5849,42 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4078.64</t>
+          <t>4185.52</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3777.42</t>
+          <t>3380.34</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>501.41</t>
+          <t>698.40</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3427.26</t>
+          <t>3102.19</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2694.16</t>
+          <t>2453.79</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2690.35</t>
+          <t>2450.76</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2932.64</t>
+          <t>2958.50</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2940.05</t>
+          <t>2966.56</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -5894,42 +5894,42 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>4307.05</t>
+          <t>4460.47</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>3963.73</t>
+          <t>4083.07</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>4054.97</t>
+          <t>4025.93</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>3535.83</t>
+          <t>3106.99</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>2650.73</t>
+          <t>2398.80</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2644.96</t>
+          <t>2394.96</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>3006.01</t>
+          <t>3015.00</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>3015.42</t>
+          <t>3028.73</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -5939,42 +5939,42 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>4250.58</t>
+          <t>4422.52</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>3901.56</t>
+          <t>4008.58</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>3996.13</t>
+          <t>3938.50</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>3500.26</t>
+          <t>3504.64</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>2597.98</t>
+          <t>2630.29</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>2592.34</t>
+          <t>2627.00</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2948.20</t>
+          <t>2950.46</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2957.80</t>
+          <t>2957.38</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -5984,42 +5984,42 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>4272.87</t>
+          <t>4406.69</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>3925.39</t>
+          <t>4023.22</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>4008.59</t>
+          <t>3944.62</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>3536.64</t>
+          <t>3525.45</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>2606.60</t>
+          <t>2635.65</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>2601.05</t>
+          <t>2633.20</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>2957.90</t>
+          <t>2947.21</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>2962.10</t>
+          <t>2951.84</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
@@ -6029,42 +6029,42 @@
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>4301.17</t>
+          <t>4362.23</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>3951.84</t>
+          <t>4045.52</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>4035.36</t>
+          <t>3963.40</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>3580.21</t>
+          <t>3553.07</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>2640.73</t>
+          <t>2648.76</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>2635.02</t>
+          <t>2647.09</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>2983.80</t>
+          <t>2958.22</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>2986.96</t>
+          <t>2985.79</t>
         </is>
       </c>
       <c r="AS14" t="inlineStr">
@@ -6074,42 +6074,42 @@
       </c>
       <c r="AT14" t="inlineStr">
         <is>
-          <t>4326.78</t>
+          <t>4387.86</t>
         </is>
       </c>
       <c r="AU14" t="inlineStr">
         <is>
-          <t>3977.06</t>
+          <t>4068.38</t>
         </is>
       </c>
       <c r="AV14" t="inlineStr">
         <is>
-          <t>4054.55</t>
+          <t>3958.69</t>
         </is>
       </c>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>3616.51</t>
+          <t>3576.68</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>2665.57</t>
+          <t>2662.75</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr">
         <is>
-          <t>2659.87</t>
+          <t>2659.85</t>
         </is>
       </c>
       <c r="AZ14" t="inlineStr">
         <is>
-          <t>2996.65</t>
+          <t>2974.28</t>
         </is>
       </c>
       <c r="BA14" t="inlineStr">
         <is>
-          <t>2999.46</t>
+          <t>2977.40</t>
         </is>
       </c>
       <c r="BB14" t="inlineStr">
@@ -6119,42 +6119,42 @@
       </c>
       <c r="BC14" t="inlineStr">
         <is>
-          <t>4350.23</t>
+          <t>4401.95</t>
         </is>
       </c>
       <c r="BD14" t="inlineStr">
         <is>
-          <t>4001.57</t>
+          <t>4093.19</t>
         </is>
       </c>
       <c r="BE14" t="inlineStr">
         <is>
-          <t>4067.34</t>
+          <t>4109.36</t>
         </is>
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3648.28</t>
+          <t>3601.13</t>
         </is>
       </c>
       <c r="BG14" t="inlineStr">
         <is>
-          <t>2681.52</t>
+          <t>2678.85</t>
         </is>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2675.92</t>
+          <t>2674.97</t>
         </is>
       </c>
       <c r="BI14" t="inlineStr">
         <is>
-          <t>3011.31</t>
+          <t>2983.15</t>
         </is>
       </c>
       <c r="BJ14" t="inlineStr">
         <is>
-          <t>3013.92</t>
+          <t>2986.09</t>
         </is>
       </c>
       <c r="BK14" t="inlineStr">
@@ -6164,42 +6164,42 @@
       </c>
       <c r="BL14" t="inlineStr">
         <is>
-          <t>4376.74</t>
+          <t>4431.15</t>
         </is>
       </c>
       <c r="BM14" t="inlineStr">
         <is>
-          <t>4031.80</t>
+          <t>4124.13</t>
         </is>
       </c>
       <c r="BN14" t="inlineStr">
         <is>
-          <t>4092.74</t>
+          <t>4138.78</t>
         </is>
       </c>
       <c r="BO14" t="inlineStr">
         <is>
-          <t>3683.01</t>
+          <t>3633.57</t>
         </is>
       </c>
       <c r="BP14" t="inlineStr">
         <is>
-          <t>2704.72</t>
+          <t>2704.56</t>
         </is>
       </c>
       <c r="BQ14" t="inlineStr">
         <is>
-          <t>2699.15</t>
+          <t>2700.35</t>
         </is>
       </c>
       <c r="BR14" t="inlineStr">
         <is>
-          <t>3035.74</t>
+          <t>3005.65</t>
         </is>
       </c>
       <c r="BS14" t="inlineStr">
         <is>
-          <t>3038.45</t>
+          <t>3008.25</t>
         </is>
       </c>
       <c r="BT14" t="inlineStr">
@@ -6209,42 +6209,42 @@
       </c>
       <c r="BU14" t="inlineStr">
         <is>
-          <t>4481.81</t>
+          <t>4562.76</t>
         </is>
       </c>
       <c r="BV14" t="inlineStr">
         <is>
-          <t>4144.30</t>
+          <t>4259.03</t>
         </is>
       </c>
       <c r="BW14" t="inlineStr">
         <is>
-          <t>4202.11</t>
+          <t>4268.23</t>
         </is>
       </c>
       <c r="BX14" t="inlineStr">
         <is>
-          <t>3794.11</t>
+          <t>3761.12</t>
         </is>
       </c>
       <c r="BY14" t="inlineStr">
         <is>
-          <t>2817.28</t>
+          <t>2830.04</t>
         </is>
       </c>
       <c r="BZ14" t="inlineStr">
         <is>
-          <t>2811.47</t>
+          <t>2825.80</t>
         </is>
       </c>
       <c r="CA14" t="inlineStr">
         <is>
-          <t>3139.85</t>
+          <t>3097.45</t>
         </is>
       </c>
       <c r="CB14" t="inlineStr">
         <is>
-          <t>3143.52</t>
+          <t>3099.90</t>
         </is>
       </c>
       <c r="CC14" t="inlineStr">
@@ -6254,42 +6254,42 @@
       </c>
       <c r="CD14" t="inlineStr">
         <is>
-          <t>5331.36</t>
+          <t>5240.92</t>
         </is>
       </c>
       <c r="CE14" t="inlineStr">
         <is>
-          <t>4796.08</t>
+          <t>4507.69</t>
         </is>
       </c>
       <c r="CF14" t="inlineStr">
         <is>
-          <t>4990.32</t>
+          <t>4810.57</t>
         </is>
       </c>
       <c r="CG14" t="inlineStr">
         <is>
-          <t>4424.01</t>
+          <t>4033.75</t>
         </is>
       </c>
       <c r="CH14" t="inlineStr">
         <is>
-          <t>3421.30</t>
+          <t>3321.21</t>
         </is>
       </c>
       <c r="CI14" t="inlineStr">
         <is>
-          <t>3422.36</t>
+          <t>3319.20</t>
         </is>
       </c>
       <c r="CJ14" t="inlineStr">
         <is>
-          <t>3927.11</t>
+          <t>3811.34</t>
         </is>
       </c>
       <c r="CK14" t="inlineStr">
         <is>
-          <t>3931.94</t>
+          <t>3803.15</t>
         </is>
       </c>
       <c r="CL14" t="inlineStr">
@@ -7205,42 +7205,42 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3171.31</t>
+          <t>2850.76</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>3104.70</t>
+          <t>2733.14</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>443.88</t>
+          <t>351.66</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2826.97</t>
+          <t>2630.43</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2146.74</t>
+          <t>1999.35</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2140.80</t>
+          <t>1997.52</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2260.40</t>
+          <t>2064.91</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2403.23</t>
+          <t>2104.53</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -7250,42 +7250,42 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>3393.35</t>
+          <t>2991.62</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>3246.38</t>
+          <t>2856.01</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>3455.72</t>
+          <t>3061.90</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2897.98</t>
+          <t>2687.28</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>2134.30</t>
+          <t>1977.58</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2125.55</t>
+          <t>1975.00</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>2222.90</t>
+          <t>2082.82</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2246.94</t>
+          <t>2100.26</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -7295,42 +7295,42 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>3344.89</t>
+          <t>2873.29</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>3201.58</t>
+          <t>2765.91</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>3031.78</t>
+          <t>2836.60</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>2910.08</t>
+          <t>2621.08</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>2122.21</t>
+          <t>1875.04</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>2112.58</t>
+          <t>1872.66</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2169.45</t>
+          <t>1976.39</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2168.76</t>
+          <t>1990.81</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -7340,42 +7340,42 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>3365.61</t>
+          <t>2871.11</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>3235.12</t>
+          <t>2765.41</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>3063.04</t>
+          <t>2820.35</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>2972.31</t>
+          <t>2625.19</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>2157.67</t>
+          <t>1876.60</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>2147.40</t>
+          <t>1874.23</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>2184.90</t>
+          <t>1971.71</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>2176.34</t>
+          <t>1975.60</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
@@ -7385,42 +7385,42 @@
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>3392.14</t>
+          <t>2878.08</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>3268.68</t>
+          <t>2775.10</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>3124.52</t>
+          <t>2825.60</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>3031.17</t>
+          <t>2632.51</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>2194.23</t>
+          <t>1884.62</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>2183.43</t>
+          <t>1882.26</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>2219.19</t>
+          <t>1975.33</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>2209.66</t>
+          <t>1979.04</t>
         </is>
       </c>
       <c r="AS17" t="inlineStr">
@@ -7430,42 +7430,42 @@
       </c>
       <c r="AT17" t="inlineStr">
         <is>
-          <t>3416.59</t>
+          <t>2886.81</t>
         </is>
       </c>
       <c r="AU17" t="inlineStr">
         <is>
-          <t>3300.04</t>
+          <t>2784.68</t>
         </is>
       </c>
       <c r="AV17" t="inlineStr">
         <is>
-          <t>3181.98</t>
+          <t>2832.92</t>
         </is>
       </c>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>3082.77</t>
+          <t>2637.69</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>2226.85</t>
+          <t>1892.57</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr">
         <is>
-          <t>2215.59</t>
+          <t>1890.21</t>
         </is>
       </c>
       <c r="AZ17" t="inlineStr">
         <is>
-          <t>2250.05</t>
+          <t>1986.28</t>
         </is>
       </c>
       <c r="BA17" t="inlineStr">
         <is>
-          <t>2240.12</t>
+          <t>1991.74</t>
         </is>
       </c>
       <c r="BB17" t="inlineStr">
@@ -7475,42 +7475,42 @@
       </c>
       <c r="BC17" t="inlineStr">
         <is>
-          <t>3439.63</t>
+          <t>2886.63</t>
         </is>
       </c>
       <c r="BD17" t="inlineStr">
         <is>
-          <t>3328.67</t>
+          <t>2795.87</t>
         </is>
       </c>
       <c r="BE17" t="inlineStr">
         <is>
-          <t>3132.20</t>
+          <t>2740.95</t>
         </is>
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3129.35</t>
+          <t>2643.64</t>
         </is>
       </c>
       <c r="BG17" t="inlineStr">
         <is>
-          <t>2256.85</t>
+          <t>1900.86</t>
         </is>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2245.19</t>
+          <t>1898.50</t>
         </is>
       </c>
       <c r="BI17" t="inlineStr">
         <is>
-          <t>2278.58</t>
+          <t>2008.31</t>
         </is>
       </c>
       <c r="BJ17" t="inlineStr">
         <is>
-          <t>2270.22</t>
+          <t>2012.09</t>
         </is>
       </c>
       <c r="BK17" t="inlineStr">
@@ -7520,42 +7520,42 @@
       </c>
       <c r="BL17" t="inlineStr">
         <is>
-          <t>3469.17</t>
+          <t>2910.35</t>
         </is>
       </c>
       <c r="BM17" t="inlineStr">
         <is>
-          <t>3360.70</t>
+          <t>2812.86</t>
         </is>
       </c>
       <c r="BN17" t="inlineStr">
         <is>
-          <t>3163.93</t>
+          <t>2757.60</t>
         </is>
       </c>
       <c r="BO17" t="inlineStr">
         <is>
-          <t>3178.20</t>
+          <t>2657.46</t>
         </is>
       </c>
       <c r="BP17" t="inlineStr">
         <is>
-          <t>2290.24</t>
+          <t>1915.99</t>
         </is>
       </c>
       <c r="BQ17" t="inlineStr">
         <is>
-          <t>2278.29</t>
+          <t>1913.65</t>
         </is>
       </c>
       <c r="BR17" t="inlineStr">
         <is>
-          <t>2310.76</t>
+          <t>2022.52</t>
         </is>
       </c>
       <c r="BS17" t="inlineStr">
         <is>
-          <t>2302.66</t>
+          <t>2026.28</t>
         </is>
       </c>
       <c r="BT17" t="inlineStr">
@@ -7565,42 +7565,42 @@
       </c>
       <c r="BU17" t="inlineStr">
         <is>
-          <t>3583.91</t>
+          <t>3012.84</t>
         </is>
       </c>
       <c r="BV17" t="inlineStr">
         <is>
-          <t>3470.96</t>
+          <t>2917.84</t>
         </is>
       </c>
       <c r="BW17" t="inlineStr">
         <is>
-          <t>3275.93</t>
+          <t>2854.62</t>
         </is>
       </c>
       <c r="BX17" t="inlineStr">
         <is>
-          <t>3303.79</t>
+          <t>2755.51</t>
         </is>
       </c>
       <c r="BY17" t="inlineStr">
         <is>
-          <t>2387.70</t>
+          <t>2007.18</t>
         </is>
       </c>
       <c r="BZ17" t="inlineStr">
         <is>
-          <t>2375.94</t>
+          <t>2004.94</t>
         </is>
       </c>
       <c r="CA17" t="inlineStr">
         <is>
-          <t>2408.91</t>
+          <t>2104.88</t>
         </is>
       </c>
       <c r="CB17" t="inlineStr">
         <is>
-          <t>2400.85</t>
+          <t>2108.60</t>
         </is>
       </c>
       <c r="CC17" t="inlineStr">
@@ -7610,42 +7610,42 @@
       </c>
       <c r="CD17" t="inlineStr">
         <is>
-          <t>4227.89</t>
+          <t>3617.55</t>
         </is>
       </c>
       <c r="CE17" t="inlineStr">
         <is>
-          <t>4080.73</t>
+          <t>3486.33</t>
         </is>
       </c>
       <c r="CF17" t="inlineStr">
         <is>
-          <t>3772.68</t>
+          <t>3426.43</t>
         </is>
       </c>
       <c r="CG17" t="inlineStr">
         <is>
-          <t>3592.05</t>
+          <t>3211.72</t>
         </is>
       </c>
       <c r="CH17" t="inlineStr">
         <is>
-          <t>2753.64</t>
+          <t>2477.15</t>
         </is>
       </c>
       <c r="CI17" t="inlineStr">
         <is>
-          <t>2734.09</t>
+          <t>2476.64</t>
         </is>
       </c>
       <c r="CJ17" t="inlineStr">
         <is>
-          <t>2912.36</t>
+          <t>2687.38</t>
         </is>
       </c>
       <c r="CK17" t="inlineStr">
         <is>
-          <t>2916.38</t>
+          <t>2690.77</t>
         </is>
       </c>
       <c r="CL17" t="inlineStr">
@@ -7657,42 +7657,42 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4196.68</t>
+          <t>4235.88</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3985.91</t>
+          <t>3796.30</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1578.17</t>
+          <t>1159.65</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>3554.34</t>
+          <t>3497.83</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2764.11</t>
+          <t>2827.30</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2760.58</t>
+          <t>2821.72</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2967.80</t>
+          <t>2980.46</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2982.63</t>
+          <t>2989.47</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -7702,42 +7702,42 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>4459.92</t>
+          <t>4470.97</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>4172.77</t>
+          <t>4083.07</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>4108.97</t>
+          <t>4076.12</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>3665.49</t>
+          <t>3386.14</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>2709.63</t>
+          <t>2658.83</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2704.07</t>
+          <t>2651.88</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>3029.00</t>
+          <t>3038.94</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>3040.78</t>
+          <t>3051.23</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -7747,42 +7747,42 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>4408.21</t>
+          <t>4422.52</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>4123.67</t>
+          <t>4051.49</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>4004.25</t>
+          <t>3979.18</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>3616.39</t>
+          <t>3569.38</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>2681.41</t>
+          <t>2744.61</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>2676.41</t>
+          <t>2737.83</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2963.67</t>
+          <t>2955.60</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2972.41</t>
+          <t>2966.89</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -7792,42 +7792,42 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>4437.44</t>
+          <t>4406.69</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>4147.29</t>
+          <t>4096.49</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>4027.34</t>
+          <t>4016.99</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>3640.67</t>
+          <t>3596.15</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>2671.99</t>
+          <t>2752.86</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>2666.21</t>
+          <t>2746.11</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>2972.00</t>
+          <t>2955.35</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>2980.86</t>
+          <t>2958.39</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
@@ -7837,42 +7837,42 @@
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>4472.46</t>
+          <t>4442.78</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>4174.48</t>
+          <t>4120.02</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>4062.65</t>
+          <t>4025.81</t>
         </is>
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>3679.96</t>
+          <t>3626.46</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>2685.70</t>
+          <t>2768.10</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
-          <t>2679.92</t>
+          <t>2761.64</t>
         </is>
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>2993.73</t>
+          <t>2958.22</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>2996.59</t>
+          <t>2985.79</t>
         </is>
       </c>
       <c r="AS18" t="inlineStr">
@@ -7882,42 +7882,42 @@
       </c>
       <c r="AT18" t="inlineStr">
         <is>
-          <t>4503.94</t>
+          <t>4471.85</t>
         </is>
       </c>
       <c r="AU18" t="inlineStr">
         <is>
-          <t>4199.79</t>
+          <t>4143.59</t>
         </is>
       </c>
       <c r="AV18" t="inlineStr">
         <is>
-          <t>4087.70</t>
+          <t>4002.31</t>
         </is>
       </c>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>3714.93</t>
+          <t>3653.74</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>2705.23</t>
+          <t>2783.17</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr">
         <is>
-          <t>2699.41</t>
+          <t>2776.75</t>
         </is>
       </c>
       <c r="AZ18" t="inlineStr">
         <is>
-          <t>3014.14</t>
+          <t>2974.28</t>
         </is>
       </c>
       <c r="BA18" t="inlineStr">
         <is>
-          <t>3016.87</t>
+          <t>2977.40</t>
         </is>
       </c>
       <c r="BB18" t="inlineStr">
@@ -7927,42 +7927,42 @@
       </c>
       <c r="BC18" t="inlineStr">
         <is>
-          <t>4533.45</t>
+          <t>4495.17</t>
         </is>
       </c>
       <c r="BD18" t="inlineStr">
         <is>
-          <t>4224.05</t>
+          <t>4169.21</t>
         </is>
       </c>
       <c r="BE18" t="inlineStr">
         <is>
-          <t>4136.48</t>
+          <t>4109.36</t>
         </is>
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3747.10</t>
+          <t>3679.45</t>
         </is>
       </c>
       <c r="BG18" t="inlineStr">
         <is>
-          <t>2712.43</t>
+          <t>2797.97</t>
         </is>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2706.82</t>
+          <t>2791.32</t>
         </is>
       </c>
       <c r="BI18" t="inlineStr">
         <is>
-          <t>3029.98</t>
+          <t>2983.15</t>
         </is>
       </c>
       <c r="BJ18" t="inlineStr">
         <is>
-          <t>3037.14</t>
+          <t>2986.09</t>
         </is>
       </c>
       <c r="BK18" t="inlineStr">
@@ -7972,42 +7972,42 @@
       </c>
       <c r="BL18" t="inlineStr">
         <is>
-          <t>4569.20</t>
+          <t>4523.89</t>
         </is>
       </c>
       <c r="BM18" t="inlineStr">
         <is>
-          <t>4132.04</t>
+          <t>4199.43</t>
         </is>
       </c>
       <c r="BN18" t="inlineStr">
         <is>
-          <t>4173.96</t>
+          <t>4138.78</t>
         </is>
       </c>
       <c r="BO18" t="inlineStr">
         <is>
-          <t>3784.84</t>
+          <t>3711.80</t>
         </is>
       </c>
       <c r="BP18" t="inlineStr">
         <is>
-          <t>2737.03</t>
+          <t>2821.41</t>
         </is>
       </c>
       <c r="BQ18" t="inlineStr">
         <is>
-          <t>2740.07</t>
+          <t>2815.02</t>
         </is>
       </c>
       <c r="BR18" t="inlineStr">
         <is>
-          <t>3056.77</t>
+          <t>3005.65</t>
         </is>
       </c>
       <c r="BS18" t="inlineStr">
         <is>
-          <t>3059.24</t>
+          <t>3008.25</t>
         </is>
       </c>
       <c r="BT18" t="inlineStr">
@@ -8017,42 +8017,42 @@
       </c>
       <c r="BU18" t="inlineStr">
         <is>
-          <t>4705.57</t>
+          <t>4665.17</t>
         </is>
       </c>
       <c r="BV18" t="inlineStr">
         <is>
-          <t>4283.13</t>
+          <t>4323.33</t>
         </is>
       </c>
       <c r="BW18" t="inlineStr">
         <is>
-          <t>4317.68</t>
+          <t>4268.23</t>
         </is>
       </c>
       <c r="BX18" t="inlineStr">
         <is>
-          <t>3900.71</t>
+          <t>3829.21</t>
         </is>
       </c>
       <c r="BY18" t="inlineStr">
         <is>
-          <t>2866.65</t>
+          <t>2934.37</t>
         </is>
       </c>
       <c r="BZ18" t="inlineStr">
         <is>
-          <t>2860.28</t>
+          <t>2927.95</t>
         </is>
       </c>
       <c r="CA18" t="inlineStr">
         <is>
-          <t>3155.34</t>
+          <t>3103.13</t>
         </is>
       </c>
       <c r="CB18" t="inlineStr">
         <is>
-          <t>3160.10</t>
+          <t>3105.02</t>
         </is>
       </c>
       <c r="CC18" t="inlineStr">
@@ -8062,42 +8062,42 @@
       </c>
       <c r="CD18" t="inlineStr">
         <is>
-          <t>5607.51</t>
+          <t>5526.86</t>
         </is>
       </c>
       <c r="CE18" t="inlineStr">
         <is>
-          <t>5121.44</t>
+          <t>5039.85</t>
         </is>
       </c>
       <c r="CF18" t="inlineStr">
         <is>
-          <t>5195.25</t>
+          <t>5034.62</t>
         </is>
       </c>
       <c r="CG18" t="inlineStr">
         <is>
-          <t>4556.18</t>
+          <t>4457.00</t>
         </is>
       </c>
       <c r="CH18" t="inlineStr">
         <is>
-          <t>3516.34</t>
+          <t>3420.34</t>
         </is>
       </c>
       <c r="CI18" t="inlineStr">
         <is>
-          <t>3510.37</t>
+          <t>3417.48</t>
         </is>
       </c>
       <c r="CJ18" t="inlineStr">
         <is>
-          <t>4006.42</t>
+          <t>3868.02</t>
         </is>
       </c>
       <c r="CK18" t="inlineStr">
         <is>
-          <t>4005.66</t>
+          <t>3869.07</t>
         </is>
       </c>
       <c r="CL18" t="inlineStr">
